--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>465600</v>
+        <v>650800</v>
       </c>
       <c r="E8" s="3">
-        <v>464700</v>
+        <v>462400</v>
       </c>
       <c r="F8" s="3">
-        <v>615000</v>
+        <v>461500</v>
       </c>
       <c r="G8" s="3">
-        <v>624900</v>
+        <v>610800</v>
       </c>
       <c r="H8" s="3">
-        <v>566800</v>
+        <v>620600</v>
       </c>
       <c r="I8" s="3">
-        <v>487800</v>
+        <v>562900</v>
       </c>
       <c r="J8" s="3">
+        <v>484400</v>
+      </c>
+      <c r="K8" s="3">
         <v>402400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>301100</v>
+        <v>351200</v>
       </c>
       <c r="E9" s="3">
-        <v>262800</v>
+        <v>299100</v>
       </c>
       <c r="F9" s="3">
-        <v>286500</v>
+        <v>261000</v>
       </c>
       <c r="G9" s="3">
-        <v>276400</v>
+        <v>284600</v>
       </c>
       <c r="H9" s="3">
-        <v>261400</v>
+        <v>274500</v>
       </c>
       <c r="I9" s="3">
-        <v>241000</v>
+        <v>259600</v>
       </c>
       <c r="J9" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K9" s="3">
         <v>237800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>164500</v>
+        <v>299600</v>
       </c>
       <c r="E10" s="3">
-        <v>201900</v>
+        <v>163300</v>
       </c>
       <c r="F10" s="3">
-        <v>328500</v>
+        <v>200500</v>
       </c>
       <c r="G10" s="3">
-        <v>348400</v>
+        <v>326200</v>
       </c>
       <c r="H10" s="3">
-        <v>305400</v>
+        <v>346100</v>
       </c>
       <c r="I10" s="3">
-        <v>246800</v>
+        <v>303300</v>
       </c>
       <c r="J10" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K10" s="3">
         <v>164600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-208900</v>
-      </c>
       <c r="H14" s="3">
+        <v>-207400</v>
+      </c>
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-174000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>326300</v>
+        <v>372400</v>
       </c>
       <c r="E17" s="3">
-        <v>272100</v>
+        <v>324100</v>
       </c>
       <c r="F17" s="3">
-        <v>313400</v>
+        <v>270200</v>
       </c>
       <c r="G17" s="3">
-        <v>77300</v>
+        <v>311300</v>
       </c>
       <c r="H17" s="3">
-        <v>295700</v>
+        <v>76700</v>
       </c>
       <c r="I17" s="3">
-        <v>257600</v>
+        <v>293600</v>
       </c>
       <c r="J17" s="3">
+        <v>255900</v>
+      </c>
+      <c r="K17" s="3">
         <v>94900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>139300</v>
+        <v>278300</v>
       </c>
       <c r="E18" s="3">
-        <v>192600</v>
+        <v>138300</v>
       </c>
       <c r="F18" s="3">
-        <v>301600</v>
+        <v>191300</v>
       </c>
       <c r="G18" s="3">
-        <v>547600</v>
+        <v>299500</v>
       </c>
       <c r="H18" s="3">
-        <v>271100</v>
+        <v>543900</v>
       </c>
       <c r="I18" s="3">
-        <v>230100</v>
+        <v>269300</v>
       </c>
       <c r="J18" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K18" s="3">
         <v>307400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>12700</v>
       </c>
-      <c r="E20" s="3">
-        <v>9900</v>
-      </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>5900</v>
-      </c>
       <c r="I20" s="3">
-        <v>-19300</v>
+        <v>5800</v>
       </c>
       <c r="J20" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>251800</v>
+        <v>427700</v>
       </c>
       <c r="E21" s="3">
-        <v>288100</v>
+        <v>250100</v>
       </c>
       <c r="F21" s="3">
-        <v>411500</v>
+        <v>286100</v>
       </c>
       <c r="G21" s="3">
-        <v>646900</v>
+        <v>408600</v>
       </c>
       <c r="H21" s="3">
-        <v>373900</v>
+        <v>642500</v>
       </c>
       <c r="I21" s="3">
-        <v>301400</v>
+        <v>371400</v>
       </c>
       <c r="J21" s="3">
+        <v>299400</v>
+      </c>
+      <c r="K21" s="3">
         <v>397200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3700</v>
       </c>
       <c r="F22" s="3">
         <v>3700</v>
       </c>
       <c r="G22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
-        <v>6500</v>
-      </c>
       <c r="I22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J22" s="3">
         <v>5800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>148100</v>
+        <v>281400</v>
       </c>
       <c r="E23" s="3">
-        <v>198800</v>
+        <v>147100</v>
       </c>
       <c r="F23" s="3">
-        <v>307500</v>
+        <v>197400</v>
       </c>
       <c r="G23" s="3">
-        <v>543700</v>
+        <v>305400</v>
       </c>
       <c r="H23" s="3">
-        <v>270500</v>
+        <v>539900</v>
       </c>
       <c r="I23" s="3">
-        <v>205100</v>
+        <v>268700</v>
       </c>
       <c r="J23" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K23" s="3">
         <v>304100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53200</v>
+        <v>109600</v>
       </c>
       <c r="E24" s="3">
-        <v>72000</v>
+        <v>52900</v>
       </c>
       <c r="F24" s="3">
-        <v>83800</v>
+        <v>71500</v>
       </c>
       <c r="G24" s="3">
-        <v>188300</v>
+        <v>83200</v>
       </c>
       <c r="H24" s="3">
-        <v>93600</v>
+        <v>187000</v>
       </c>
       <c r="I24" s="3">
-        <v>98600</v>
+        <v>92900</v>
       </c>
       <c r="J24" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K24" s="3">
         <v>74900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94900</v>
+        <v>171800</v>
       </c>
       <c r="E26" s="3">
-        <v>126800</v>
+        <v>94200</v>
       </c>
       <c r="F26" s="3">
-        <v>223700</v>
+        <v>125900</v>
       </c>
       <c r="G26" s="3">
-        <v>355300</v>
+        <v>222200</v>
       </c>
       <c r="H26" s="3">
-        <v>176900</v>
+        <v>352900</v>
       </c>
       <c r="I26" s="3">
-        <v>106500</v>
+        <v>175700</v>
       </c>
       <c r="J26" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K26" s="3">
         <v>229200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87800</v>
+        <v>156800</v>
       </c>
       <c r="E27" s="3">
-        <v>117400</v>
+        <v>87200</v>
       </c>
       <c r="F27" s="3">
-        <v>216100</v>
+        <v>116600</v>
       </c>
       <c r="G27" s="3">
-        <v>337200</v>
+        <v>214600</v>
       </c>
       <c r="H27" s="3">
-        <v>159600</v>
+        <v>334800</v>
       </c>
       <c r="I27" s="3">
-        <v>92700</v>
+        <v>158500</v>
       </c>
       <c r="J27" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K27" s="3">
         <v>222800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1281,8 +1342,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1294,13 +1355,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>4800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-9900</v>
-      </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5900</v>
-      </c>
       <c r="I32" s="3">
-        <v>19300</v>
+        <v>-5800</v>
       </c>
       <c r="J32" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87800</v>
+        <v>156800</v>
       </c>
       <c r="E33" s="3">
-        <v>117400</v>
+        <v>87200</v>
       </c>
       <c r="F33" s="3">
-        <v>216100</v>
+        <v>116600</v>
       </c>
       <c r="G33" s="3">
-        <v>337200</v>
+        <v>214600</v>
       </c>
       <c r="H33" s="3">
-        <v>159600</v>
+        <v>334800</v>
       </c>
       <c r="I33" s="3">
-        <v>92700</v>
+        <v>158500</v>
       </c>
       <c r="J33" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K33" s="3">
         <v>227600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87800</v>
+        <v>156800</v>
       </c>
       <c r="E35" s="3">
-        <v>117400</v>
+        <v>87200</v>
       </c>
       <c r="F35" s="3">
-        <v>216100</v>
+        <v>116600</v>
       </c>
       <c r="G35" s="3">
-        <v>337200</v>
+        <v>214600</v>
       </c>
       <c r="H35" s="3">
-        <v>159600</v>
+        <v>334800</v>
       </c>
       <c r="I35" s="3">
-        <v>92700</v>
+        <v>158500</v>
       </c>
       <c r="J35" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K35" s="3">
         <v>227600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>490100</v>
+        <v>696100</v>
       </c>
       <c r="E41" s="3">
-        <v>657400</v>
+        <v>486800</v>
       </c>
       <c r="F41" s="3">
-        <v>615200</v>
+        <v>652900</v>
       </c>
       <c r="G41" s="3">
-        <v>468700</v>
+        <v>611000</v>
       </c>
       <c r="H41" s="3">
-        <v>805000</v>
+        <v>465500</v>
       </c>
       <c r="I41" s="3">
-        <v>266700</v>
+        <v>799500</v>
       </c>
       <c r="J41" s="3">
+        <v>264900</v>
+      </c>
+      <c r="K41" s="3">
         <v>180300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,182 +1681,203 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59400</v>
+        <v>41300</v>
       </c>
       <c r="E43" s="3">
-        <v>45000</v>
+        <v>59000</v>
       </c>
       <c r="F43" s="3">
-        <v>25300</v>
+        <v>44700</v>
       </c>
       <c r="G43" s="3">
-        <v>41500</v>
+        <v>25100</v>
       </c>
       <c r="H43" s="3">
-        <v>43500</v>
+        <v>41200</v>
       </c>
       <c r="I43" s="3">
-        <v>21400</v>
+        <v>43200</v>
       </c>
       <c r="J43" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K43" s="3">
         <v>62800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>345900</v>
+        <v>343700</v>
       </c>
       <c r="E44" s="3">
-        <v>327700</v>
+        <v>343500</v>
       </c>
       <c r="F44" s="3">
-        <v>305300</v>
+        <v>325400</v>
       </c>
       <c r="G44" s="3">
-        <v>310600</v>
+        <v>303200</v>
       </c>
       <c r="H44" s="3">
-        <v>314200</v>
+        <v>308500</v>
       </c>
       <c r="I44" s="3">
-        <v>305600</v>
+        <v>312000</v>
       </c>
       <c r="J44" s="3">
+        <v>303500</v>
+      </c>
+      <c r="K44" s="3">
         <v>279500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57200</v>
+        <v>161500</v>
       </c>
       <c r="E45" s="3">
-        <v>50700</v>
+        <v>56800</v>
       </c>
       <c r="F45" s="3">
-        <v>32300</v>
+        <v>50300</v>
       </c>
       <c r="G45" s="3">
-        <v>29100</v>
+        <v>32100</v>
       </c>
       <c r="H45" s="3">
-        <v>34900</v>
+        <v>28900</v>
       </c>
       <c r="I45" s="3">
-        <v>48400</v>
+        <v>34600</v>
       </c>
       <c r="J45" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K45" s="3">
         <v>28200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>952600</v>
+        <v>1242600</v>
       </c>
       <c r="E46" s="3">
-        <v>1080800</v>
+        <v>946000</v>
       </c>
       <c r="F46" s="3">
-        <v>978200</v>
+        <v>1073400</v>
       </c>
       <c r="G46" s="3">
-        <v>850000</v>
+        <v>971500</v>
       </c>
       <c r="H46" s="3">
-        <v>1197700</v>
+        <v>844100</v>
       </c>
       <c r="I46" s="3">
-        <v>642100</v>
+        <v>1189400</v>
       </c>
       <c r="J46" s="3">
+        <v>637700</v>
+      </c>
+      <c r="K46" s="3">
         <v>550900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>184000</v>
+        <v>182500</v>
       </c>
       <c r="E47" s="3">
-        <v>163500</v>
+        <v>182800</v>
       </c>
       <c r="F47" s="3">
-        <v>155200</v>
+        <v>162300</v>
       </c>
       <c r="G47" s="3">
-        <v>133100</v>
+        <v>154100</v>
       </c>
       <c r="H47" s="3">
-        <v>122400</v>
+        <v>132200</v>
       </c>
       <c r="I47" s="3">
-        <v>251000</v>
+        <v>121600</v>
       </c>
       <c r="J47" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K47" s="3">
         <v>208700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2983400</v>
+        <v>2810200</v>
       </c>
       <c r="E48" s="3">
-        <v>3016200</v>
+        <v>2962900</v>
       </c>
       <c r="F48" s="3">
-        <v>3061600</v>
+        <v>2995500</v>
       </c>
       <c r="G48" s="3">
-        <v>3001800</v>
+        <v>3040600</v>
       </c>
       <c r="H48" s="3">
-        <v>2783700</v>
+        <v>2981200</v>
       </c>
       <c r="I48" s="3">
-        <v>2665400</v>
+        <v>2764600</v>
       </c>
       <c r="J48" s="3">
+        <v>2647100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2625100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107800</v>
+        <v>101100</v>
       </c>
       <c r="E52" s="3">
-        <v>102100</v>
+        <v>107100</v>
       </c>
       <c r="F52" s="3">
-        <v>117600</v>
+        <v>101400</v>
       </c>
       <c r="G52" s="3">
-        <v>96900</v>
+        <v>116800</v>
       </c>
       <c r="H52" s="3">
-        <v>59900</v>
+        <v>96200</v>
       </c>
       <c r="I52" s="3">
-        <v>53900</v>
+        <v>59500</v>
       </c>
       <c r="J52" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K52" s="3">
         <v>56600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4227800</v>
+        <v>4336400</v>
       </c>
       <c r="E54" s="3">
-        <v>4362400</v>
+        <v>4198800</v>
       </c>
       <c r="F54" s="3">
-        <v>4312600</v>
+        <v>4332500</v>
       </c>
       <c r="G54" s="3">
-        <v>4081800</v>
+        <v>4283000</v>
       </c>
       <c r="H54" s="3">
-        <v>4163700</v>
+        <v>4053800</v>
       </c>
       <c r="I54" s="3">
-        <v>3612400</v>
+        <v>4135100</v>
       </c>
       <c r="J54" s="3">
+        <v>3587600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3441300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>96100</v>
+        <v>111600</v>
       </c>
       <c r="E57" s="3">
-        <v>107100</v>
+        <v>95500</v>
       </c>
       <c r="F57" s="3">
-        <v>114200</v>
+        <v>106300</v>
       </c>
       <c r="G57" s="3">
-        <v>103200</v>
+        <v>113400</v>
       </c>
       <c r="H57" s="3">
-        <v>100500</v>
+        <v>102500</v>
       </c>
       <c r="I57" s="3">
-        <v>103600</v>
+        <v>99800</v>
       </c>
       <c r="J57" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K57" s="3">
         <v>106900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40600</v>
+        <v>36700</v>
       </c>
       <c r="E58" s="3">
-        <v>42500</v>
+        <v>40300</v>
       </c>
       <c r="F58" s="3">
-        <v>43800</v>
+        <v>42200</v>
       </c>
       <c r="G58" s="3">
-        <v>29600</v>
+        <v>43500</v>
       </c>
       <c r="H58" s="3">
-        <v>28700</v>
+        <v>29400</v>
       </c>
       <c r="I58" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="J58" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K58" s="3">
         <v>33400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85300</v>
+        <v>105900</v>
       </c>
       <c r="E59" s="3">
-        <v>222000</v>
+        <v>84700</v>
       </c>
       <c r="F59" s="3">
-        <v>209000</v>
+        <v>220400</v>
       </c>
       <c r="G59" s="3">
-        <v>244800</v>
+        <v>207500</v>
       </c>
       <c r="H59" s="3">
-        <v>212200</v>
+        <v>243200</v>
       </c>
       <c r="I59" s="3">
-        <v>141200</v>
+        <v>210800</v>
       </c>
       <c r="J59" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K59" s="3">
         <v>71400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>222000</v>
+        <v>254100</v>
       </c>
       <c r="E60" s="3">
-        <v>371500</v>
+        <v>220500</v>
       </c>
       <c r="F60" s="3">
-        <v>366900</v>
+        <v>368900</v>
       </c>
       <c r="G60" s="3">
-        <v>377700</v>
+        <v>364400</v>
       </c>
       <c r="H60" s="3">
-        <v>341400</v>
+        <v>375100</v>
       </c>
       <c r="I60" s="3">
-        <v>273100</v>
+        <v>339000</v>
       </c>
       <c r="J60" s="3">
+        <v>271200</v>
+      </c>
+      <c r="K60" s="3">
         <v>211700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79400</v>
+        <v>70000</v>
       </c>
       <c r="E61" s="3">
-        <v>86000</v>
+        <v>78800</v>
       </c>
       <c r="F61" s="3">
-        <v>97400</v>
+        <v>85400</v>
       </c>
       <c r="G61" s="3">
-        <v>33100</v>
+        <v>96700</v>
       </c>
       <c r="H61" s="3">
-        <v>575600</v>
+        <v>32900</v>
       </c>
       <c r="I61" s="3">
-        <v>260300</v>
+        <v>571600</v>
       </c>
       <c r="J61" s="3">
+        <v>258600</v>
+      </c>
+      <c r="K61" s="3">
         <v>302500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413900</v>
+        <v>402300</v>
       </c>
       <c r="E62" s="3">
-        <v>420300</v>
+        <v>411100</v>
       </c>
       <c r="F62" s="3">
-        <v>435800</v>
+        <v>417400</v>
       </c>
       <c r="G62" s="3">
-        <v>421800</v>
+        <v>432800</v>
       </c>
       <c r="H62" s="3">
-        <v>326000</v>
+        <v>418900</v>
       </c>
       <c r="I62" s="3">
-        <v>331300</v>
+        <v>323800</v>
       </c>
       <c r="J62" s="3">
+        <v>329000</v>
+      </c>
+      <c r="K62" s="3">
         <v>295700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>812700</v>
+        <v>833400</v>
       </c>
       <c r="E66" s="3">
-        <v>998500</v>
+        <v>807100</v>
       </c>
       <c r="F66" s="3">
-        <v>1013700</v>
+        <v>991700</v>
       </c>
       <c r="G66" s="3">
-        <v>957600</v>
+        <v>1006800</v>
       </c>
       <c r="H66" s="3">
-        <v>1350800</v>
+        <v>951100</v>
       </c>
       <c r="I66" s="3">
-        <v>956200</v>
+        <v>1341500</v>
       </c>
       <c r="J66" s="3">
+        <v>949700</v>
+      </c>
+      <c r="K66" s="3">
         <v>888600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>423900</v>
+        <v>524900</v>
       </c>
       <c r="E72" s="3">
-        <v>389100</v>
+        <v>421000</v>
       </c>
       <c r="F72" s="3">
-        <v>326200</v>
+        <v>386400</v>
       </c>
       <c r="G72" s="3">
-        <v>163300</v>
+        <v>324000</v>
       </c>
       <c r="H72" s="3">
-        <v>-120400</v>
+        <v>162200</v>
       </c>
       <c r="I72" s="3">
-        <v>-254500</v>
+        <v>-119600</v>
       </c>
       <c r="J72" s="3">
+        <v>-252700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-335100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3415100</v>
+        <v>3503100</v>
       </c>
       <c r="E76" s="3">
-        <v>3363900</v>
+        <v>3391600</v>
       </c>
       <c r="F76" s="3">
-        <v>3298900</v>
+        <v>3340800</v>
       </c>
       <c r="G76" s="3">
-        <v>3124100</v>
+        <v>3276200</v>
       </c>
       <c r="H76" s="3">
-        <v>2812900</v>
+        <v>3102700</v>
       </c>
       <c r="I76" s="3">
-        <v>2656100</v>
+        <v>2793600</v>
       </c>
       <c r="J76" s="3">
+        <v>2637900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2552700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87800</v>
+        <v>156800</v>
       </c>
       <c r="E81" s="3">
-        <v>117400</v>
+        <v>87200</v>
       </c>
       <c r="F81" s="3">
-        <v>216100</v>
+        <v>116600</v>
       </c>
       <c r="G81" s="3">
-        <v>337200</v>
+        <v>214600</v>
       </c>
       <c r="H81" s="3">
-        <v>159600</v>
+        <v>334800</v>
       </c>
       <c r="I81" s="3">
-        <v>92700</v>
+        <v>158500</v>
       </c>
       <c r="J81" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K81" s="3">
         <v>227600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99800</v>
+        <v>142400</v>
       </c>
       <c r="E83" s="3">
-        <v>85600</v>
+        <v>99100</v>
       </c>
       <c r="F83" s="3">
-        <v>100300</v>
+        <v>85000</v>
       </c>
       <c r="G83" s="3">
-        <v>98900</v>
+        <v>99600</v>
       </c>
       <c r="H83" s="3">
-        <v>96900</v>
+        <v>98200</v>
       </c>
       <c r="I83" s="3">
-        <v>90600</v>
+        <v>96300</v>
       </c>
       <c r="J83" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K83" s="3">
         <v>86900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10700</v>
+        <v>408000</v>
       </c>
       <c r="E89" s="3">
-        <v>187100</v>
+        <v>-10600</v>
       </c>
       <c r="F89" s="3">
-        <v>250900</v>
+        <v>185800</v>
       </c>
       <c r="G89" s="3">
-        <v>385800</v>
+        <v>249100</v>
       </c>
       <c r="H89" s="3">
-        <v>305400</v>
+        <v>383100</v>
       </c>
       <c r="I89" s="3">
-        <v>277300</v>
+        <v>303300</v>
       </c>
       <c r="J89" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K89" s="3">
         <v>209900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84600</v>
+        <v>-97400</v>
       </c>
       <c r="E94" s="3">
-        <v>-76100</v>
+        <v>-84000</v>
       </c>
       <c r="F94" s="3">
-        <v>-104600</v>
+        <v>-75600</v>
       </c>
       <c r="G94" s="3">
-        <v>-94600</v>
+        <v>-103900</v>
       </c>
       <c r="H94" s="3">
-        <v>-89800</v>
+        <v>-93900</v>
       </c>
       <c r="I94" s="3">
-        <v>-144500</v>
+        <v>-89200</v>
       </c>
       <c r="J94" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-74100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2988,28 +3222,31 @@
         <v>-53700</v>
       </c>
       <c r="E96" s="3">
-        <v>-54000</v>
+        <v>-53400</v>
       </c>
       <c r="F96" s="3">
-        <v>-53900</v>
+        <v>-53600</v>
       </c>
       <c r="G96" s="3">
-        <v>-80600</v>
+        <v>-53600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-80100</v>
       </c>
       <c r="I96" s="3">
-        <v>-13300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-13200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-72500</v>
+        <v>-96200</v>
       </c>
       <c r="E100" s="3">
-        <v>-66800</v>
+        <v>-72000</v>
       </c>
       <c r="F100" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-630300</v>
-      </c>
       <c r="H100" s="3">
-        <v>322500</v>
+        <v>-625900</v>
       </c>
       <c r="I100" s="3">
-        <v>-41500</v>
+        <v>320300</v>
       </c>
       <c r="J100" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-139800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
-        <v>8700</v>
-      </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>8600</v>
       </c>
       <c r="H101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-5000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-167300</v>
+        <v>209400</v>
       </c>
       <c r="E102" s="3">
-        <v>42200</v>
+        <v>-166100</v>
       </c>
       <c r="F102" s="3">
-        <v>146500</v>
+        <v>41900</v>
       </c>
       <c r="G102" s="3">
-        <v>-336300</v>
+        <v>145500</v>
       </c>
       <c r="H102" s="3">
-        <v>538300</v>
+        <v>-334000</v>
       </c>
       <c r="I102" s="3">
-        <v>86400</v>
+        <v>534700</v>
       </c>
       <c r="J102" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>650800</v>
+        <v>670400</v>
       </c>
       <c r="E8" s="3">
-        <v>462400</v>
+        <v>651000</v>
       </c>
       <c r="F8" s="3">
-        <v>461500</v>
+        <v>462600</v>
       </c>
       <c r="G8" s="3">
-        <v>610800</v>
+        <v>461700</v>
       </c>
       <c r="H8" s="3">
-        <v>620600</v>
+        <v>611000</v>
       </c>
       <c r="I8" s="3">
-        <v>562900</v>
+        <v>620800</v>
       </c>
       <c r="J8" s="3">
+        <v>563100</v>
+      </c>
+      <c r="K8" s="3">
         <v>484400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>351200</v>
+        <v>354700</v>
       </c>
       <c r="E9" s="3">
-        <v>299100</v>
+        <v>351300</v>
       </c>
       <c r="F9" s="3">
-        <v>261000</v>
+        <v>299200</v>
       </c>
       <c r="G9" s="3">
-        <v>284600</v>
+        <v>261100</v>
       </c>
       <c r="H9" s="3">
-        <v>274500</v>
+        <v>284700</v>
       </c>
       <c r="I9" s="3">
-        <v>259600</v>
+        <v>274600</v>
       </c>
       <c r="J9" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K9" s="3">
         <v>239300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>237800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>299600</v>
+        <v>315700</v>
       </c>
       <c r="E10" s="3">
-        <v>163300</v>
+        <v>299700</v>
       </c>
       <c r="F10" s="3">
-        <v>200500</v>
+        <v>163400</v>
       </c>
       <c r="G10" s="3">
-        <v>326200</v>
+        <v>200600</v>
       </c>
       <c r="H10" s="3">
-        <v>346100</v>
+        <v>326300</v>
       </c>
       <c r="I10" s="3">
-        <v>303300</v>
+        <v>346200</v>
       </c>
       <c r="J10" s="3">
+        <v>303400</v>
+      </c>
+      <c r="K10" s="3">
         <v>245100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>164600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>7500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-207400</v>
-      </c>
       <c r="I14" s="3">
+        <v>-207500</v>
+      </c>
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-174000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>372400</v>
+        <v>367900</v>
       </c>
       <c r="E17" s="3">
-        <v>324100</v>
+        <v>372600</v>
       </c>
       <c r="F17" s="3">
-        <v>270200</v>
+        <v>324200</v>
       </c>
       <c r="G17" s="3">
-        <v>311300</v>
+        <v>270300</v>
       </c>
       <c r="H17" s="3">
-        <v>76700</v>
+        <v>311400</v>
       </c>
       <c r="I17" s="3">
-        <v>293600</v>
+        <v>76800</v>
       </c>
       <c r="J17" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K17" s="3">
         <v>255900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>278300</v>
+        <v>302500</v>
       </c>
       <c r="E18" s="3">
-        <v>138300</v>
+        <v>278500</v>
       </c>
       <c r="F18" s="3">
-        <v>191300</v>
+        <v>138400</v>
       </c>
       <c r="G18" s="3">
-        <v>299500</v>
+        <v>191400</v>
       </c>
       <c r="H18" s="3">
-        <v>543900</v>
+        <v>299600</v>
       </c>
       <c r="I18" s="3">
-        <v>269300</v>
+        <v>544100</v>
       </c>
       <c r="J18" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K18" s="3">
         <v>228600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>307400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>427700</v>
+        <v>459000</v>
       </c>
       <c r="E21" s="3">
-        <v>250100</v>
+        <v>427900</v>
       </c>
       <c r="F21" s="3">
-        <v>286100</v>
+        <v>250200</v>
       </c>
       <c r="G21" s="3">
-        <v>408600</v>
+        <v>286200</v>
       </c>
       <c r="H21" s="3">
-        <v>642500</v>
+        <v>408800</v>
       </c>
       <c r="I21" s="3">
-        <v>371400</v>
+        <v>642700</v>
       </c>
       <c r="J21" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K21" s="3">
         <v>299400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>397200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281400</v>
+        <v>299300</v>
       </c>
       <c r="E23" s="3">
-        <v>147100</v>
+        <v>281500</v>
       </c>
       <c r="F23" s="3">
-        <v>197400</v>
+        <v>147200</v>
       </c>
       <c r="G23" s="3">
-        <v>305400</v>
+        <v>197500</v>
       </c>
       <c r="H23" s="3">
-        <v>539900</v>
+        <v>305500</v>
       </c>
       <c r="I23" s="3">
-        <v>268700</v>
+        <v>540200</v>
       </c>
       <c r="J23" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K23" s="3">
         <v>203700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>304100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E24" s="3">
         <v>109600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52900</v>
       </c>
-      <c r="F24" s="3">
-        <v>71500</v>
-      </c>
       <c r="G24" s="3">
-        <v>83200</v>
+        <v>71600</v>
       </c>
       <c r="H24" s="3">
-        <v>187000</v>
+        <v>83300</v>
       </c>
       <c r="I24" s="3">
-        <v>92900</v>
+        <v>187100</v>
       </c>
       <c r="J24" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K24" s="3">
         <v>97900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>171800</v>
+        <v>195100</v>
       </c>
       <c r="E26" s="3">
-        <v>94200</v>
+        <v>171900</v>
       </c>
       <c r="F26" s="3">
+        <v>94300</v>
+      </c>
+      <c r="G26" s="3">
         <v>125900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>222200</v>
       </c>
-      <c r="H26" s="3">
-        <v>352900</v>
-      </c>
       <c r="I26" s="3">
-        <v>175700</v>
+        <v>353000</v>
       </c>
       <c r="J26" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K26" s="3">
         <v>105700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>229200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>156800</v>
+        <v>174500</v>
       </c>
       <c r="E27" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F27" s="3">
         <v>87200</v>
       </c>
-      <c r="F27" s="3">
-        <v>116600</v>
-      </c>
       <c r="G27" s="3">
-        <v>214600</v>
+        <v>116700</v>
       </c>
       <c r="H27" s="3">
-        <v>334800</v>
+        <v>214700</v>
       </c>
       <c r="I27" s="3">
-        <v>158500</v>
+        <v>335000</v>
       </c>
       <c r="J27" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K27" s="3">
         <v>92100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>222800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1345,8 +1405,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1358,13 +1418,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>156800</v>
+        <v>174500</v>
       </c>
       <c r="E33" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F33" s="3">
         <v>87200</v>
       </c>
-      <c r="F33" s="3">
-        <v>116600</v>
-      </c>
       <c r="G33" s="3">
-        <v>214600</v>
+        <v>116700</v>
       </c>
       <c r="H33" s="3">
-        <v>334800</v>
+        <v>214700</v>
       </c>
       <c r="I33" s="3">
-        <v>158500</v>
+        <v>335000</v>
       </c>
       <c r="J33" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K33" s="3">
         <v>92100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>227600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>156800</v>
+        <v>174500</v>
       </c>
       <c r="E35" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F35" s="3">
         <v>87200</v>
       </c>
-      <c r="F35" s="3">
-        <v>116600</v>
-      </c>
       <c r="G35" s="3">
-        <v>214600</v>
+        <v>116700</v>
       </c>
       <c r="H35" s="3">
-        <v>334800</v>
+        <v>214700</v>
       </c>
       <c r="I35" s="3">
-        <v>158500</v>
+        <v>335000</v>
       </c>
       <c r="J35" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K35" s="3">
         <v>92100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>227600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>696100</v>
+        <v>857600</v>
       </c>
       <c r="E41" s="3">
-        <v>486800</v>
+        <v>696400</v>
       </c>
       <c r="F41" s="3">
-        <v>652900</v>
+        <v>487000</v>
       </c>
       <c r="G41" s="3">
-        <v>611000</v>
+        <v>653200</v>
       </c>
       <c r="H41" s="3">
-        <v>465500</v>
+        <v>611300</v>
       </c>
       <c r="I41" s="3">
-        <v>799500</v>
+        <v>465700</v>
       </c>
       <c r="J41" s="3">
+        <v>799800</v>
+      </c>
+      <c r="K41" s="3">
         <v>264900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,200 +1773,221 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41300</v>
+        <v>81300</v>
       </c>
       <c r="E43" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F43" s="3">
         <v>59000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44700</v>
       </c>
-      <c r="G43" s="3">
-        <v>25100</v>
-      </c>
       <c r="H43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I43" s="3">
         <v>41200</v>
       </c>
-      <c r="I43" s="3">
-        <v>43200</v>
-      </c>
       <c r="J43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K43" s="3">
         <v>21200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>343700</v>
+        <v>347100</v>
       </c>
       <c r="E44" s="3">
-        <v>343500</v>
+        <v>343800</v>
       </c>
       <c r="F44" s="3">
-        <v>325400</v>
+        <v>343600</v>
       </c>
       <c r="G44" s="3">
-        <v>303200</v>
+        <v>325500</v>
       </c>
       <c r="H44" s="3">
-        <v>308500</v>
+        <v>303400</v>
       </c>
       <c r="I44" s="3">
-        <v>312000</v>
+        <v>308600</v>
       </c>
       <c r="J44" s="3">
+        <v>312200</v>
+      </c>
+      <c r="K44" s="3">
         <v>303500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>279500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E45" s="3">
         <v>161500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56800</v>
       </c>
-      <c r="F45" s="3">
-        <v>50300</v>
-      </c>
       <c r="G45" s="3">
+        <v>50400</v>
+      </c>
+      <c r="H45" s="3">
         <v>32100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28900</v>
       </c>
-      <c r="I45" s="3">
-        <v>34600</v>
-      </c>
       <c r="J45" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K45" s="3">
         <v>48100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1242600</v>
+        <v>1333100</v>
       </c>
       <c r="E46" s="3">
-        <v>946000</v>
+        <v>1243100</v>
       </c>
       <c r="F46" s="3">
-        <v>1073400</v>
+        <v>946400</v>
       </c>
       <c r="G46" s="3">
-        <v>971500</v>
+        <v>1073800</v>
       </c>
       <c r="H46" s="3">
-        <v>844100</v>
+        <v>971900</v>
       </c>
       <c r="I46" s="3">
-        <v>1189400</v>
+        <v>844500</v>
       </c>
       <c r="J46" s="3">
+        <v>1189900</v>
+      </c>
+      <c r="K46" s="3">
         <v>637700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>550900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E47" s="3">
         <v>182500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>182800</v>
       </c>
-      <c r="F47" s="3">
-        <v>162300</v>
-      </c>
       <c r="G47" s="3">
-        <v>154100</v>
+        <v>162400</v>
       </c>
       <c r="H47" s="3">
-        <v>132200</v>
+        <v>154200</v>
       </c>
       <c r="I47" s="3">
+        <v>132300</v>
+      </c>
+      <c r="J47" s="3">
         <v>121600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>249300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>208700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2810200</v>
+        <v>2844000</v>
       </c>
       <c r="E48" s="3">
-        <v>2962900</v>
+        <v>2811300</v>
       </c>
       <c r="F48" s="3">
-        <v>2995500</v>
+        <v>2964100</v>
       </c>
       <c r="G48" s="3">
-        <v>3040600</v>
+        <v>2996600</v>
       </c>
       <c r="H48" s="3">
-        <v>2981200</v>
+        <v>3041800</v>
       </c>
       <c r="I48" s="3">
-        <v>2764600</v>
+        <v>2982400</v>
       </c>
       <c r="J48" s="3">
+        <v>2765700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2647100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2625100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101100</v>
+        <v>106800</v>
       </c>
       <c r="E52" s="3">
+        <v>101200</v>
+      </c>
+      <c r="F52" s="3">
         <v>107100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>116800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>96200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4336400</v>
+        <v>4538200</v>
       </c>
       <c r="E54" s="3">
-        <v>4198800</v>
+        <v>4338100</v>
       </c>
       <c r="F54" s="3">
-        <v>4332500</v>
+        <v>4200400</v>
       </c>
       <c r="G54" s="3">
-        <v>4283000</v>
+        <v>4334200</v>
       </c>
       <c r="H54" s="3">
-        <v>4053800</v>
+        <v>4284700</v>
       </c>
       <c r="I54" s="3">
-        <v>4135100</v>
+        <v>4055400</v>
       </c>
       <c r="J54" s="3">
+        <v>4136800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3587600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3441300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>111600</v>
+        <v>142400</v>
       </c>
       <c r="E57" s="3">
+        <v>111700</v>
+      </c>
+      <c r="F57" s="3">
         <v>95500</v>
       </c>
-      <c r="F57" s="3">
-        <v>106300</v>
-      </c>
       <c r="G57" s="3">
-        <v>113400</v>
+        <v>106400</v>
       </c>
       <c r="H57" s="3">
-        <v>102500</v>
+        <v>113500</v>
       </c>
       <c r="I57" s="3">
-        <v>99800</v>
+        <v>102600</v>
       </c>
       <c r="J57" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K57" s="3">
         <v>102900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E58" s="3">
         <v>36700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>40300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E59" s="3">
         <v>105900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84700</v>
       </c>
-      <c r="F59" s="3">
-        <v>220400</v>
-      </c>
       <c r="G59" s="3">
-        <v>207500</v>
+        <v>220500</v>
       </c>
       <c r="H59" s="3">
-        <v>243200</v>
+        <v>207600</v>
       </c>
       <c r="I59" s="3">
+        <v>243300</v>
+      </c>
+      <c r="J59" s="3">
         <v>210800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>140200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>254100</v>
+        <v>294600</v>
       </c>
       <c r="E60" s="3">
+        <v>254200</v>
+      </c>
+      <c r="F60" s="3">
         <v>220500</v>
       </c>
-      <c r="F60" s="3">
-        <v>368900</v>
-      </c>
       <c r="G60" s="3">
-        <v>364400</v>
+        <v>369100</v>
       </c>
       <c r="H60" s="3">
-        <v>375100</v>
+        <v>364600</v>
       </c>
       <c r="I60" s="3">
-        <v>339000</v>
+        <v>375200</v>
       </c>
       <c r="J60" s="3">
+        <v>339200</v>
+      </c>
+      <c r="K60" s="3">
         <v>271200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E61" s="3">
         <v>70000</v>
       </c>
-      <c r="E61" s="3">
-        <v>78800</v>
-      </c>
       <c r="F61" s="3">
+        <v>78900</v>
+      </c>
+      <c r="G61" s="3">
         <v>85400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32900</v>
       </c>
-      <c r="I61" s="3">
-        <v>571600</v>
-      </c>
       <c r="J61" s="3">
+        <v>571800</v>
+      </c>
+      <c r="K61" s="3">
         <v>258600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>302500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>402300</v>
+        <v>407000</v>
       </c>
       <c r="E62" s="3">
-        <v>411100</v>
+        <v>402500</v>
       </c>
       <c r="F62" s="3">
-        <v>417400</v>
+        <v>411200</v>
       </c>
       <c r="G62" s="3">
-        <v>432800</v>
+        <v>417600</v>
       </c>
       <c r="H62" s="3">
-        <v>418900</v>
+        <v>433000</v>
       </c>
       <c r="I62" s="3">
-        <v>323800</v>
+        <v>419100</v>
       </c>
       <c r="J62" s="3">
+        <v>323900</v>
+      </c>
+      <c r="K62" s="3">
         <v>329000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>295700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>833400</v>
+        <v>893300</v>
       </c>
       <c r="E66" s="3">
-        <v>807100</v>
+        <v>833700</v>
       </c>
       <c r="F66" s="3">
-        <v>991700</v>
+        <v>807400</v>
       </c>
       <c r="G66" s="3">
-        <v>1006800</v>
+        <v>992100</v>
       </c>
       <c r="H66" s="3">
-        <v>951100</v>
+        <v>1007200</v>
       </c>
       <c r="I66" s="3">
-        <v>1341500</v>
+        <v>951400</v>
       </c>
       <c r="J66" s="3">
+        <v>1342100</v>
+      </c>
+      <c r="K66" s="3">
         <v>949700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>888600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>524900</v>
+        <v>646600</v>
       </c>
       <c r="E72" s="3">
-        <v>421000</v>
+        <v>525100</v>
       </c>
       <c r="F72" s="3">
-        <v>386400</v>
+        <v>421200</v>
       </c>
       <c r="G72" s="3">
-        <v>324000</v>
+        <v>386600</v>
       </c>
       <c r="H72" s="3">
-        <v>162200</v>
+        <v>324100</v>
       </c>
       <c r="I72" s="3">
+        <v>162300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-119600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-252700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-335100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3503100</v>
+        <v>3644900</v>
       </c>
       <c r="E76" s="3">
-        <v>3391600</v>
+        <v>3504400</v>
       </c>
       <c r="F76" s="3">
-        <v>3340800</v>
+        <v>3393000</v>
       </c>
       <c r="G76" s="3">
-        <v>3276200</v>
+        <v>3342100</v>
       </c>
       <c r="H76" s="3">
-        <v>3102700</v>
+        <v>3277500</v>
       </c>
       <c r="I76" s="3">
-        <v>2793600</v>
+        <v>3103900</v>
       </c>
       <c r="J76" s="3">
+        <v>2794700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2637900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2552700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>156800</v>
+        <v>174500</v>
       </c>
       <c r="E81" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F81" s="3">
         <v>87200</v>
       </c>
-      <c r="F81" s="3">
-        <v>116600</v>
-      </c>
       <c r="G81" s="3">
-        <v>214600</v>
+        <v>116700</v>
       </c>
       <c r="H81" s="3">
-        <v>334800</v>
+        <v>214700</v>
       </c>
       <c r="I81" s="3">
-        <v>158500</v>
+        <v>335000</v>
       </c>
       <c r="J81" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K81" s="3">
         <v>92100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>227600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E83" s="3">
         <v>142400</v>
       </c>
-      <c r="E83" s="3">
-        <v>99100</v>
-      </c>
       <c r="F83" s="3">
+        <v>99200</v>
+      </c>
+      <c r="G83" s="3">
         <v>85000</v>
       </c>
-      <c r="G83" s="3">
-        <v>99600</v>
-      </c>
       <c r="H83" s="3">
+        <v>99700</v>
+      </c>
+      <c r="I83" s="3">
         <v>98200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>96300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>408000</v>
+        <v>339300</v>
       </c>
       <c r="E89" s="3">
+        <v>408100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10600</v>
       </c>
-      <c r="F89" s="3">
-        <v>185800</v>
-      </c>
       <c r="G89" s="3">
-        <v>249100</v>
+        <v>185900</v>
       </c>
       <c r="H89" s="3">
-        <v>383100</v>
+        <v>249200</v>
       </c>
       <c r="I89" s="3">
-        <v>303300</v>
+        <v>383300</v>
       </c>
       <c r="J89" s="3">
+        <v>303400</v>
+      </c>
+      <c r="K89" s="3">
         <v>275400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-97400</v>
+        <v>-107700</v>
       </c>
       <c r="E94" s="3">
-        <v>-84000</v>
+        <v>-97500</v>
       </c>
       <c r="F94" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-75600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-93900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-143500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53700</v>
+        <v>-53800</v>
       </c>
       <c r="E96" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-53400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-53600</v>
       </c>
       <c r="G96" s="3">
         <v>-53600</v>
       </c>
       <c r="H96" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-80100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-96200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-72000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-66300</v>
-      </c>
       <c r="G100" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
-        <v>-625900</v>
-      </c>
       <c r="I100" s="3">
-        <v>320300</v>
+        <v>-626200</v>
       </c>
       <c r="J100" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-139800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>209400</v>
+        <v>161200</v>
       </c>
       <c r="E102" s="3">
-        <v>-166100</v>
+        <v>209500</v>
       </c>
       <c r="F102" s="3">
+        <v>-166200</v>
+      </c>
+      <c r="G102" s="3">
         <v>41900</v>
       </c>
-      <c r="G102" s="3">
-        <v>145500</v>
-      </c>
       <c r="H102" s="3">
-        <v>-334000</v>
+        <v>145600</v>
       </c>
       <c r="I102" s="3">
-        <v>534700</v>
+        <v>-334100</v>
       </c>
       <c r="J102" s="3">
+        <v>534900</v>
+      </c>
+      <c r="K102" s="3">
         <v>85800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>670400</v>
+        <v>476900</v>
       </c>
       <c r="E8" s="3">
-        <v>651000</v>
+        <v>686200</v>
       </c>
       <c r="F8" s="3">
-        <v>462600</v>
+        <v>666400</v>
       </c>
       <c r="G8" s="3">
-        <v>461700</v>
+        <v>473500</v>
       </c>
       <c r="H8" s="3">
-        <v>611000</v>
+        <v>472600</v>
       </c>
       <c r="I8" s="3">
-        <v>620800</v>
+        <v>625500</v>
       </c>
       <c r="J8" s="3">
+        <v>635500</v>
+      </c>
+      <c r="K8" s="3">
         <v>563100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>484400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>354700</v>
+        <v>294700</v>
       </c>
       <c r="E9" s="3">
-        <v>351300</v>
+        <v>363100</v>
       </c>
       <c r="F9" s="3">
-        <v>299200</v>
+        <v>359600</v>
       </c>
       <c r="G9" s="3">
-        <v>261100</v>
+        <v>306200</v>
       </c>
       <c r="H9" s="3">
-        <v>284700</v>
+        <v>267300</v>
       </c>
       <c r="I9" s="3">
-        <v>274600</v>
+        <v>291400</v>
       </c>
       <c r="J9" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K9" s="3">
         <v>259700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>239300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>237800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>315700</v>
+        <v>182200</v>
       </c>
       <c r="E10" s="3">
-        <v>299700</v>
+        <v>323100</v>
       </c>
       <c r="F10" s="3">
-        <v>163400</v>
+        <v>306800</v>
       </c>
       <c r="G10" s="3">
-        <v>200600</v>
+        <v>167300</v>
       </c>
       <c r="H10" s="3">
-        <v>326300</v>
+        <v>205300</v>
       </c>
       <c r="I10" s="3">
-        <v>346200</v>
+        <v>334000</v>
       </c>
       <c r="J10" s="3">
+        <v>354400</v>
+      </c>
+      <c r="K10" s="3">
         <v>303400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>245100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>164600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7500</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>7700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>-207500</v>
-      </c>
       <c r="J14" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-174000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>367900</v>
+        <v>322800</v>
       </c>
       <c r="E17" s="3">
-        <v>372600</v>
+        <v>376600</v>
       </c>
       <c r="F17" s="3">
-        <v>324200</v>
+        <v>381400</v>
       </c>
       <c r="G17" s="3">
-        <v>270300</v>
+        <v>331800</v>
       </c>
       <c r="H17" s="3">
-        <v>311400</v>
+        <v>276700</v>
       </c>
       <c r="I17" s="3">
-        <v>76800</v>
+        <v>318800</v>
       </c>
       <c r="J17" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K17" s="3">
         <v>293700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>255900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>302500</v>
+        <v>154100</v>
       </c>
       <c r="E18" s="3">
-        <v>278500</v>
+        <v>309600</v>
       </c>
       <c r="F18" s="3">
-        <v>138400</v>
+        <v>285000</v>
       </c>
       <c r="G18" s="3">
-        <v>191400</v>
+        <v>141700</v>
       </c>
       <c r="H18" s="3">
-        <v>299600</v>
+        <v>195900</v>
       </c>
       <c r="I18" s="3">
-        <v>544100</v>
+        <v>306700</v>
       </c>
       <c r="J18" s="3">
+        <v>556900</v>
+      </c>
+      <c r="K18" s="3">
         <v>269400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>307400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>7000</v>
-      </c>
       <c r="F20" s="3">
-        <v>12700</v>
+        <v>7200</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>13000</v>
       </c>
       <c r="H20" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="I20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>459000</v>
+        <v>290100</v>
       </c>
       <c r="E21" s="3">
-        <v>427900</v>
+        <v>469800</v>
       </c>
       <c r="F21" s="3">
-        <v>250200</v>
+        <v>438000</v>
       </c>
       <c r="G21" s="3">
-        <v>286200</v>
+        <v>256100</v>
       </c>
       <c r="H21" s="3">
-        <v>408800</v>
+        <v>293000</v>
       </c>
       <c r="I21" s="3">
-        <v>642700</v>
+        <v>418500</v>
       </c>
       <c r="J21" s="3">
+        <v>657900</v>
+      </c>
+      <c r="K21" s="3">
         <v>371500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>299400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>397200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4300</v>
-      </c>
       <c r="J22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>299300</v>
+        <v>186000</v>
       </c>
       <c r="E23" s="3">
-        <v>281500</v>
+        <v>306400</v>
       </c>
       <c r="F23" s="3">
-        <v>147200</v>
+        <v>288100</v>
       </c>
       <c r="G23" s="3">
-        <v>197500</v>
+        <v>150600</v>
       </c>
       <c r="H23" s="3">
-        <v>305500</v>
+        <v>202200</v>
       </c>
       <c r="I23" s="3">
-        <v>540200</v>
+        <v>312700</v>
       </c>
       <c r="J23" s="3">
+        <v>552900</v>
+      </c>
+      <c r="K23" s="3">
         <v>268800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>304100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104100</v>
+        <v>67500</v>
       </c>
       <c r="E24" s="3">
-        <v>109600</v>
+        <v>106600</v>
       </c>
       <c r="F24" s="3">
-        <v>52900</v>
+        <v>112200</v>
       </c>
       <c r="G24" s="3">
-        <v>71600</v>
+        <v>54100</v>
       </c>
       <c r="H24" s="3">
-        <v>83300</v>
+        <v>73300</v>
       </c>
       <c r="I24" s="3">
-        <v>187100</v>
+        <v>85200</v>
       </c>
       <c r="J24" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K24" s="3">
         <v>93000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>195100</v>
+        <v>118400</v>
       </c>
       <c r="E26" s="3">
-        <v>171900</v>
+        <v>199800</v>
       </c>
       <c r="F26" s="3">
-        <v>94300</v>
+        <v>175900</v>
       </c>
       <c r="G26" s="3">
-        <v>125900</v>
+        <v>96500</v>
       </c>
       <c r="H26" s="3">
-        <v>222200</v>
+        <v>128900</v>
       </c>
       <c r="I26" s="3">
-        <v>353000</v>
+        <v>227500</v>
       </c>
       <c r="J26" s="3">
+        <v>361400</v>
+      </c>
+      <c r="K26" s="3">
         <v>175800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>229200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>174500</v>
+        <v>105300</v>
       </c>
       <c r="E27" s="3">
-        <v>156900</v>
+        <v>178600</v>
       </c>
       <c r="F27" s="3">
-        <v>87200</v>
+        <v>160600</v>
       </c>
       <c r="G27" s="3">
-        <v>116700</v>
+        <v>89300</v>
       </c>
       <c r="H27" s="3">
-        <v>214700</v>
+        <v>119400</v>
       </c>
       <c r="I27" s="3">
-        <v>335000</v>
+        <v>219700</v>
       </c>
       <c r="J27" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K27" s="3">
         <v>158600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>222800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1408,8 +1469,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1421,13 +1482,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F32" s="3">
-        <v>-12700</v>
+        <v>-7200</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>-13000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9500</v>
+        <v>-10100</v>
       </c>
       <c r="I32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>174500</v>
+        <v>105300</v>
       </c>
       <c r="E33" s="3">
-        <v>156900</v>
+        <v>178600</v>
       </c>
       <c r="F33" s="3">
-        <v>87200</v>
+        <v>160600</v>
       </c>
       <c r="G33" s="3">
-        <v>116700</v>
+        <v>89300</v>
       </c>
       <c r="H33" s="3">
-        <v>214700</v>
+        <v>119400</v>
       </c>
       <c r="I33" s="3">
-        <v>335000</v>
+        <v>219700</v>
       </c>
       <c r="J33" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K33" s="3">
         <v>158600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>92100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>227600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>174500</v>
+        <v>105300</v>
       </c>
       <c r="E35" s="3">
-        <v>156900</v>
+        <v>178600</v>
       </c>
       <c r="F35" s="3">
-        <v>87200</v>
+        <v>160600</v>
       </c>
       <c r="G35" s="3">
-        <v>116700</v>
+        <v>89300</v>
       </c>
       <c r="H35" s="3">
-        <v>214700</v>
+        <v>119400</v>
       </c>
       <c r="I35" s="3">
-        <v>335000</v>
+        <v>219700</v>
       </c>
       <c r="J35" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K35" s="3">
         <v>158600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>92100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>227600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>857600</v>
+        <v>846200</v>
       </c>
       <c r="E41" s="3">
-        <v>696400</v>
+        <v>877900</v>
       </c>
       <c r="F41" s="3">
-        <v>487000</v>
+        <v>712900</v>
       </c>
       <c r="G41" s="3">
-        <v>653200</v>
+        <v>498500</v>
       </c>
       <c r="H41" s="3">
-        <v>611300</v>
+        <v>668600</v>
       </c>
       <c r="I41" s="3">
-        <v>465700</v>
+        <v>625700</v>
       </c>
       <c r="J41" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K41" s="3">
         <v>799800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>264900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,218 +1866,239 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81300</v>
+        <v>104400</v>
       </c>
       <c r="E43" s="3">
-        <v>41400</v>
+        <v>83200</v>
       </c>
       <c r="F43" s="3">
-        <v>59000</v>
+        <v>42300</v>
       </c>
       <c r="G43" s="3">
-        <v>44700</v>
+        <v>60400</v>
       </c>
       <c r="H43" s="3">
-        <v>25200</v>
+        <v>45800</v>
       </c>
       <c r="I43" s="3">
-        <v>41200</v>
+        <v>25700</v>
       </c>
       <c r="J43" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K43" s="3">
         <v>43300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>347100</v>
+        <v>363900</v>
       </c>
       <c r="E44" s="3">
-        <v>343800</v>
+        <v>355300</v>
       </c>
       <c r="F44" s="3">
-        <v>343600</v>
+        <v>351900</v>
       </c>
       <c r="G44" s="3">
-        <v>325500</v>
+        <v>351800</v>
       </c>
       <c r="H44" s="3">
-        <v>303400</v>
+        <v>333200</v>
       </c>
       <c r="I44" s="3">
-        <v>308600</v>
+        <v>310500</v>
       </c>
       <c r="J44" s="3">
+        <v>315900</v>
+      </c>
+      <c r="K44" s="3">
         <v>312200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>303500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>279500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47100</v>
+        <v>68900</v>
       </c>
       <c r="E45" s="3">
-        <v>161500</v>
+        <v>48200</v>
       </c>
       <c r="F45" s="3">
-        <v>56800</v>
+        <v>165400</v>
       </c>
       <c r="G45" s="3">
-        <v>50400</v>
+        <v>58100</v>
       </c>
       <c r="H45" s="3">
-        <v>32100</v>
+        <v>51500</v>
       </c>
       <c r="I45" s="3">
-        <v>28900</v>
+        <v>32900</v>
       </c>
       <c r="J45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1333100</v>
+        <v>1383500</v>
       </c>
       <c r="E46" s="3">
-        <v>1243100</v>
+        <v>1364600</v>
       </c>
       <c r="F46" s="3">
-        <v>946400</v>
+        <v>1272500</v>
       </c>
       <c r="G46" s="3">
-        <v>1073800</v>
+        <v>968800</v>
       </c>
       <c r="H46" s="3">
-        <v>971900</v>
+        <v>1099100</v>
       </c>
       <c r="I46" s="3">
-        <v>844500</v>
+        <v>994900</v>
       </c>
       <c r="J46" s="3">
+        <v>864400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1189900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>637700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>550900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>254200</v>
+        <v>277200</v>
       </c>
       <c r="E47" s="3">
-        <v>182500</v>
+        <v>260300</v>
       </c>
       <c r="F47" s="3">
-        <v>182800</v>
+        <v>186800</v>
       </c>
       <c r="G47" s="3">
-        <v>162400</v>
+        <v>187100</v>
       </c>
       <c r="H47" s="3">
-        <v>154200</v>
+        <v>166200</v>
       </c>
       <c r="I47" s="3">
-        <v>132300</v>
+        <v>157800</v>
       </c>
       <c r="J47" s="3">
+        <v>135400</v>
+      </c>
+      <c r="K47" s="3">
         <v>121600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>249300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>208700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2844000</v>
+        <v>2902300</v>
       </c>
       <c r="E48" s="3">
-        <v>2811300</v>
+        <v>2911200</v>
       </c>
       <c r="F48" s="3">
-        <v>2964100</v>
+        <v>2877700</v>
       </c>
       <c r="G48" s="3">
-        <v>2996600</v>
+        <v>3034100</v>
       </c>
       <c r="H48" s="3">
-        <v>3041800</v>
+        <v>3067400</v>
       </c>
       <c r="I48" s="3">
-        <v>2982400</v>
+        <v>3113600</v>
       </c>
       <c r="J48" s="3">
+        <v>3052800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2765700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2647100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2625100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106800</v>
+        <v>113300</v>
       </c>
       <c r="E52" s="3">
-        <v>101200</v>
+        <v>109300</v>
       </c>
       <c r="F52" s="3">
-        <v>107100</v>
+        <v>103600</v>
       </c>
       <c r="G52" s="3">
-        <v>101400</v>
+        <v>109600</v>
       </c>
       <c r="H52" s="3">
-        <v>116800</v>
+        <v>103800</v>
       </c>
       <c r="I52" s="3">
-        <v>96200</v>
+        <v>119600</v>
       </c>
       <c r="J52" s="3">
+        <v>98500</v>
+      </c>
+      <c r="K52" s="3">
         <v>59500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4538200</v>
+        <v>4676300</v>
       </c>
       <c r="E54" s="3">
-        <v>4338100</v>
+        <v>4645400</v>
       </c>
       <c r="F54" s="3">
-        <v>4200400</v>
+        <v>4440600</v>
       </c>
       <c r="G54" s="3">
-        <v>4334200</v>
+        <v>4299600</v>
       </c>
       <c r="H54" s="3">
-        <v>4284700</v>
+        <v>4436600</v>
       </c>
       <c r="I54" s="3">
-        <v>4055400</v>
+        <v>4385900</v>
       </c>
       <c r="J54" s="3">
+        <v>4151200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4136800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3587600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3441300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2356,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142400</v>
+        <v>131500</v>
       </c>
       <c r="E57" s="3">
-        <v>111700</v>
+        <v>145700</v>
       </c>
       <c r="F57" s="3">
-        <v>95500</v>
+        <v>114300</v>
       </c>
       <c r="G57" s="3">
-        <v>106400</v>
+        <v>97700</v>
       </c>
       <c r="H57" s="3">
-        <v>113500</v>
+        <v>108900</v>
       </c>
       <c r="I57" s="3">
-        <v>102600</v>
+        <v>116200</v>
       </c>
       <c r="J57" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K57" s="3">
         <v>99900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32400</v>
+        <v>28500</v>
       </c>
       <c r="E58" s="3">
-        <v>36700</v>
+        <v>33100</v>
       </c>
       <c r="F58" s="3">
-        <v>40300</v>
+        <v>37500</v>
       </c>
       <c r="G58" s="3">
-        <v>42200</v>
+        <v>41300</v>
       </c>
       <c r="H58" s="3">
-        <v>43500</v>
+        <v>43200</v>
       </c>
       <c r="I58" s="3">
-        <v>29400</v>
+        <v>44500</v>
       </c>
       <c r="J58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K58" s="3">
         <v>28500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119900</v>
+        <v>107900</v>
       </c>
       <c r="E59" s="3">
-        <v>105900</v>
+        <v>122700</v>
       </c>
       <c r="F59" s="3">
-        <v>84700</v>
+        <v>108400</v>
       </c>
       <c r="G59" s="3">
-        <v>220500</v>
+        <v>86700</v>
       </c>
       <c r="H59" s="3">
-        <v>207600</v>
+        <v>225700</v>
       </c>
       <c r="I59" s="3">
-        <v>243300</v>
+        <v>212500</v>
       </c>
       <c r="J59" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K59" s="3">
         <v>210800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>294600</v>
+        <v>267800</v>
       </c>
       <c r="E60" s="3">
-        <v>254200</v>
+        <v>301600</v>
       </c>
       <c r="F60" s="3">
-        <v>220500</v>
+        <v>260300</v>
       </c>
       <c r="G60" s="3">
-        <v>369100</v>
+        <v>225700</v>
       </c>
       <c r="H60" s="3">
-        <v>364600</v>
+        <v>377800</v>
       </c>
       <c r="I60" s="3">
-        <v>375200</v>
+        <v>373200</v>
       </c>
       <c r="J60" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K60" s="3">
         <v>339200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>271200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>211700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63400</v>
+        <v>66300</v>
       </c>
       <c r="E61" s="3">
-        <v>70000</v>
+        <v>64900</v>
       </c>
       <c r="F61" s="3">
-        <v>78900</v>
+        <v>71700</v>
       </c>
       <c r="G61" s="3">
-        <v>85400</v>
+        <v>80700</v>
       </c>
       <c r="H61" s="3">
-        <v>96700</v>
+        <v>87400</v>
       </c>
       <c r="I61" s="3">
-        <v>32900</v>
+        <v>99000</v>
       </c>
       <c r="J61" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K61" s="3">
         <v>571800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>302500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407000</v>
+        <v>408600</v>
       </c>
       <c r="E62" s="3">
-        <v>402500</v>
+        <v>416600</v>
       </c>
       <c r="F62" s="3">
-        <v>411200</v>
+        <v>412000</v>
       </c>
       <c r="G62" s="3">
-        <v>417600</v>
+        <v>421000</v>
       </c>
       <c r="H62" s="3">
-        <v>433000</v>
+        <v>427400</v>
       </c>
       <c r="I62" s="3">
-        <v>419100</v>
+        <v>443200</v>
       </c>
       <c r="J62" s="3">
+        <v>429000</v>
+      </c>
+      <c r="K62" s="3">
         <v>323900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>329000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>295700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>893300</v>
+        <v>884600</v>
       </c>
       <c r="E66" s="3">
-        <v>833700</v>
+        <v>914400</v>
       </c>
       <c r="F66" s="3">
-        <v>807400</v>
+        <v>853400</v>
       </c>
       <c r="G66" s="3">
-        <v>992100</v>
+        <v>826500</v>
       </c>
       <c r="H66" s="3">
-        <v>1007200</v>
+        <v>1015500</v>
       </c>
       <c r="I66" s="3">
-        <v>951400</v>
+        <v>1030900</v>
       </c>
       <c r="J66" s="3">
+        <v>973900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1342100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>949700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>888600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>646600</v>
+        <v>712900</v>
       </c>
       <c r="E72" s="3">
-        <v>525100</v>
+        <v>661800</v>
       </c>
       <c r="F72" s="3">
-        <v>421200</v>
+        <v>537500</v>
       </c>
       <c r="G72" s="3">
-        <v>386600</v>
+        <v>431100</v>
       </c>
       <c r="H72" s="3">
-        <v>324100</v>
+        <v>395700</v>
       </c>
       <c r="I72" s="3">
-        <v>162300</v>
+        <v>331800</v>
       </c>
       <c r="J72" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-119600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-252700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-335100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3644900</v>
+        <v>3791700</v>
       </c>
       <c r="E76" s="3">
-        <v>3504400</v>
+        <v>3731000</v>
       </c>
       <c r="F76" s="3">
-        <v>3393000</v>
+        <v>3587200</v>
       </c>
       <c r="G76" s="3">
-        <v>3342100</v>
+        <v>3473100</v>
       </c>
       <c r="H76" s="3">
-        <v>3277500</v>
+        <v>3421100</v>
       </c>
       <c r="I76" s="3">
-        <v>3103900</v>
+        <v>3354900</v>
       </c>
       <c r="J76" s="3">
+        <v>3177200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2794700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2637900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2552700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>174500</v>
+        <v>105300</v>
       </c>
       <c r="E81" s="3">
-        <v>156900</v>
+        <v>178600</v>
       </c>
       <c r="F81" s="3">
-        <v>87200</v>
+        <v>160600</v>
       </c>
       <c r="G81" s="3">
-        <v>116700</v>
+        <v>89300</v>
       </c>
       <c r="H81" s="3">
-        <v>214700</v>
+        <v>119400</v>
       </c>
       <c r="I81" s="3">
-        <v>335000</v>
+        <v>219700</v>
       </c>
       <c r="J81" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K81" s="3">
         <v>158600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>92100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>227600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>156200</v>
+        <v>100800</v>
       </c>
       <c r="E83" s="3">
-        <v>142400</v>
+        <v>159900</v>
       </c>
       <c r="F83" s="3">
-        <v>99200</v>
+        <v>145800</v>
       </c>
       <c r="G83" s="3">
-        <v>85000</v>
+        <v>101500</v>
       </c>
       <c r="H83" s="3">
-        <v>99700</v>
+        <v>87000</v>
       </c>
       <c r="I83" s="3">
-        <v>98200</v>
+        <v>102000</v>
       </c>
       <c r="J83" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K83" s="3">
         <v>96300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339300</v>
+        <v>140000</v>
       </c>
       <c r="E89" s="3">
-        <v>408100</v>
+        <v>347400</v>
       </c>
       <c r="F89" s="3">
-        <v>-10600</v>
+        <v>417800</v>
       </c>
       <c r="G89" s="3">
-        <v>185900</v>
+        <v>-10800</v>
       </c>
       <c r="H89" s="3">
-        <v>249200</v>
+        <v>190300</v>
       </c>
       <c r="I89" s="3">
-        <v>383300</v>
+        <v>255100</v>
       </c>
       <c r="J89" s="3">
+        <v>392300</v>
+      </c>
+      <c r="K89" s="3">
         <v>303400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>275400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>209900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-5700</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-9400</v>
       </c>
       <c r="F91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107700</v>
+        <v>-101500</v>
       </c>
       <c r="E94" s="3">
-        <v>-97500</v>
+        <v>-110200</v>
       </c>
       <c r="F94" s="3">
-        <v>-84100</v>
+        <v>-99800</v>
       </c>
       <c r="G94" s="3">
-        <v>-75600</v>
+        <v>-86000</v>
       </c>
       <c r="H94" s="3">
-        <v>-103900</v>
+        <v>-77400</v>
       </c>
       <c r="I94" s="3">
-        <v>-93900</v>
+        <v>-106400</v>
       </c>
       <c r="J94" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-89200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53800</v>
+        <v>-55100</v>
       </c>
       <c r="E96" s="3">
-        <v>-53800</v>
+        <v>-55100</v>
       </c>
       <c r="F96" s="3">
-        <v>-53400</v>
+        <v>-55000</v>
       </c>
       <c r="G96" s="3">
-        <v>-53600</v>
+        <v>-54600</v>
       </c>
       <c r="H96" s="3">
-        <v>-53600</v>
+        <v>-54900</v>
       </c>
       <c r="I96" s="3">
-        <v>-80100</v>
+        <v>-54800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-82000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-13200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63800</v>
+        <v>-66600</v>
       </c>
       <c r="E100" s="3">
-        <v>-96200</v>
+        <v>-65400</v>
       </c>
       <c r="F100" s="3">
-        <v>-72000</v>
+        <v>-98500</v>
       </c>
       <c r="G100" s="3">
-        <v>-66400</v>
+        <v>-73700</v>
       </c>
       <c r="H100" s="3">
-        <v>-8400</v>
+        <v>-67900</v>
       </c>
       <c r="I100" s="3">
-        <v>-626200</v>
+        <v>-8600</v>
       </c>
       <c r="J100" s="3">
+        <v>-641000</v>
+      </c>
+      <c r="K100" s="3">
         <v>320400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-139800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6600</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>-6800</v>
       </c>
       <c r="F101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>8600</v>
-      </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>8800</v>
       </c>
       <c r="J101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>161200</v>
+        <v>-31600</v>
       </c>
       <c r="E102" s="3">
-        <v>209500</v>
+        <v>165000</v>
       </c>
       <c r="F102" s="3">
-        <v>-166200</v>
+        <v>214400</v>
       </c>
       <c r="G102" s="3">
-        <v>41900</v>
+        <v>-170100</v>
       </c>
       <c r="H102" s="3">
-        <v>145600</v>
+        <v>42900</v>
       </c>
       <c r="I102" s="3">
-        <v>-334100</v>
+        <v>149000</v>
       </c>
       <c r="J102" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="K102" s="3">
         <v>534900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>85800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>476900</v>
+        <v>493700</v>
       </c>
       <c r="E8" s="3">
-        <v>686200</v>
+        <v>472500</v>
       </c>
       <c r="F8" s="3">
-        <v>666400</v>
+        <v>679900</v>
       </c>
       <c r="G8" s="3">
-        <v>473500</v>
+        <v>660300</v>
       </c>
       <c r="H8" s="3">
-        <v>472600</v>
+        <v>937400</v>
       </c>
       <c r="I8" s="3">
-        <v>625500</v>
+        <v>468200</v>
       </c>
       <c r="J8" s="3">
+        <v>619700</v>
+      </c>
+      <c r="K8" s="3">
         <v>635500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>563100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>484400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>294700</v>
+        <v>341300</v>
       </c>
       <c r="E9" s="3">
-        <v>363100</v>
+        <v>292000</v>
       </c>
       <c r="F9" s="3">
-        <v>359600</v>
+        <v>359800</v>
       </c>
       <c r="G9" s="3">
-        <v>306200</v>
+        <v>356300</v>
       </c>
       <c r="H9" s="3">
-        <v>267300</v>
+        <v>568200</v>
       </c>
       <c r="I9" s="3">
-        <v>291400</v>
+        <v>264800</v>
       </c>
       <c r="J9" s="3">
+        <v>288700</v>
+      </c>
+      <c r="K9" s="3">
         <v>281100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>259700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>239300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>237800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>182200</v>
+        <v>152400</v>
       </c>
       <c r="E10" s="3">
-        <v>323100</v>
+        <v>180500</v>
       </c>
       <c r="F10" s="3">
-        <v>306800</v>
+        <v>320200</v>
       </c>
       <c r="G10" s="3">
-        <v>167300</v>
+        <v>304000</v>
       </c>
       <c r="H10" s="3">
-        <v>205300</v>
+        <v>369200</v>
       </c>
       <c r="I10" s="3">
-        <v>334000</v>
+        <v>203400</v>
       </c>
       <c r="J10" s="3">
+        <v>331000</v>
+      </c>
+      <c r="K10" s="3">
         <v>354400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>303400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>245100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>164600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-212400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-174000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>322800</v>
+        <v>367300</v>
       </c>
       <c r="E17" s="3">
-        <v>376600</v>
+        <v>319800</v>
       </c>
       <c r="F17" s="3">
-        <v>381400</v>
+        <v>373100</v>
       </c>
       <c r="G17" s="3">
-        <v>331800</v>
+        <v>377900</v>
       </c>
       <c r="H17" s="3">
-        <v>276700</v>
+        <v>604300</v>
       </c>
       <c r="I17" s="3">
-        <v>318800</v>
+        <v>274200</v>
       </c>
       <c r="J17" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K17" s="3">
         <v>78600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>255900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>154100</v>
+        <v>126400</v>
       </c>
       <c r="E18" s="3">
-        <v>309600</v>
+        <v>152700</v>
       </c>
       <c r="F18" s="3">
-        <v>285000</v>
+        <v>306800</v>
       </c>
       <c r="G18" s="3">
-        <v>141700</v>
+        <v>282400</v>
       </c>
       <c r="H18" s="3">
-        <v>195900</v>
+        <v>333100</v>
       </c>
       <c r="I18" s="3">
-        <v>306700</v>
+        <v>194100</v>
       </c>
       <c r="J18" s="3">
+        <v>303900</v>
+      </c>
+      <c r="K18" s="3">
         <v>556900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>269400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>307400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35300</v>
+        <v>13800</v>
       </c>
       <c r="E20" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>7200</v>
-      </c>
       <c r="G20" s="3">
-        <v>13000</v>
+        <v>7100</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>28100</v>
       </c>
       <c r="I20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="3">
         <v>9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>290100</v>
+        <v>246000</v>
       </c>
       <c r="E21" s="3">
-        <v>469800</v>
+        <v>287500</v>
       </c>
       <c r="F21" s="3">
-        <v>438000</v>
+        <v>465500</v>
       </c>
       <c r="G21" s="3">
-        <v>256100</v>
+        <v>434000</v>
       </c>
       <c r="H21" s="3">
-        <v>293000</v>
+        <v>548000</v>
       </c>
       <c r="I21" s="3">
-        <v>418500</v>
+        <v>290300</v>
       </c>
       <c r="J21" s="3">
+        <v>414600</v>
+      </c>
+      <c r="K21" s="3">
         <v>657900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>371500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>299400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>397200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
         <v>4000</v>
       </c>
       <c r="H22" s="3">
-        <v>3800</v>
+        <v>11600</v>
       </c>
       <c r="I22" s="3">
         <v>3700</v>
       </c>
       <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186000</v>
+        <v>136700</v>
       </c>
       <c r="E23" s="3">
-        <v>306400</v>
+        <v>184300</v>
       </c>
       <c r="F23" s="3">
-        <v>288100</v>
+        <v>303500</v>
       </c>
       <c r="G23" s="3">
-        <v>150600</v>
+        <v>285500</v>
       </c>
       <c r="H23" s="3">
-        <v>202200</v>
+        <v>349600</v>
       </c>
       <c r="I23" s="3">
-        <v>312700</v>
+        <v>200300</v>
       </c>
       <c r="J23" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K23" s="3">
         <v>552900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>268800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>203700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>304100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67500</v>
+        <v>84200</v>
       </c>
       <c r="E24" s="3">
-        <v>106600</v>
+        <v>66900</v>
       </c>
       <c r="F24" s="3">
-        <v>112200</v>
+        <v>105600</v>
       </c>
       <c r="G24" s="3">
-        <v>54100</v>
+        <v>111200</v>
       </c>
       <c r="H24" s="3">
-        <v>73300</v>
+        <v>126200</v>
       </c>
       <c r="I24" s="3">
-        <v>85200</v>
+        <v>72600</v>
       </c>
       <c r="J24" s="3">
+        <v>84500</v>
+      </c>
+      <c r="K24" s="3">
         <v>191500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>118400</v>
+        <v>52600</v>
       </c>
       <c r="E26" s="3">
-        <v>199800</v>
+        <v>117400</v>
       </c>
       <c r="F26" s="3">
-        <v>175900</v>
+        <v>197900</v>
       </c>
       <c r="G26" s="3">
-        <v>96500</v>
+        <v>174300</v>
       </c>
       <c r="H26" s="3">
-        <v>128900</v>
+        <v>223300</v>
       </c>
       <c r="I26" s="3">
-        <v>227500</v>
+        <v>127700</v>
       </c>
       <c r="J26" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K26" s="3">
         <v>361400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>175800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>229200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105300</v>
+        <v>48900</v>
       </c>
       <c r="E27" s="3">
-        <v>178600</v>
+        <v>104300</v>
       </c>
       <c r="F27" s="3">
-        <v>160600</v>
+        <v>177000</v>
       </c>
       <c r="G27" s="3">
-        <v>89300</v>
+        <v>159100</v>
       </c>
       <c r="H27" s="3">
-        <v>119400</v>
+        <v>206800</v>
       </c>
       <c r="I27" s="3">
-        <v>219700</v>
+        <v>118300</v>
       </c>
       <c r="J27" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K27" s="3">
         <v>342900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>158600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>222800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1472,8 +1533,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1485,13 +1546,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>4800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35300</v>
+        <v>-13800</v>
       </c>
       <c r="E32" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7200</v>
-      </c>
       <c r="G32" s="3">
-        <v>-13000</v>
+        <v>-7100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-28100</v>
       </c>
       <c r="I32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105300</v>
+        <v>48900</v>
       </c>
       <c r="E33" s="3">
-        <v>178600</v>
+        <v>104300</v>
       </c>
       <c r="F33" s="3">
-        <v>160600</v>
+        <v>177000</v>
       </c>
       <c r="G33" s="3">
-        <v>89300</v>
+        <v>159100</v>
       </c>
       <c r="H33" s="3">
-        <v>119400</v>
+        <v>206800</v>
       </c>
       <c r="I33" s="3">
-        <v>219700</v>
+        <v>118300</v>
       </c>
       <c r="J33" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K33" s="3">
         <v>342900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>158600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>92100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>227600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105300</v>
+        <v>48900</v>
       </c>
       <c r="E35" s="3">
-        <v>178600</v>
+        <v>104300</v>
       </c>
       <c r="F35" s="3">
-        <v>160600</v>
+        <v>177000</v>
       </c>
       <c r="G35" s="3">
-        <v>89300</v>
+        <v>159100</v>
       </c>
       <c r="H35" s="3">
-        <v>119400</v>
+        <v>206800</v>
       </c>
       <c r="I35" s="3">
-        <v>219700</v>
+        <v>118300</v>
       </c>
       <c r="J35" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K35" s="3">
         <v>342900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>158600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>92100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>227600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>846200</v>
+        <v>758200</v>
       </c>
       <c r="E41" s="3">
-        <v>877900</v>
+        <v>838500</v>
       </c>
       <c r="F41" s="3">
-        <v>712900</v>
+        <v>869800</v>
       </c>
       <c r="G41" s="3">
-        <v>498500</v>
+        <v>706300</v>
       </c>
       <c r="H41" s="3">
-        <v>668600</v>
+        <v>493900</v>
       </c>
       <c r="I41" s="3">
-        <v>625700</v>
+        <v>662400</v>
       </c>
       <c r="J41" s="3">
+        <v>619900</v>
+      </c>
+      <c r="K41" s="3">
         <v>476700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>799800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>264900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>180300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,236 +1959,257 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104400</v>
+        <v>74000</v>
       </c>
       <c r="E43" s="3">
-        <v>83200</v>
+        <v>103500</v>
       </c>
       <c r="F43" s="3">
-        <v>42300</v>
+        <v>82500</v>
       </c>
       <c r="G43" s="3">
-        <v>60400</v>
+        <v>41900</v>
       </c>
       <c r="H43" s="3">
-        <v>45800</v>
+        <v>59900</v>
       </c>
       <c r="I43" s="3">
-        <v>25700</v>
+        <v>45400</v>
       </c>
       <c r="J43" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K43" s="3">
         <v>42200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>363900</v>
+        <v>388000</v>
       </c>
       <c r="E44" s="3">
-        <v>355300</v>
+        <v>360500</v>
       </c>
       <c r="F44" s="3">
-        <v>351900</v>
+        <v>352000</v>
       </c>
       <c r="G44" s="3">
-        <v>351800</v>
+        <v>348700</v>
       </c>
       <c r="H44" s="3">
-        <v>333200</v>
+        <v>348500</v>
       </c>
       <c r="I44" s="3">
-        <v>310500</v>
+        <v>330200</v>
       </c>
       <c r="J44" s="3">
+        <v>307700</v>
+      </c>
+      <c r="K44" s="3">
         <v>315900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>312200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>303500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>279500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68900</v>
+        <v>79000</v>
       </c>
       <c r="E45" s="3">
-        <v>48200</v>
+        <v>68300</v>
       </c>
       <c r="F45" s="3">
-        <v>165400</v>
+        <v>47800</v>
       </c>
       <c r="G45" s="3">
-        <v>58100</v>
+        <v>163800</v>
       </c>
       <c r="H45" s="3">
-        <v>51500</v>
+        <v>57600</v>
       </c>
       <c r="I45" s="3">
-        <v>32900</v>
+        <v>51100</v>
       </c>
       <c r="J45" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K45" s="3">
         <v>29600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1383500</v>
+        <v>1299200</v>
       </c>
       <c r="E46" s="3">
-        <v>1364600</v>
+        <v>1370800</v>
       </c>
       <c r="F46" s="3">
-        <v>1272500</v>
+        <v>1352000</v>
       </c>
       <c r="G46" s="3">
-        <v>968800</v>
+        <v>1260800</v>
       </c>
       <c r="H46" s="3">
-        <v>1099100</v>
+        <v>959900</v>
       </c>
       <c r="I46" s="3">
-        <v>994900</v>
+        <v>1089000</v>
       </c>
       <c r="J46" s="3">
+        <v>985700</v>
+      </c>
+      <c r="K46" s="3">
         <v>864400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1189900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>637700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>550900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>277200</v>
+        <v>284300</v>
       </c>
       <c r="E47" s="3">
-        <v>260300</v>
+        <v>274600</v>
       </c>
       <c r="F47" s="3">
-        <v>186800</v>
+        <v>257900</v>
       </c>
       <c r="G47" s="3">
-        <v>187100</v>
+        <v>185100</v>
       </c>
       <c r="H47" s="3">
-        <v>166200</v>
+        <v>185400</v>
       </c>
       <c r="I47" s="3">
-        <v>157800</v>
+        <v>164700</v>
       </c>
       <c r="J47" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K47" s="3">
         <v>135400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>249300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>208700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2902300</v>
+        <v>2909800</v>
       </c>
       <c r="E48" s="3">
-        <v>2911200</v>
+        <v>2875600</v>
       </c>
       <c r="F48" s="3">
-        <v>2877700</v>
+        <v>2884400</v>
       </c>
       <c r="G48" s="3">
-        <v>3034100</v>
+        <v>2851200</v>
       </c>
       <c r="H48" s="3">
-        <v>3067400</v>
+        <v>3006200</v>
       </c>
       <c r="I48" s="3">
-        <v>3113600</v>
+        <v>3039200</v>
       </c>
       <c r="J48" s="3">
+        <v>3085000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3052800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2765700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2647100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2625100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113300</v>
+        <v>114100</v>
       </c>
       <c r="E52" s="3">
-        <v>109300</v>
+        <v>112300</v>
       </c>
       <c r="F52" s="3">
-        <v>103600</v>
+        <v>108300</v>
       </c>
       <c r="G52" s="3">
-        <v>109600</v>
+        <v>102600</v>
       </c>
       <c r="H52" s="3">
-        <v>103800</v>
+        <v>108600</v>
       </c>
       <c r="I52" s="3">
-        <v>119600</v>
+        <v>102800</v>
       </c>
       <c r="J52" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K52" s="3">
         <v>98500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4676300</v>
+        <v>4607400</v>
       </c>
       <c r="E54" s="3">
-        <v>4645400</v>
+        <v>4633300</v>
       </c>
       <c r="F54" s="3">
-        <v>4440600</v>
+        <v>4602600</v>
       </c>
       <c r="G54" s="3">
-        <v>4299600</v>
+        <v>4399700</v>
       </c>
       <c r="H54" s="3">
-        <v>4436600</v>
+        <v>4260100</v>
       </c>
       <c r="I54" s="3">
-        <v>4385900</v>
+        <v>4395800</v>
       </c>
       <c r="J54" s="3">
+        <v>4345500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4151200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4136800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3587600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3441300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>131500</v>
+        <v>113200</v>
       </c>
       <c r="E57" s="3">
-        <v>145700</v>
+        <v>130200</v>
       </c>
       <c r="F57" s="3">
-        <v>114300</v>
+        <v>144400</v>
       </c>
       <c r="G57" s="3">
-        <v>97700</v>
+        <v>113200</v>
       </c>
       <c r="H57" s="3">
-        <v>108900</v>
+        <v>96800</v>
       </c>
       <c r="I57" s="3">
-        <v>116200</v>
+        <v>107900</v>
       </c>
       <c r="J57" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K57" s="3">
         <v>105000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>99900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>106900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>37200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="L58" s="3">
         <v>28500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="M58" s="3">
+        <v>28100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>33400</v>
+      </c>
+      <c r="O58" s="3">
         <v>33100</v>
       </c>
-      <c r="F58" s="3">
-        <v>37500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>41300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>43200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>44500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>30100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>28100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>33400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>33100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107900</v>
+        <v>142000</v>
       </c>
       <c r="E59" s="3">
-        <v>122700</v>
+        <v>106900</v>
       </c>
       <c r="F59" s="3">
-        <v>108400</v>
+        <v>121600</v>
       </c>
       <c r="G59" s="3">
-        <v>86700</v>
+        <v>107400</v>
       </c>
       <c r="H59" s="3">
-        <v>225700</v>
+        <v>85900</v>
       </c>
       <c r="I59" s="3">
-        <v>212500</v>
+        <v>223600</v>
       </c>
       <c r="J59" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K59" s="3">
         <v>249000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>267800</v>
+        <v>280100</v>
       </c>
       <c r="E60" s="3">
-        <v>301600</v>
+        <v>265400</v>
       </c>
       <c r="F60" s="3">
-        <v>260300</v>
+        <v>298800</v>
       </c>
       <c r="G60" s="3">
-        <v>225700</v>
+        <v>257900</v>
       </c>
       <c r="H60" s="3">
-        <v>377800</v>
+        <v>223700</v>
       </c>
       <c r="I60" s="3">
-        <v>373200</v>
+        <v>374300</v>
       </c>
       <c r="J60" s="3">
+        <v>369700</v>
+      </c>
+      <c r="K60" s="3">
         <v>384100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>339200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>271200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66300</v>
+        <v>61200</v>
       </c>
       <c r="E61" s="3">
-        <v>64900</v>
+        <v>65700</v>
       </c>
       <c r="F61" s="3">
-        <v>71700</v>
+        <v>64300</v>
       </c>
       <c r="G61" s="3">
-        <v>80700</v>
+        <v>71000</v>
       </c>
       <c r="H61" s="3">
-        <v>87400</v>
+        <v>80000</v>
       </c>
       <c r="I61" s="3">
-        <v>99000</v>
+        <v>86600</v>
       </c>
       <c r="J61" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K61" s="3">
         <v>33700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>571800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>302500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408600</v>
+        <v>392200</v>
       </c>
       <c r="E62" s="3">
-        <v>416600</v>
+        <v>404800</v>
       </c>
       <c r="F62" s="3">
-        <v>412000</v>
+        <v>412800</v>
       </c>
       <c r="G62" s="3">
-        <v>421000</v>
+        <v>408200</v>
       </c>
       <c r="H62" s="3">
-        <v>427400</v>
+        <v>417100</v>
       </c>
       <c r="I62" s="3">
-        <v>443200</v>
+        <v>423500</v>
       </c>
       <c r="J62" s="3">
+        <v>439100</v>
+      </c>
+      <c r="K62" s="3">
         <v>429000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>323900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>329000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>295700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>884600</v>
+        <v>843200</v>
       </c>
       <c r="E66" s="3">
-        <v>914400</v>
+        <v>876500</v>
       </c>
       <c r="F66" s="3">
-        <v>853400</v>
+        <v>906000</v>
       </c>
       <c r="G66" s="3">
-        <v>826500</v>
+        <v>845500</v>
       </c>
       <c r="H66" s="3">
-        <v>1015500</v>
+        <v>818900</v>
       </c>
       <c r="I66" s="3">
-        <v>1030900</v>
+        <v>1006200</v>
       </c>
       <c r="J66" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="K66" s="3">
         <v>973900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1342100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>949700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>888600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>712900</v>
+        <v>701000</v>
       </c>
       <c r="E72" s="3">
-        <v>661800</v>
+        <v>706300</v>
       </c>
       <c r="F72" s="3">
-        <v>537500</v>
+        <v>655700</v>
       </c>
       <c r="G72" s="3">
-        <v>431100</v>
+        <v>532500</v>
       </c>
       <c r="H72" s="3">
-        <v>395700</v>
+        <v>427200</v>
       </c>
       <c r="I72" s="3">
-        <v>331800</v>
+        <v>392100</v>
       </c>
       <c r="J72" s="3">
+        <v>328700</v>
+      </c>
+      <c r="K72" s="3">
         <v>166100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-119600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-252700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-335100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3791700</v>
+        <v>3764200</v>
       </c>
       <c r="E76" s="3">
-        <v>3731000</v>
+        <v>3756800</v>
       </c>
       <c r="F76" s="3">
-        <v>3587200</v>
+        <v>3696600</v>
       </c>
       <c r="G76" s="3">
-        <v>3473100</v>
+        <v>3554200</v>
       </c>
       <c r="H76" s="3">
-        <v>3421100</v>
+        <v>3441200</v>
       </c>
       <c r="I76" s="3">
-        <v>3354900</v>
+        <v>3389600</v>
       </c>
       <c r="J76" s="3">
+        <v>3324100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3177200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2794700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2637900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2552700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105300</v>
+        <v>48900</v>
       </c>
       <c r="E81" s="3">
-        <v>178600</v>
+        <v>104300</v>
       </c>
       <c r="F81" s="3">
-        <v>160600</v>
+        <v>177000</v>
       </c>
       <c r="G81" s="3">
-        <v>89300</v>
+        <v>159100</v>
       </c>
       <c r="H81" s="3">
-        <v>119400</v>
+        <v>206800</v>
       </c>
       <c r="I81" s="3">
-        <v>219700</v>
+        <v>118300</v>
       </c>
       <c r="J81" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K81" s="3">
         <v>342900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>158600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>92100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>227600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100800</v>
+        <v>105800</v>
       </c>
       <c r="E83" s="3">
-        <v>159900</v>
+        <v>99900</v>
       </c>
       <c r="F83" s="3">
-        <v>145800</v>
+        <v>158400</v>
       </c>
       <c r="G83" s="3">
-        <v>101500</v>
+        <v>144400</v>
       </c>
       <c r="H83" s="3">
-        <v>87000</v>
+        <v>186800</v>
       </c>
       <c r="I83" s="3">
-        <v>102000</v>
+        <v>86200</v>
       </c>
       <c r="J83" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K83" s="3">
         <v>100600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>96300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>140000</v>
+        <v>161400</v>
       </c>
       <c r="E89" s="3">
-        <v>347400</v>
+        <v>138700</v>
       </c>
       <c r="F89" s="3">
-        <v>417800</v>
+        <v>344200</v>
       </c>
       <c r="G89" s="3">
-        <v>-10800</v>
+        <v>413900</v>
       </c>
       <c r="H89" s="3">
-        <v>190300</v>
+        <v>177800</v>
       </c>
       <c r="I89" s="3">
-        <v>255100</v>
+        <v>188500</v>
       </c>
       <c r="J89" s="3">
+        <v>252800</v>
+      </c>
+      <c r="K89" s="3">
         <v>392300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>303400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>275400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>209900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F91" s="3">
-        <v>-12000</v>
+        <v>-9300</v>
       </c>
       <c r="G91" s="3">
-        <v>-5200</v>
+        <v>-11900</v>
       </c>
       <c r="H91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-101500</v>
+        <v>-174200</v>
       </c>
       <c r="E94" s="3">
-        <v>-110200</v>
+        <v>-100600</v>
       </c>
       <c r="F94" s="3">
-        <v>-99800</v>
+        <v>-109200</v>
       </c>
       <c r="G94" s="3">
-        <v>-86000</v>
+        <v>-98900</v>
       </c>
       <c r="H94" s="3">
-        <v>-77400</v>
+        <v>-161900</v>
       </c>
       <c r="I94" s="3">
-        <v>-106400</v>
+        <v>-76700</v>
       </c>
       <c r="J94" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-96200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-143500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55100</v>
+        <v>-54900</v>
       </c>
       <c r="E96" s="3">
-        <v>-55100</v>
+        <v>-54600</v>
       </c>
       <c r="F96" s="3">
-        <v>-55000</v>
+        <v>-54600</v>
       </c>
       <c r="G96" s="3">
-        <v>-54600</v>
+        <v>-54500</v>
       </c>
       <c r="H96" s="3">
-        <v>-54900</v>
+        <v>-108500</v>
       </c>
       <c r="I96" s="3">
-        <v>-54800</v>
+        <v>-54400</v>
       </c>
       <c r="J96" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-82000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-13200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66600</v>
+        <v>-57400</v>
       </c>
       <c r="E100" s="3">
-        <v>-65400</v>
+        <v>-65900</v>
       </c>
       <c r="F100" s="3">
-        <v>-98500</v>
+        <v>-64800</v>
       </c>
       <c r="G100" s="3">
-        <v>-73700</v>
+        <v>-97600</v>
       </c>
       <c r="H100" s="3">
-        <v>-67900</v>
+        <v>-140400</v>
       </c>
       <c r="I100" s="3">
-        <v>-8600</v>
+        <v>-67300</v>
       </c>
       <c r="J100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-641000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>320400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-139800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-6800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-6700</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>-5000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>8800</v>
-      </c>
       <c r="J101" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-31600</v>
+        <v>-80200</v>
       </c>
       <c r="E102" s="3">
-        <v>165000</v>
+        <v>-31300</v>
       </c>
       <c r="F102" s="3">
-        <v>214400</v>
+        <v>163500</v>
       </c>
       <c r="G102" s="3">
-        <v>-170100</v>
+        <v>212400</v>
       </c>
       <c r="H102" s="3">
-        <v>42900</v>
+        <v>-126100</v>
       </c>
       <c r="I102" s="3">
-        <v>149000</v>
+        <v>42500</v>
       </c>
       <c r="J102" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-342000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>534900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>85800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>493700</v>
+        <v>522900</v>
       </c>
       <c r="E8" s="3">
-        <v>472500</v>
+        <v>508700</v>
       </c>
       <c r="F8" s="3">
-        <v>679900</v>
+        <v>486900</v>
       </c>
       <c r="G8" s="3">
-        <v>660300</v>
+        <v>700700</v>
       </c>
       <c r="H8" s="3">
-        <v>937400</v>
+        <v>680400</v>
       </c>
       <c r="I8" s="3">
-        <v>468200</v>
+        <v>966000</v>
       </c>
       <c r="J8" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K8" s="3">
         <v>619700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>635500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>563100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>484400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>341300</v>
+        <v>408300</v>
       </c>
       <c r="E9" s="3">
-        <v>292000</v>
+        <v>351700</v>
       </c>
       <c r="F9" s="3">
-        <v>359800</v>
+        <v>300900</v>
       </c>
       <c r="G9" s="3">
-        <v>356300</v>
+        <v>370700</v>
       </c>
       <c r="H9" s="3">
-        <v>568200</v>
+        <v>367200</v>
       </c>
       <c r="I9" s="3">
-        <v>264800</v>
+        <v>585500</v>
       </c>
       <c r="J9" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K9" s="3">
         <v>288700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>281100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>259700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>239300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>237800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>152400</v>
+        <v>114600</v>
       </c>
       <c r="E10" s="3">
-        <v>180500</v>
+        <v>157000</v>
       </c>
       <c r="F10" s="3">
-        <v>320200</v>
+        <v>186000</v>
       </c>
       <c r="G10" s="3">
-        <v>304000</v>
+        <v>329900</v>
       </c>
       <c r="H10" s="3">
-        <v>369200</v>
+        <v>313300</v>
       </c>
       <c r="I10" s="3">
-        <v>203400</v>
+        <v>380400</v>
       </c>
       <c r="J10" s="3">
+        <v>209600</v>
+      </c>
+      <c r="K10" s="3">
         <v>331000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>354400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>303400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>164600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>7700</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="H14" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-212400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-174000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>367300</v>
+        <v>450200</v>
       </c>
       <c r="E17" s="3">
-        <v>319800</v>
+        <v>378500</v>
       </c>
       <c r="F17" s="3">
-        <v>373100</v>
+        <v>329600</v>
       </c>
       <c r="G17" s="3">
-        <v>377900</v>
+        <v>384500</v>
       </c>
       <c r="H17" s="3">
-        <v>604300</v>
+        <v>389400</v>
       </c>
       <c r="I17" s="3">
-        <v>274200</v>
+        <v>622700</v>
       </c>
       <c r="J17" s="3">
+        <v>282500</v>
+      </c>
+      <c r="K17" s="3">
         <v>315800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>255900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>94900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>126400</v>
+        <v>72700</v>
       </c>
       <c r="E18" s="3">
-        <v>152700</v>
+        <v>130300</v>
       </c>
       <c r="F18" s="3">
-        <v>306800</v>
+        <v>157300</v>
       </c>
       <c r="G18" s="3">
-        <v>282400</v>
+        <v>316100</v>
       </c>
       <c r="H18" s="3">
-        <v>333100</v>
+        <v>291000</v>
       </c>
       <c r="I18" s="3">
-        <v>194100</v>
+        <v>343200</v>
       </c>
       <c r="J18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K18" s="3">
         <v>303900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>556900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>269400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>307400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13800</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>34900</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>7100</v>
-      </c>
       <c r="H20" s="3">
-        <v>28100</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>28900</v>
       </c>
       <c r="J20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K20" s="3">
         <v>9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>246000</v>
+        <v>191200</v>
       </c>
       <c r="E21" s="3">
-        <v>287500</v>
+        <v>253500</v>
       </c>
       <c r="F21" s="3">
-        <v>465500</v>
+        <v>296200</v>
       </c>
       <c r="G21" s="3">
-        <v>434000</v>
+        <v>479700</v>
       </c>
       <c r="H21" s="3">
-        <v>548000</v>
+        <v>447200</v>
       </c>
       <c r="I21" s="3">
-        <v>290300</v>
+        <v>564700</v>
       </c>
       <c r="J21" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K21" s="3">
         <v>414600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>657900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>371500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>299400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>397200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G22" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="3">
-        <v>11600</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136700</v>
+        <v>62200</v>
       </c>
       <c r="E23" s="3">
-        <v>184300</v>
+        <v>140900</v>
       </c>
       <c r="F23" s="3">
-        <v>303500</v>
+        <v>189900</v>
       </c>
       <c r="G23" s="3">
-        <v>285500</v>
+        <v>312800</v>
       </c>
       <c r="H23" s="3">
-        <v>349600</v>
+        <v>294200</v>
       </c>
       <c r="I23" s="3">
-        <v>200300</v>
+        <v>360200</v>
       </c>
       <c r="J23" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K23" s="3">
         <v>309900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>552900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>268800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>203700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>304100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84200</v>
+        <v>90500</v>
       </c>
       <c r="E24" s="3">
-        <v>66900</v>
+        <v>86700</v>
       </c>
       <c r="F24" s="3">
-        <v>105600</v>
+        <v>68900</v>
       </c>
       <c r="G24" s="3">
-        <v>111200</v>
+        <v>108800</v>
       </c>
       <c r="H24" s="3">
-        <v>126200</v>
+        <v>114600</v>
       </c>
       <c r="I24" s="3">
-        <v>72600</v>
+        <v>130100</v>
       </c>
       <c r="J24" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K24" s="3">
         <v>84500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>191500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52600</v>
+        <v>-28300</v>
       </c>
       <c r="E26" s="3">
-        <v>117400</v>
+        <v>54200</v>
       </c>
       <c r="F26" s="3">
-        <v>197900</v>
+        <v>120900</v>
       </c>
       <c r="G26" s="3">
-        <v>174300</v>
+        <v>204000</v>
       </c>
       <c r="H26" s="3">
-        <v>223300</v>
+        <v>179600</v>
       </c>
       <c r="I26" s="3">
-        <v>127700</v>
+        <v>230200</v>
       </c>
       <c r="J26" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K26" s="3">
         <v>225400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>361400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>175800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>105700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>229200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48900</v>
+        <v>-31200</v>
       </c>
       <c r="E27" s="3">
-        <v>104300</v>
+        <v>50300</v>
       </c>
       <c r="F27" s="3">
-        <v>177000</v>
+        <v>107500</v>
       </c>
       <c r="G27" s="3">
-        <v>159100</v>
+        <v>182400</v>
       </c>
       <c r="H27" s="3">
-        <v>206800</v>
+        <v>164000</v>
       </c>
       <c r="I27" s="3">
-        <v>118300</v>
+        <v>213100</v>
       </c>
       <c r="J27" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K27" s="3">
         <v>217700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>342900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>92100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>222800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1536,8 +1597,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1549,13 +1610,16 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>4800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13800</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>-34900</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-28100</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-28900</v>
       </c>
       <c r="J32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>48900</v>
+        <v>-31200</v>
       </c>
       <c r="E33" s="3">
-        <v>104300</v>
+        <v>50300</v>
       </c>
       <c r="F33" s="3">
-        <v>177000</v>
+        <v>107500</v>
       </c>
       <c r="G33" s="3">
-        <v>159100</v>
+        <v>182400</v>
       </c>
       <c r="H33" s="3">
-        <v>206800</v>
+        <v>164000</v>
       </c>
       <c r="I33" s="3">
-        <v>118300</v>
+        <v>213100</v>
       </c>
       <c r="J33" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K33" s="3">
         <v>217700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>342900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>158600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>92100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>227600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>48900</v>
+        <v>-31200</v>
       </c>
       <c r="E35" s="3">
-        <v>104300</v>
+        <v>50300</v>
       </c>
       <c r="F35" s="3">
-        <v>177000</v>
+        <v>107500</v>
       </c>
       <c r="G35" s="3">
-        <v>159100</v>
+        <v>182400</v>
       </c>
       <c r="H35" s="3">
-        <v>206800</v>
+        <v>164000</v>
       </c>
       <c r="I35" s="3">
-        <v>118300</v>
+        <v>213100</v>
       </c>
       <c r="J35" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K35" s="3">
         <v>217700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>342900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>158600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>92100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>227600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>758200</v>
+        <v>731800</v>
       </c>
       <c r="E41" s="3">
-        <v>838500</v>
+        <v>781400</v>
       </c>
       <c r="F41" s="3">
-        <v>869800</v>
+        <v>864000</v>
       </c>
       <c r="G41" s="3">
-        <v>706300</v>
+        <v>896300</v>
       </c>
       <c r="H41" s="3">
-        <v>493900</v>
+        <v>727800</v>
       </c>
       <c r="I41" s="3">
-        <v>662400</v>
+        <v>508900</v>
       </c>
       <c r="J41" s="3">
+        <v>682600</v>
+      </c>
+      <c r="K41" s="3">
         <v>619900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>476700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>799800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>264900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>180300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,254 +2052,275 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74000</v>
+        <v>32900</v>
       </c>
       <c r="E43" s="3">
-        <v>103500</v>
+        <v>76200</v>
       </c>
       <c r="F43" s="3">
-        <v>82500</v>
+        <v>106600</v>
       </c>
       <c r="G43" s="3">
-        <v>41900</v>
+        <v>85000</v>
       </c>
       <c r="H43" s="3">
-        <v>59900</v>
+        <v>43200</v>
       </c>
       <c r="I43" s="3">
-        <v>45400</v>
+        <v>61700</v>
       </c>
       <c r="J43" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K43" s="3">
         <v>25500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>388000</v>
+        <v>391300</v>
       </c>
       <c r="E44" s="3">
-        <v>360500</v>
+        <v>399800</v>
       </c>
       <c r="F44" s="3">
-        <v>352000</v>
+        <v>371500</v>
       </c>
       <c r="G44" s="3">
-        <v>348700</v>
+        <v>362700</v>
       </c>
       <c r="H44" s="3">
-        <v>348500</v>
+        <v>359300</v>
       </c>
       <c r="I44" s="3">
-        <v>330200</v>
+        <v>359100</v>
       </c>
       <c r="J44" s="3">
+        <v>340200</v>
+      </c>
+      <c r="K44" s="3">
         <v>307700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>315900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>312200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>303500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>279500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>79000</v>
+        <v>39400</v>
       </c>
       <c r="E45" s="3">
-        <v>68300</v>
+        <v>81400</v>
       </c>
       <c r="F45" s="3">
-        <v>47800</v>
+        <v>70400</v>
       </c>
       <c r="G45" s="3">
-        <v>163800</v>
+        <v>49200</v>
       </c>
       <c r="H45" s="3">
-        <v>57600</v>
+        <v>168800</v>
       </c>
       <c r="I45" s="3">
-        <v>51100</v>
+        <v>59300</v>
       </c>
       <c r="J45" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K45" s="3">
         <v>32600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1195400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1338800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1412600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1393200</v>
+      </c>
+      <c r="H46" s="3">
         <v>1299200</v>
       </c>
-      <c r="E46" s="3">
-        <v>1370800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1352000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1260800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>959900</v>
-      </c>
       <c r="I46" s="3">
-        <v>1089000</v>
+        <v>989100</v>
       </c>
       <c r="J46" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="K46" s="3">
         <v>985700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>864400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1189900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>637700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>550900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>284300</v>
+        <v>319800</v>
       </c>
       <c r="E47" s="3">
-        <v>274600</v>
+        <v>292900</v>
       </c>
       <c r="F47" s="3">
-        <v>257900</v>
+        <v>283000</v>
       </c>
       <c r="G47" s="3">
-        <v>185100</v>
+        <v>265700</v>
       </c>
       <c r="H47" s="3">
-        <v>185400</v>
+        <v>190800</v>
       </c>
       <c r="I47" s="3">
-        <v>164700</v>
+        <v>191100</v>
       </c>
       <c r="J47" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K47" s="3">
         <v>156300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>135400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>121600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>249300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>208700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2909800</v>
+        <v>3052500</v>
       </c>
       <c r="E48" s="3">
-        <v>2875600</v>
+        <v>2998500</v>
       </c>
       <c r="F48" s="3">
-        <v>2884400</v>
+        <v>2963300</v>
       </c>
       <c r="G48" s="3">
-        <v>2851200</v>
+        <v>2972400</v>
       </c>
       <c r="H48" s="3">
-        <v>3006200</v>
+        <v>2938100</v>
       </c>
       <c r="I48" s="3">
-        <v>3039200</v>
+        <v>3097800</v>
       </c>
       <c r="J48" s="3">
+        <v>3131900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3085000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3052800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2765700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2647100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2625100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114100</v>
+        <v>117000</v>
       </c>
       <c r="E52" s="3">
-        <v>112300</v>
+        <v>117600</v>
       </c>
       <c r="F52" s="3">
-        <v>108300</v>
+        <v>115700</v>
       </c>
       <c r="G52" s="3">
-        <v>102600</v>
+        <v>111600</v>
       </c>
       <c r="H52" s="3">
-        <v>108600</v>
+        <v>105700</v>
       </c>
       <c r="I52" s="3">
-        <v>102800</v>
+        <v>111900</v>
       </c>
       <c r="J52" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K52" s="3">
         <v>118500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4607400</v>
+        <v>4684700</v>
       </c>
       <c r="E54" s="3">
-        <v>4633300</v>
+        <v>4747900</v>
       </c>
       <c r="F54" s="3">
-        <v>4602600</v>
+        <v>4774500</v>
       </c>
       <c r="G54" s="3">
-        <v>4399700</v>
+        <v>4742900</v>
       </c>
       <c r="H54" s="3">
-        <v>4260100</v>
+        <v>4533900</v>
       </c>
       <c r="I54" s="3">
-        <v>4395800</v>
+        <v>4389900</v>
       </c>
       <c r="J54" s="3">
+        <v>4529800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4345500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4151200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4136800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3587600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3441300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113200</v>
+        <v>145000</v>
       </c>
       <c r="E57" s="3">
-        <v>130200</v>
+        <v>116700</v>
       </c>
       <c r="F57" s="3">
-        <v>144400</v>
+        <v>134200</v>
       </c>
       <c r="G57" s="3">
-        <v>113200</v>
+        <v>148800</v>
       </c>
       <c r="H57" s="3">
-        <v>96800</v>
+        <v>116700</v>
       </c>
       <c r="I57" s="3">
-        <v>107900</v>
+        <v>99800</v>
       </c>
       <c r="J57" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K57" s="3">
         <v>115100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>99900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>106900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25000</v>
+        <v>26400</v>
       </c>
       <c r="E58" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="F58" s="3">
-        <v>32800</v>
+        <v>29100</v>
       </c>
       <c r="G58" s="3">
-        <v>37200</v>
+        <v>33800</v>
       </c>
       <c r="H58" s="3">
-        <v>40900</v>
+        <v>38300</v>
       </c>
       <c r="I58" s="3">
-        <v>42800</v>
+        <v>42100</v>
       </c>
       <c r="J58" s="3">
         <v>44100</v>
       </c>
       <c r="K58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="L58" s="3">
         <v>30100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142000</v>
+        <v>58100</v>
       </c>
       <c r="E59" s="3">
-        <v>106900</v>
+        <v>146300</v>
       </c>
       <c r="F59" s="3">
-        <v>121600</v>
+        <v>110200</v>
       </c>
       <c r="G59" s="3">
-        <v>107400</v>
+        <v>125300</v>
       </c>
       <c r="H59" s="3">
-        <v>85900</v>
+        <v>110700</v>
       </c>
       <c r="I59" s="3">
-        <v>223600</v>
+        <v>88600</v>
       </c>
       <c r="J59" s="3">
+        <v>230500</v>
+      </c>
+      <c r="K59" s="3">
         <v>210600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>249000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>140200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>280100</v>
+        <v>229400</v>
       </c>
       <c r="E60" s="3">
-        <v>265400</v>
+        <v>288700</v>
       </c>
       <c r="F60" s="3">
-        <v>298800</v>
+        <v>273500</v>
       </c>
       <c r="G60" s="3">
-        <v>257900</v>
+        <v>307900</v>
       </c>
       <c r="H60" s="3">
-        <v>223700</v>
+        <v>265700</v>
       </c>
       <c r="I60" s="3">
-        <v>374300</v>
+        <v>230500</v>
       </c>
       <c r="J60" s="3">
+        <v>385700</v>
+      </c>
+      <c r="K60" s="3">
         <v>369700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>384100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>339200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>271200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61200</v>
+        <v>56900</v>
       </c>
       <c r="E61" s="3">
-        <v>65700</v>
+        <v>63000</v>
       </c>
       <c r="F61" s="3">
-        <v>64300</v>
+        <v>67700</v>
       </c>
       <c r="G61" s="3">
-        <v>71000</v>
+        <v>66200</v>
       </c>
       <c r="H61" s="3">
-        <v>80000</v>
+        <v>73200</v>
       </c>
       <c r="I61" s="3">
-        <v>86600</v>
+        <v>82400</v>
       </c>
       <c r="J61" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K61" s="3">
         <v>98100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>571800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>302500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>392200</v>
+        <v>440700</v>
       </c>
       <c r="E62" s="3">
-        <v>404800</v>
+        <v>404200</v>
       </c>
       <c r="F62" s="3">
-        <v>412800</v>
+        <v>417100</v>
       </c>
       <c r="G62" s="3">
-        <v>408200</v>
+        <v>425300</v>
       </c>
       <c r="H62" s="3">
-        <v>417100</v>
+        <v>420600</v>
       </c>
       <c r="I62" s="3">
-        <v>423500</v>
+        <v>429800</v>
       </c>
       <c r="J62" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K62" s="3">
         <v>439100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>429000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>323900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>329000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>295700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>843200</v>
+        <v>843700</v>
       </c>
       <c r="E66" s="3">
-        <v>876500</v>
+        <v>868900</v>
       </c>
       <c r="F66" s="3">
-        <v>906000</v>
+        <v>903200</v>
       </c>
       <c r="G66" s="3">
-        <v>845500</v>
+        <v>933600</v>
       </c>
       <c r="H66" s="3">
-        <v>818900</v>
+        <v>871300</v>
       </c>
       <c r="I66" s="3">
-        <v>1006200</v>
+        <v>843900</v>
       </c>
       <c r="J66" s="3">
+        <v>1036800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1021500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>973900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1342100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>949700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>888600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>701000</v>
+        <v>634900</v>
       </c>
       <c r="E72" s="3">
-        <v>706300</v>
+        <v>722400</v>
       </c>
       <c r="F72" s="3">
-        <v>655700</v>
+        <v>727900</v>
       </c>
       <c r="G72" s="3">
-        <v>532500</v>
+        <v>675700</v>
       </c>
       <c r="H72" s="3">
-        <v>427200</v>
+        <v>548800</v>
       </c>
       <c r="I72" s="3">
-        <v>392100</v>
+        <v>440200</v>
       </c>
       <c r="J72" s="3">
+        <v>404000</v>
+      </c>
+      <c r="K72" s="3">
         <v>328700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>166100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-119600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-252700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-335100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3764200</v>
+        <v>3841000</v>
       </c>
       <c r="E76" s="3">
-        <v>3756800</v>
+        <v>3878900</v>
       </c>
       <c r="F76" s="3">
-        <v>3696600</v>
+        <v>3871300</v>
       </c>
       <c r="G76" s="3">
-        <v>3554200</v>
+        <v>3809300</v>
       </c>
       <c r="H76" s="3">
-        <v>3441200</v>
+        <v>3662600</v>
       </c>
       <c r="I76" s="3">
-        <v>3389600</v>
+        <v>3546100</v>
       </c>
       <c r="J76" s="3">
+        <v>3493000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3324100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3177200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2794700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2637900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2552700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>48900</v>
+        <v>-31200</v>
       </c>
       <c r="E81" s="3">
-        <v>104300</v>
+        <v>50300</v>
       </c>
       <c r="F81" s="3">
-        <v>177000</v>
+        <v>107500</v>
       </c>
       <c r="G81" s="3">
-        <v>159100</v>
+        <v>182400</v>
       </c>
       <c r="H81" s="3">
-        <v>206800</v>
+        <v>164000</v>
       </c>
       <c r="I81" s="3">
-        <v>118300</v>
+        <v>213100</v>
       </c>
       <c r="J81" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K81" s="3">
         <v>217700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>342900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>158600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>92100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>227600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105800</v>
+        <v>125500</v>
       </c>
       <c r="E83" s="3">
-        <v>99900</v>
+        <v>109000</v>
       </c>
       <c r="F83" s="3">
-        <v>158400</v>
+        <v>102900</v>
       </c>
       <c r="G83" s="3">
-        <v>144400</v>
+        <v>163300</v>
       </c>
       <c r="H83" s="3">
-        <v>186800</v>
+        <v>148900</v>
       </c>
       <c r="I83" s="3">
-        <v>86200</v>
+        <v>192500</v>
       </c>
       <c r="J83" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K83" s="3">
         <v>101100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>96300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>161400</v>
+        <v>124000</v>
       </c>
       <c r="E89" s="3">
-        <v>138700</v>
+        <v>166300</v>
       </c>
       <c r="F89" s="3">
-        <v>344200</v>
+        <v>142900</v>
       </c>
       <c r="G89" s="3">
-        <v>413900</v>
+        <v>354600</v>
       </c>
       <c r="H89" s="3">
-        <v>177800</v>
+        <v>426600</v>
       </c>
       <c r="I89" s="3">
-        <v>188500</v>
+        <v>183200</v>
       </c>
       <c r="J89" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K89" s="3">
         <v>252800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>392300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>303400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>275400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>209900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3300</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-3400</v>
       </c>
       <c r="F91" s="3">
-        <v>-9300</v>
+        <v>-5900</v>
       </c>
       <c r="G91" s="3">
-        <v>-11900</v>
+        <v>-9600</v>
       </c>
       <c r="H91" s="3">
-        <v>-9700</v>
+        <v>-12300</v>
       </c>
       <c r="I91" s="3">
-        <v>-4500</v>
+        <v>-9900</v>
       </c>
       <c r="J91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174200</v>
+        <v>-74000</v>
       </c>
       <c r="E94" s="3">
-        <v>-100600</v>
+        <v>-179500</v>
       </c>
       <c r="F94" s="3">
-        <v>-109200</v>
+        <v>-103700</v>
       </c>
       <c r="G94" s="3">
-        <v>-98900</v>
+        <v>-112500</v>
       </c>
       <c r="H94" s="3">
-        <v>-161900</v>
+        <v>-101900</v>
       </c>
       <c r="I94" s="3">
-        <v>-76700</v>
+        <v>-166900</v>
       </c>
       <c r="J94" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-105400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-143500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54900</v>
+        <v>-57200</v>
       </c>
       <c r="E96" s="3">
-        <v>-54600</v>
+        <v>-56600</v>
       </c>
       <c r="F96" s="3">
-        <v>-54600</v>
+        <v>-56200</v>
       </c>
       <c r="G96" s="3">
-        <v>-54500</v>
+        <v>-56200</v>
       </c>
       <c r="H96" s="3">
-        <v>-108500</v>
+        <v>-56200</v>
       </c>
       <c r="I96" s="3">
-        <v>-54400</v>
+        <v>-111800</v>
       </c>
       <c r="J96" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-54300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-13200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57400</v>
+        <v>-90300</v>
       </c>
       <c r="E100" s="3">
-        <v>-65900</v>
+        <v>-59200</v>
       </c>
       <c r="F100" s="3">
-        <v>-64800</v>
+        <v>-68000</v>
       </c>
       <c r="G100" s="3">
-        <v>-97600</v>
+        <v>-66700</v>
       </c>
       <c r="H100" s="3">
-        <v>-140400</v>
+        <v>-100600</v>
       </c>
       <c r="I100" s="3">
-        <v>-67300</v>
+        <v>-144600</v>
       </c>
       <c r="J100" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-641000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>320400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-139800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10000</v>
+        <v>-9300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3500</v>
+        <v>-10300</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-3600</v>
       </c>
       <c r="G101" s="3">
-        <v>-5000</v>
+        <v>-6900</v>
       </c>
       <c r="H101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K101" s="3">
         <v>8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80200</v>
+        <v>-49600</v>
       </c>
       <c r="E102" s="3">
-        <v>-31300</v>
+        <v>-82700</v>
       </c>
       <c r="F102" s="3">
-        <v>163500</v>
+        <v>-32300</v>
       </c>
       <c r="G102" s="3">
-        <v>212400</v>
+        <v>168500</v>
       </c>
       <c r="H102" s="3">
-        <v>-126100</v>
+        <v>218900</v>
       </c>
       <c r="I102" s="3">
-        <v>42500</v>
+        <v>-129900</v>
       </c>
       <c r="J102" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K102" s="3">
         <v>147600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-342000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>534900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>522900</v>
+        <v>819200</v>
       </c>
       <c r="E8" s="3">
-        <v>508700</v>
+        <v>542800</v>
       </c>
       <c r="F8" s="3">
-        <v>486900</v>
+        <v>528200</v>
       </c>
       <c r="G8" s="3">
-        <v>700700</v>
+        <v>505500</v>
       </c>
       <c r="H8" s="3">
-        <v>680400</v>
+        <v>727400</v>
       </c>
       <c r="I8" s="3">
-        <v>966000</v>
+        <v>706400</v>
       </c>
       <c r="J8" s="3">
+        <v>1002900</v>
+      </c>
+      <c r="K8" s="3">
         <v>482500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>619700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>635500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>563100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>484400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>408300</v>
+        <v>458800</v>
       </c>
       <c r="E9" s="3">
-        <v>351700</v>
+        <v>423900</v>
       </c>
       <c r="F9" s="3">
-        <v>300900</v>
+        <v>365100</v>
       </c>
       <c r="G9" s="3">
-        <v>370700</v>
+        <v>312400</v>
       </c>
       <c r="H9" s="3">
-        <v>367200</v>
+        <v>384900</v>
       </c>
       <c r="I9" s="3">
-        <v>585500</v>
+        <v>381200</v>
       </c>
       <c r="J9" s="3">
+        <v>607900</v>
+      </c>
+      <c r="K9" s="3">
         <v>272900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>288700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>281100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>259700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>239300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>237800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>114600</v>
+        <v>360500</v>
       </c>
       <c r="E10" s="3">
-        <v>157000</v>
+        <v>119000</v>
       </c>
       <c r="F10" s="3">
-        <v>186000</v>
+        <v>163100</v>
       </c>
       <c r="G10" s="3">
-        <v>329900</v>
+        <v>193100</v>
       </c>
       <c r="H10" s="3">
-        <v>313300</v>
+        <v>342500</v>
       </c>
       <c r="I10" s="3">
-        <v>380400</v>
+        <v>325200</v>
       </c>
       <c r="J10" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K10" s="3">
         <v>209600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>331000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>354400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>303400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>164600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>7300</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>5400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>7900</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-212400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-174000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>450200</v>
+        <v>498500</v>
       </c>
       <c r="E17" s="3">
-        <v>378500</v>
+        <v>467400</v>
       </c>
       <c r="F17" s="3">
-        <v>329600</v>
+        <v>392900</v>
       </c>
       <c r="G17" s="3">
-        <v>384500</v>
+        <v>342200</v>
       </c>
       <c r="H17" s="3">
-        <v>389400</v>
+        <v>399200</v>
       </c>
       <c r="I17" s="3">
-        <v>622700</v>
+        <v>404300</v>
       </c>
       <c r="J17" s="3">
+        <v>646500</v>
+      </c>
+      <c r="K17" s="3">
         <v>282500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>315800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>255900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72700</v>
+        <v>320800</v>
       </c>
       <c r="E18" s="3">
-        <v>130300</v>
+        <v>75500</v>
       </c>
       <c r="F18" s="3">
-        <v>157300</v>
+        <v>135300</v>
       </c>
       <c r="G18" s="3">
-        <v>316100</v>
+        <v>163300</v>
       </c>
       <c r="H18" s="3">
-        <v>291000</v>
+        <v>328200</v>
       </c>
       <c r="I18" s="3">
-        <v>343200</v>
+        <v>302100</v>
       </c>
       <c r="J18" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K18" s="3">
         <v>200000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>303900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>556900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>269400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>228600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>307400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>8900</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>-7200</v>
       </c>
       <c r="F20" s="3">
-        <v>36000</v>
+        <v>14700</v>
       </c>
       <c r="G20" s="3">
+        <v>37400</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>7300</v>
-      </c>
       <c r="I20" s="3">
-        <v>28900</v>
+        <v>7600</v>
       </c>
       <c r="J20" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K20" s="3">
         <v>10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191200</v>
+        <v>510100</v>
       </c>
       <c r="E21" s="3">
-        <v>253500</v>
+        <v>198600</v>
       </c>
       <c r="F21" s="3">
-        <v>296200</v>
+        <v>263200</v>
       </c>
       <c r="G21" s="3">
-        <v>479700</v>
+        <v>307500</v>
       </c>
       <c r="H21" s="3">
-        <v>447200</v>
+        <v>498000</v>
       </c>
       <c r="I21" s="3">
-        <v>564700</v>
+        <v>464300</v>
       </c>
       <c r="J21" s="3">
+        <v>586300</v>
+      </c>
+      <c r="K21" s="3">
         <v>299100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>414600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>657900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>371500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>299400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>397200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62200</v>
+        <v>325700</v>
       </c>
       <c r="E23" s="3">
-        <v>140900</v>
+        <v>64600</v>
       </c>
       <c r="F23" s="3">
-        <v>189900</v>
+        <v>146300</v>
       </c>
       <c r="G23" s="3">
-        <v>312800</v>
+        <v>197100</v>
       </c>
       <c r="H23" s="3">
-        <v>294200</v>
+        <v>324700</v>
       </c>
       <c r="I23" s="3">
-        <v>360200</v>
+        <v>305400</v>
       </c>
       <c r="J23" s="3">
+        <v>374000</v>
+      </c>
+      <c r="K23" s="3">
         <v>206400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>309900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>552900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>268800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>203700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>304100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90500</v>
+        <v>81700</v>
       </c>
       <c r="E24" s="3">
-        <v>86700</v>
+        <v>93900</v>
       </c>
       <c r="F24" s="3">
-        <v>68900</v>
+        <v>90000</v>
       </c>
       <c r="G24" s="3">
-        <v>108800</v>
+        <v>71600</v>
       </c>
       <c r="H24" s="3">
-        <v>114600</v>
+        <v>113000</v>
       </c>
       <c r="I24" s="3">
-        <v>130100</v>
+        <v>118900</v>
       </c>
       <c r="J24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K24" s="3">
         <v>74800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>84500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>191500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>74900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28300</v>
+        <v>244000</v>
       </c>
       <c r="E26" s="3">
-        <v>54200</v>
+        <v>-29400</v>
       </c>
       <c r="F26" s="3">
-        <v>120900</v>
+        <v>56300</v>
       </c>
       <c r="G26" s="3">
-        <v>204000</v>
+        <v>125600</v>
       </c>
       <c r="H26" s="3">
-        <v>179600</v>
+        <v>211700</v>
       </c>
       <c r="I26" s="3">
-        <v>230200</v>
+        <v>186500</v>
       </c>
       <c r="J26" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K26" s="3">
         <v>131600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>225400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>361400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>175800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>105700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>229200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31200</v>
+        <v>218100</v>
       </c>
       <c r="E27" s="3">
-        <v>50300</v>
+        <v>-32400</v>
       </c>
       <c r="F27" s="3">
-        <v>107500</v>
+        <v>52300</v>
       </c>
       <c r="G27" s="3">
-        <v>182400</v>
+        <v>111600</v>
       </c>
       <c r="H27" s="3">
-        <v>164000</v>
+        <v>189400</v>
       </c>
       <c r="I27" s="3">
-        <v>213100</v>
+        <v>170200</v>
       </c>
       <c r="J27" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K27" s="3">
         <v>121900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>342900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>92100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>222800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,8 +1660,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1613,13 +1673,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>4800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>-8900</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>7200</v>
       </c>
       <c r="F32" s="3">
-        <v>-36000</v>
+        <v>-14700</v>
       </c>
       <c r="G32" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-28900</v>
+        <v>-7600</v>
       </c>
       <c r="J32" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31200</v>
+        <v>218100</v>
       </c>
       <c r="E33" s="3">
-        <v>50300</v>
+        <v>-32400</v>
       </c>
       <c r="F33" s="3">
-        <v>107500</v>
+        <v>52300</v>
       </c>
       <c r="G33" s="3">
-        <v>182400</v>
+        <v>111600</v>
       </c>
       <c r="H33" s="3">
-        <v>164000</v>
+        <v>189400</v>
       </c>
       <c r="I33" s="3">
-        <v>213100</v>
+        <v>170200</v>
       </c>
       <c r="J33" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K33" s="3">
         <v>121900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>217700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>342900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>158600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>92100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>227600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31200</v>
+        <v>218100</v>
       </c>
       <c r="E35" s="3">
-        <v>50300</v>
+        <v>-32400</v>
       </c>
       <c r="F35" s="3">
-        <v>107500</v>
+        <v>52300</v>
       </c>
       <c r="G35" s="3">
-        <v>182400</v>
+        <v>111600</v>
       </c>
       <c r="H35" s="3">
-        <v>164000</v>
+        <v>189400</v>
       </c>
       <c r="I35" s="3">
-        <v>213100</v>
+        <v>170200</v>
       </c>
       <c r="J35" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K35" s="3">
         <v>121900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>217700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>342900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>158600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>92100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>227600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>731800</v>
+        <v>901400</v>
       </c>
       <c r="E41" s="3">
-        <v>781400</v>
+        <v>759700</v>
       </c>
       <c r="F41" s="3">
-        <v>864000</v>
+        <v>811200</v>
       </c>
       <c r="G41" s="3">
-        <v>896300</v>
+        <v>897000</v>
       </c>
       <c r="H41" s="3">
-        <v>727800</v>
+        <v>930600</v>
       </c>
       <c r="I41" s="3">
-        <v>508900</v>
+        <v>755700</v>
       </c>
       <c r="J41" s="3">
+        <v>528400</v>
+      </c>
+      <c r="K41" s="3">
         <v>682600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>619900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>476700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>799800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>264900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>180300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,272 +2144,293 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32900</v>
+        <v>40500</v>
       </c>
       <c r="E43" s="3">
-        <v>76200</v>
+        <v>34200</v>
       </c>
       <c r="F43" s="3">
-        <v>106600</v>
+        <v>79200</v>
       </c>
       <c r="G43" s="3">
-        <v>85000</v>
+        <v>110700</v>
       </c>
       <c r="H43" s="3">
-        <v>43200</v>
+        <v>88200</v>
       </c>
       <c r="I43" s="3">
-        <v>61700</v>
+        <v>44900</v>
       </c>
       <c r="J43" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K43" s="3">
         <v>46700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>391300</v>
+        <v>459100</v>
       </c>
       <c r="E44" s="3">
-        <v>399800</v>
+        <v>406200</v>
       </c>
       <c r="F44" s="3">
-        <v>371500</v>
+        <v>415100</v>
       </c>
       <c r="G44" s="3">
-        <v>362700</v>
+        <v>385700</v>
       </c>
       <c r="H44" s="3">
-        <v>359300</v>
+        <v>376600</v>
       </c>
       <c r="I44" s="3">
-        <v>359100</v>
+        <v>373000</v>
       </c>
       <c r="J44" s="3">
+        <v>372900</v>
+      </c>
+      <c r="K44" s="3">
         <v>340200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>307700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>315900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>312200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>303500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>279500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39400</v>
+        <v>30200</v>
       </c>
       <c r="E45" s="3">
-        <v>81400</v>
+        <v>40900</v>
       </c>
       <c r="F45" s="3">
-        <v>70400</v>
+        <v>84500</v>
       </c>
       <c r="G45" s="3">
-        <v>49200</v>
+        <v>73100</v>
       </c>
       <c r="H45" s="3">
-        <v>168800</v>
+        <v>51100</v>
       </c>
       <c r="I45" s="3">
-        <v>59300</v>
+        <v>175300</v>
       </c>
       <c r="J45" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K45" s="3">
         <v>52600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1195400</v>
+        <v>1431300</v>
       </c>
       <c r="E46" s="3">
-        <v>1338800</v>
+        <v>1241100</v>
       </c>
       <c r="F46" s="3">
-        <v>1412600</v>
+        <v>1390000</v>
       </c>
       <c r="G46" s="3">
-        <v>1393200</v>
+        <v>1466600</v>
       </c>
       <c r="H46" s="3">
-        <v>1299200</v>
+        <v>1446500</v>
       </c>
       <c r="I46" s="3">
-        <v>989100</v>
+        <v>1348900</v>
       </c>
       <c r="J46" s="3">
+        <v>1026900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1122200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>985700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>864400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1189900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>637700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>550900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319800</v>
+        <v>384800</v>
       </c>
       <c r="E47" s="3">
-        <v>292900</v>
+        <v>332000</v>
       </c>
       <c r="F47" s="3">
-        <v>283000</v>
+        <v>304100</v>
       </c>
       <c r="G47" s="3">
-        <v>265700</v>
+        <v>293800</v>
       </c>
       <c r="H47" s="3">
-        <v>190800</v>
+        <v>275900</v>
       </c>
       <c r="I47" s="3">
-        <v>191100</v>
+        <v>198100</v>
       </c>
       <c r="J47" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K47" s="3">
         <v>169700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>156300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>135400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>121600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>249300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>208700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3052500</v>
+        <v>3145300</v>
       </c>
       <c r="E48" s="3">
-        <v>2998500</v>
+        <v>3169200</v>
       </c>
       <c r="F48" s="3">
-        <v>2963300</v>
+        <v>3113100</v>
       </c>
       <c r="G48" s="3">
-        <v>2972400</v>
+        <v>3076500</v>
       </c>
       <c r="H48" s="3">
-        <v>2938100</v>
+        <v>3086000</v>
       </c>
       <c r="I48" s="3">
-        <v>3097800</v>
+        <v>3050400</v>
       </c>
       <c r="J48" s="3">
+        <v>3216200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3131900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3085000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3052800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2765700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2647100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2625100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117000</v>
+        <v>128600</v>
       </c>
       <c r="E52" s="3">
-        <v>117600</v>
+        <v>121500</v>
       </c>
       <c r="F52" s="3">
-        <v>115700</v>
+        <v>122100</v>
       </c>
       <c r="G52" s="3">
-        <v>111600</v>
+        <v>120100</v>
       </c>
       <c r="H52" s="3">
-        <v>105700</v>
+        <v>115900</v>
       </c>
       <c r="I52" s="3">
-        <v>111900</v>
+        <v>109800</v>
       </c>
       <c r="J52" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K52" s="3">
         <v>106000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>118500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4684700</v>
+        <v>5090000</v>
       </c>
       <c r="E54" s="3">
-        <v>4747900</v>
+        <v>4863800</v>
       </c>
       <c r="F54" s="3">
-        <v>4774500</v>
+        <v>4929300</v>
       </c>
       <c r="G54" s="3">
-        <v>4742900</v>
+        <v>4957000</v>
       </c>
       <c r="H54" s="3">
-        <v>4533900</v>
+        <v>4924200</v>
       </c>
       <c r="I54" s="3">
-        <v>4389900</v>
+        <v>4707100</v>
       </c>
       <c r="J54" s="3">
+        <v>4557700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4529800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4345500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4151200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4136800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3587600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3441300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145000</v>
+        <v>158700</v>
       </c>
       <c r="E57" s="3">
-        <v>116700</v>
+        <v>150500</v>
       </c>
       <c r="F57" s="3">
-        <v>134200</v>
+        <v>121100</v>
       </c>
       <c r="G57" s="3">
-        <v>148800</v>
+        <v>139300</v>
       </c>
       <c r="H57" s="3">
-        <v>116700</v>
+        <v>154500</v>
       </c>
       <c r="I57" s="3">
-        <v>99800</v>
+        <v>121200</v>
       </c>
       <c r="J57" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K57" s="3">
         <v>111200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>115100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>106900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26400</v>
+        <v>21500</v>
       </c>
       <c r="E58" s="3">
-        <v>25700</v>
+        <v>27400</v>
       </c>
       <c r="F58" s="3">
-        <v>29100</v>
+        <v>26700</v>
       </c>
       <c r="G58" s="3">
-        <v>33800</v>
+        <v>30200</v>
       </c>
       <c r="H58" s="3">
-        <v>38300</v>
+        <v>35100</v>
       </c>
       <c r="I58" s="3">
-        <v>42100</v>
+        <v>39800</v>
       </c>
       <c r="J58" s="3">
-        <v>44100</v>
+        <v>43700</v>
       </c>
       <c r="K58" s="3">
         <v>44100</v>
       </c>
       <c r="L58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="M58" s="3">
         <v>30100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58100</v>
+        <v>142800</v>
       </c>
       <c r="E59" s="3">
-        <v>146300</v>
+        <v>60300</v>
       </c>
       <c r="F59" s="3">
-        <v>110200</v>
+        <v>151900</v>
       </c>
       <c r="G59" s="3">
-        <v>125300</v>
+        <v>114400</v>
       </c>
       <c r="H59" s="3">
-        <v>110700</v>
+        <v>130100</v>
       </c>
       <c r="I59" s="3">
-        <v>88600</v>
+        <v>114900</v>
       </c>
       <c r="J59" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K59" s="3">
         <v>230500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>210800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>140200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>229400</v>
+        <v>323000</v>
       </c>
       <c r="E60" s="3">
-        <v>288700</v>
+        <v>238200</v>
       </c>
       <c r="F60" s="3">
-        <v>273500</v>
+        <v>299700</v>
       </c>
       <c r="G60" s="3">
-        <v>307900</v>
+        <v>283900</v>
       </c>
       <c r="H60" s="3">
-        <v>265700</v>
+        <v>319700</v>
       </c>
       <c r="I60" s="3">
-        <v>230500</v>
+        <v>275900</v>
       </c>
       <c r="J60" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K60" s="3">
         <v>385700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>369700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>384100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>339200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>271200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56900</v>
+        <v>57700</v>
       </c>
       <c r="E61" s="3">
-        <v>63000</v>
+        <v>59100</v>
       </c>
       <c r="F61" s="3">
-        <v>67700</v>
+        <v>65400</v>
       </c>
       <c r="G61" s="3">
-        <v>66200</v>
+        <v>70300</v>
       </c>
       <c r="H61" s="3">
-        <v>73200</v>
+        <v>68800</v>
       </c>
       <c r="I61" s="3">
-        <v>82400</v>
+        <v>76000</v>
       </c>
       <c r="J61" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K61" s="3">
         <v>89300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>98100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>571800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>302500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>440700</v>
+        <v>406700</v>
       </c>
       <c r="E62" s="3">
-        <v>404200</v>
+        <v>457500</v>
       </c>
       <c r="F62" s="3">
-        <v>417100</v>
+        <v>419600</v>
       </c>
       <c r="G62" s="3">
-        <v>425300</v>
+        <v>433100</v>
       </c>
       <c r="H62" s="3">
-        <v>420600</v>
+        <v>441600</v>
       </c>
       <c r="I62" s="3">
-        <v>429800</v>
+        <v>436700</v>
       </c>
       <c r="J62" s="3">
+        <v>446200</v>
+      </c>
+      <c r="K62" s="3">
         <v>436400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>439100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>429000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>323900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>329000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>295700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>843700</v>
+        <v>930700</v>
       </c>
       <c r="E66" s="3">
-        <v>868900</v>
+        <v>876000</v>
       </c>
       <c r="F66" s="3">
-        <v>903200</v>
+        <v>902200</v>
       </c>
       <c r="G66" s="3">
-        <v>933600</v>
+        <v>937700</v>
       </c>
       <c r="H66" s="3">
-        <v>871300</v>
+        <v>969300</v>
       </c>
       <c r="I66" s="3">
-        <v>843900</v>
+        <v>904600</v>
       </c>
       <c r="J66" s="3">
+        <v>876100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1036800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1021500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>973900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1342100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>949700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>888600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>634900</v>
+        <v>813200</v>
       </c>
       <c r="E72" s="3">
-        <v>722400</v>
+        <v>659200</v>
       </c>
       <c r="F72" s="3">
-        <v>727900</v>
+        <v>750000</v>
       </c>
       <c r="G72" s="3">
-        <v>675700</v>
+        <v>755700</v>
       </c>
       <c r="H72" s="3">
-        <v>548800</v>
+        <v>701600</v>
       </c>
       <c r="I72" s="3">
-        <v>440200</v>
+        <v>569700</v>
       </c>
       <c r="J72" s="3">
+        <v>457000</v>
+      </c>
+      <c r="K72" s="3">
         <v>404000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>328700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>166100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-119600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-252700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-335100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3841000</v>
+        <v>4159300</v>
       </c>
       <c r="E76" s="3">
-        <v>3878900</v>
+        <v>3987800</v>
       </c>
       <c r="F76" s="3">
-        <v>3871300</v>
+        <v>4027200</v>
       </c>
       <c r="G76" s="3">
-        <v>3809300</v>
+        <v>4019300</v>
       </c>
       <c r="H76" s="3">
-        <v>3662600</v>
+        <v>3954900</v>
       </c>
       <c r="I76" s="3">
-        <v>3546100</v>
+        <v>3802500</v>
       </c>
       <c r="J76" s="3">
+        <v>3681600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3493000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3324100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3177200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2794700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2637900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2552700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31200</v>
+        <v>218100</v>
       </c>
       <c r="E81" s="3">
-        <v>50300</v>
+        <v>-32400</v>
       </c>
       <c r="F81" s="3">
-        <v>107500</v>
+        <v>52300</v>
       </c>
       <c r="G81" s="3">
-        <v>182400</v>
+        <v>111600</v>
       </c>
       <c r="H81" s="3">
-        <v>164000</v>
+        <v>189400</v>
       </c>
       <c r="I81" s="3">
-        <v>213100</v>
+        <v>170200</v>
       </c>
       <c r="J81" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K81" s="3">
         <v>121900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>217700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>342900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>158600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>92100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>227600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>125500</v>
+        <v>180500</v>
       </c>
       <c r="E83" s="3">
-        <v>109000</v>
+        <v>130300</v>
       </c>
       <c r="F83" s="3">
-        <v>102900</v>
+        <v>113200</v>
       </c>
       <c r="G83" s="3">
-        <v>163300</v>
+        <v>106800</v>
       </c>
       <c r="H83" s="3">
-        <v>148900</v>
+        <v>169500</v>
       </c>
       <c r="I83" s="3">
-        <v>192500</v>
+        <v>154500</v>
       </c>
       <c r="J83" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K83" s="3">
         <v>88900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>101100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>96300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124000</v>
+        <v>374000</v>
       </c>
       <c r="E89" s="3">
-        <v>166300</v>
+        <v>128800</v>
       </c>
       <c r="F89" s="3">
-        <v>142900</v>
+        <v>172700</v>
       </c>
       <c r="G89" s="3">
-        <v>354600</v>
+        <v>148400</v>
       </c>
       <c r="H89" s="3">
-        <v>426600</v>
+        <v>368200</v>
       </c>
       <c r="I89" s="3">
-        <v>183200</v>
+        <v>442900</v>
       </c>
       <c r="J89" s="3">
+        <v>190200</v>
+      </c>
+      <c r="K89" s="3">
         <v>194200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>392300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>303400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>275400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>209900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F91" s="3">
-        <v>-5900</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9600</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
-        <v>-12300</v>
+        <v>-10000</v>
       </c>
       <c r="I91" s="3">
-        <v>-9900</v>
+        <v>-12700</v>
       </c>
       <c r="J91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74000</v>
+        <v>-166800</v>
       </c>
       <c r="E94" s="3">
-        <v>-179500</v>
+        <v>-76800</v>
       </c>
       <c r="F94" s="3">
-        <v>-103700</v>
+        <v>-186300</v>
       </c>
       <c r="G94" s="3">
-        <v>-112500</v>
+        <v>-107600</v>
       </c>
       <c r="H94" s="3">
-        <v>-101900</v>
+        <v>-116800</v>
       </c>
       <c r="I94" s="3">
-        <v>-166900</v>
+        <v>-105800</v>
       </c>
       <c r="J94" s="3">
+        <v>-173200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-79000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-143500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-57200</v>
+        <v>-59400</v>
       </c>
       <c r="E96" s="3">
-        <v>-56600</v>
+        <v>-59400</v>
       </c>
       <c r="F96" s="3">
-        <v>-56200</v>
+        <v>-58800</v>
       </c>
       <c r="G96" s="3">
-        <v>-56200</v>
+        <v>-58400</v>
       </c>
       <c r="H96" s="3">
-        <v>-56200</v>
+        <v>-58400</v>
       </c>
       <c r="I96" s="3">
-        <v>-111800</v>
+        <v>-58300</v>
       </c>
       <c r="J96" s="3">
+        <v>-116100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-56000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-54300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-13200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-90300</v>
+        <v>-66400</v>
       </c>
       <c r="E100" s="3">
-        <v>-59200</v>
+        <v>-93800</v>
       </c>
       <c r="F100" s="3">
-        <v>-68000</v>
+        <v>-61400</v>
       </c>
       <c r="G100" s="3">
-        <v>-66700</v>
+        <v>-70600</v>
       </c>
       <c r="H100" s="3">
-        <v>-100600</v>
+        <v>-69300</v>
       </c>
       <c r="I100" s="3">
-        <v>-144600</v>
+        <v>-104400</v>
       </c>
       <c r="J100" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-69400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-641000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>320400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-139800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9300</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="F101" s="3">
-        <v>-3600</v>
+        <v>-10700</v>
       </c>
       <c r="G101" s="3">
-        <v>-6900</v>
+        <v>-3700</v>
       </c>
       <c r="H101" s="3">
-        <v>-5200</v>
+        <v>-7200</v>
       </c>
       <c r="I101" s="3">
-        <v>-1600</v>
+        <v>-5400</v>
       </c>
       <c r="J101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49600</v>
+        <v>141700</v>
       </c>
       <c r="E102" s="3">
-        <v>-82700</v>
+        <v>-51500</v>
       </c>
       <c r="F102" s="3">
-        <v>-32300</v>
+        <v>-85800</v>
       </c>
       <c r="G102" s="3">
-        <v>168500</v>
+        <v>-33500</v>
       </c>
       <c r="H102" s="3">
-        <v>218900</v>
+        <v>174900</v>
       </c>
       <c r="I102" s="3">
-        <v>-129900</v>
+        <v>227300</v>
       </c>
       <c r="J102" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="K102" s="3">
         <v>43800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-342000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>534900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>819200</v>
+        <v>639400</v>
       </c>
       <c r="E8" s="3">
-        <v>542800</v>
+        <v>799900</v>
       </c>
       <c r="F8" s="3">
-        <v>528200</v>
+        <v>530000</v>
       </c>
       <c r="G8" s="3">
-        <v>505500</v>
+        <v>515700</v>
       </c>
       <c r="H8" s="3">
-        <v>727400</v>
+        <v>493600</v>
       </c>
       <c r="I8" s="3">
-        <v>706400</v>
+        <v>710200</v>
       </c>
       <c r="J8" s="3">
+        <v>689700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1002900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>482500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>619700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>635500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>563100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>484400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>458800</v>
+        <v>350900</v>
       </c>
       <c r="E9" s="3">
-        <v>423900</v>
+        <v>447900</v>
       </c>
       <c r="F9" s="3">
-        <v>365100</v>
+        <v>413800</v>
       </c>
       <c r="G9" s="3">
-        <v>312400</v>
+        <v>356500</v>
       </c>
       <c r="H9" s="3">
-        <v>384900</v>
+        <v>305000</v>
       </c>
       <c r="I9" s="3">
-        <v>381200</v>
+        <v>375800</v>
       </c>
       <c r="J9" s="3">
+        <v>372200</v>
+      </c>
+      <c r="K9" s="3">
         <v>607900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>272900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>288700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>281100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>259700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>239300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>237800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>360500</v>
+        <v>288500</v>
       </c>
       <c r="E10" s="3">
-        <v>119000</v>
+        <v>351900</v>
       </c>
       <c r="F10" s="3">
-        <v>163100</v>
+        <v>116200</v>
       </c>
       <c r="G10" s="3">
-        <v>193100</v>
+        <v>159200</v>
       </c>
       <c r="H10" s="3">
-        <v>342500</v>
+        <v>188600</v>
       </c>
       <c r="I10" s="3">
-        <v>325200</v>
+        <v>334400</v>
       </c>
       <c r="J10" s="3">
+        <v>317500</v>
+      </c>
+      <c r="K10" s="3">
         <v>395000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>331000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>354400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>303400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>245100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>164600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7300</v>
+        <v>22200</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>5300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>8200</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-212400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>498500</v>
+        <v>401800</v>
       </c>
       <c r="E17" s="3">
-        <v>467400</v>
+        <v>486700</v>
       </c>
       <c r="F17" s="3">
-        <v>392900</v>
+        <v>456300</v>
       </c>
       <c r="G17" s="3">
-        <v>342200</v>
+        <v>383600</v>
       </c>
       <c r="H17" s="3">
-        <v>399200</v>
+        <v>334100</v>
       </c>
       <c r="I17" s="3">
-        <v>404300</v>
+        <v>389800</v>
       </c>
       <c r="J17" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K17" s="3">
         <v>646500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>282500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>315800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>255900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>94900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>320800</v>
+        <v>237600</v>
       </c>
       <c r="E18" s="3">
-        <v>75500</v>
+        <v>313200</v>
       </c>
       <c r="F18" s="3">
-        <v>135300</v>
+        <v>73700</v>
       </c>
       <c r="G18" s="3">
-        <v>163300</v>
+        <v>132100</v>
       </c>
       <c r="H18" s="3">
-        <v>328200</v>
+        <v>159500</v>
       </c>
       <c r="I18" s="3">
-        <v>302100</v>
+        <v>320500</v>
       </c>
       <c r="J18" s="3">
+        <v>295000</v>
+      </c>
+      <c r="K18" s="3">
         <v>356400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>303900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>556900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>269400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>228600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>307400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8900</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>-7200</v>
+        <v>8700</v>
       </c>
       <c r="F20" s="3">
-        <v>14700</v>
+        <v>-7000</v>
       </c>
       <c r="G20" s="3">
-        <v>37400</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>7600</v>
-      </c>
       <c r="J20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K20" s="3">
         <v>30100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>510100</v>
+        <v>373900</v>
       </c>
       <c r="E21" s="3">
-        <v>198600</v>
+        <v>498000</v>
       </c>
       <c r="F21" s="3">
-        <v>263200</v>
+        <v>193900</v>
       </c>
       <c r="G21" s="3">
-        <v>307500</v>
+        <v>257000</v>
       </c>
       <c r="H21" s="3">
-        <v>498000</v>
+        <v>300300</v>
       </c>
       <c r="I21" s="3">
-        <v>464300</v>
+        <v>486300</v>
       </c>
       <c r="J21" s="3">
+        <v>453300</v>
+      </c>
+      <c r="K21" s="3">
         <v>586300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>299100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>414600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>657900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>371500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>299400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>397200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1354,7 @@
         <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
         <v>3700</v>
@@ -1323,131 +1363,140 @@
         <v>3600</v>
       </c>
       <c r="H22" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I22" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="J22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>325700</v>
+        <v>238800</v>
       </c>
       <c r="E23" s="3">
-        <v>64600</v>
+        <v>318000</v>
       </c>
       <c r="F23" s="3">
-        <v>146300</v>
+        <v>63000</v>
       </c>
       <c r="G23" s="3">
-        <v>197100</v>
+        <v>142800</v>
       </c>
       <c r="H23" s="3">
-        <v>324700</v>
+        <v>192500</v>
       </c>
       <c r="I23" s="3">
-        <v>305400</v>
+        <v>317100</v>
       </c>
       <c r="J23" s="3">
+        <v>298200</v>
+      </c>
+      <c r="K23" s="3">
         <v>374000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>206400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>309900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>552900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>268800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>203700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>304100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81700</v>
+        <v>101200</v>
       </c>
       <c r="E24" s="3">
-        <v>93900</v>
+        <v>79800</v>
       </c>
       <c r="F24" s="3">
-        <v>90000</v>
+        <v>91700</v>
       </c>
       <c r="G24" s="3">
-        <v>71600</v>
+        <v>87900</v>
       </c>
       <c r="H24" s="3">
-        <v>113000</v>
+        <v>69900</v>
       </c>
       <c r="I24" s="3">
-        <v>118900</v>
+        <v>110300</v>
       </c>
       <c r="J24" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K24" s="3">
         <v>135000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>84500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>74900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>244000</v>
+        <v>137600</v>
       </c>
       <c r="E26" s="3">
-        <v>-29400</v>
+        <v>238200</v>
       </c>
       <c r="F26" s="3">
-        <v>56300</v>
+        <v>-28700</v>
       </c>
       <c r="G26" s="3">
-        <v>125600</v>
+        <v>54900</v>
       </c>
       <c r="H26" s="3">
-        <v>211700</v>
+        <v>122600</v>
       </c>
       <c r="I26" s="3">
-        <v>186500</v>
+        <v>206700</v>
       </c>
       <c r="J26" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K26" s="3">
         <v>238900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>225400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>361400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>175800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>105700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>229200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>218100</v>
+        <v>116100</v>
       </c>
       <c r="E27" s="3">
-        <v>-32400</v>
+        <v>213000</v>
       </c>
       <c r="F27" s="3">
-        <v>52300</v>
+        <v>-31600</v>
       </c>
       <c r="G27" s="3">
-        <v>111600</v>
+        <v>51000</v>
       </c>
       <c r="H27" s="3">
-        <v>189400</v>
+        <v>109000</v>
       </c>
       <c r="I27" s="3">
-        <v>170200</v>
+        <v>184900</v>
       </c>
       <c r="J27" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K27" s="3">
         <v>221200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>121900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>342900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>92100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>222800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,37 +1692,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1676,13 +1737,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8900</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>7200</v>
+        <v>-8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-14700</v>
+        <v>7000</v>
       </c>
       <c r="G32" s="3">
-        <v>-37400</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>218100</v>
+        <v>116100</v>
       </c>
       <c r="E33" s="3">
-        <v>-32400</v>
+        <v>213000</v>
       </c>
       <c r="F33" s="3">
-        <v>52300</v>
+        <v>-31600</v>
       </c>
       <c r="G33" s="3">
-        <v>111600</v>
+        <v>51000</v>
       </c>
       <c r="H33" s="3">
-        <v>189400</v>
+        <v>109000</v>
       </c>
       <c r="I33" s="3">
-        <v>170200</v>
+        <v>184900</v>
       </c>
       <c r="J33" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K33" s="3">
         <v>221200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>217700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>342900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>158600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>92100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>227600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>218100</v>
+        <v>116100</v>
       </c>
       <c r="E35" s="3">
-        <v>-32400</v>
+        <v>213000</v>
       </c>
       <c r="F35" s="3">
-        <v>52300</v>
+        <v>-31600</v>
       </c>
       <c r="G35" s="3">
-        <v>111600</v>
+        <v>51000</v>
       </c>
       <c r="H35" s="3">
-        <v>189400</v>
+        <v>109000</v>
       </c>
       <c r="I35" s="3">
-        <v>170200</v>
+        <v>184900</v>
       </c>
       <c r="J35" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K35" s="3">
         <v>221200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>217700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>342900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>158600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>92100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>227600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>901400</v>
+        <v>909500</v>
       </c>
       <c r="E41" s="3">
-        <v>759700</v>
+        <v>880100</v>
       </c>
       <c r="F41" s="3">
-        <v>811200</v>
+        <v>741800</v>
       </c>
       <c r="G41" s="3">
-        <v>897000</v>
+        <v>792000</v>
       </c>
       <c r="H41" s="3">
-        <v>930600</v>
+        <v>875800</v>
       </c>
       <c r="I41" s="3">
-        <v>755700</v>
+        <v>908500</v>
       </c>
       <c r="J41" s="3">
+        <v>737800</v>
+      </c>
+      <c r="K41" s="3">
         <v>528400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>682600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>619900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>476700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>799800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>264900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>180300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,290 +2237,311 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40500</v>
+        <v>33100</v>
       </c>
       <c r="E43" s="3">
-        <v>34200</v>
+        <v>39600</v>
       </c>
       <c r="F43" s="3">
-        <v>79200</v>
+        <v>33300</v>
       </c>
       <c r="G43" s="3">
-        <v>110700</v>
+        <v>77300</v>
       </c>
       <c r="H43" s="3">
-        <v>88200</v>
+        <v>108100</v>
       </c>
       <c r="I43" s="3">
-        <v>44900</v>
+        <v>86100</v>
       </c>
       <c r="J43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K43" s="3">
         <v>64100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>459100</v>
+        <v>472800</v>
       </c>
       <c r="E44" s="3">
-        <v>406200</v>
+        <v>448200</v>
       </c>
       <c r="F44" s="3">
-        <v>415100</v>
+        <v>396600</v>
       </c>
       <c r="G44" s="3">
-        <v>385700</v>
+        <v>405300</v>
       </c>
       <c r="H44" s="3">
         <v>376600</v>
       </c>
       <c r="I44" s="3">
-        <v>373000</v>
+        <v>367700</v>
       </c>
       <c r="J44" s="3">
+        <v>364200</v>
+      </c>
+      <c r="K44" s="3">
         <v>372900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>340200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>307700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>315900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>312200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>303500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>279500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30200</v>
+        <v>32300</v>
       </c>
       <c r="E45" s="3">
-        <v>40900</v>
+        <v>29500</v>
       </c>
       <c r="F45" s="3">
-        <v>84500</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="3">
-        <v>73100</v>
+        <v>82500</v>
       </c>
       <c r="H45" s="3">
-        <v>51100</v>
+        <v>71300</v>
       </c>
       <c r="I45" s="3">
-        <v>175300</v>
+        <v>49900</v>
       </c>
       <c r="J45" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K45" s="3">
         <v>61600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1431300</v>
+        <v>1447700</v>
       </c>
       <c r="E46" s="3">
-        <v>1241100</v>
+        <v>1397500</v>
       </c>
       <c r="F46" s="3">
-        <v>1390000</v>
+        <v>1211700</v>
       </c>
       <c r="G46" s="3">
-        <v>1466600</v>
+        <v>1357100</v>
       </c>
       <c r="H46" s="3">
-        <v>1446500</v>
+        <v>1431900</v>
       </c>
       <c r="I46" s="3">
-        <v>1348900</v>
+        <v>1412300</v>
       </c>
       <c r="J46" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1026900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1122200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>985700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>864400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1189900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>637700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>550900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>384800</v>
+        <v>436500</v>
       </c>
       <c r="E47" s="3">
-        <v>332000</v>
+        <v>375700</v>
       </c>
       <c r="F47" s="3">
-        <v>304100</v>
+        <v>324100</v>
       </c>
       <c r="G47" s="3">
-        <v>293800</v>
+        <v>296900</v>
       </c>
       <c r="H47" s="3">
-        <v>275900</v>
+        <v>286900</v>
       </c>
       <c r="I47" s="3">
-        <v>198100</v>
+        <v>269400</v>
       </c>
       <c r="J47" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K47" s="3">
         <v>198400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>169700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>156300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>135400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>121600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>249300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>208700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3145300</v>
+        <v>3072400</v>
       </c>
       <c r="E48" s="3">
-        <v>3169200</v>
+        <v>3070900</v>
       </c>
       <c r="F48" s="3">
-        <v>3113100</v>
+        <v>3094300</v>
       </c>
       <c r="G48" s="3">
-        <v>3076500</v>
+        <v>3039500</v>
       </c>
       <c r="H48" s="3">
-        <v>3086000</v>
+        <v>3003800</v>
       </c>
       <c r="I48" s="3">
-        <v>3050400</v>
+        <v>3013000</v>
       </c>
       <c r="J48" s="3">
+        <v>2978300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3216200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3131900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3085000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3052800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2765700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2647100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2625100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>128600</v>
+        <v>129600</v>
       </c>
       <c r="E52" s="3">
-        <v>121500</v>
+        <v>125600</v>
       </c>
       <c r="F52" s="3">
-        <v>122100</v>
+        <v>118600</v>
       </c>
       <c r="G52" s="3">
-        <v>120100</v>
+        <v>119200</v>
       </c>
       <c r="H52" s="3">
-        <v>115900</v>
+        <v>117300</v>
       </c>
       <c r="I52" s="3">
-        <v>109800</v>
+        <v>113200</v>
       </c>
       <c r="J52" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K52" s="3">
         <v>116200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>118500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>53500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5090000</v>
+        <v>5086200</v>
       </c>
       <c r="E54" s="3">
-        <v>4863800</v>
+        <v>4969700</v>
       </c>
       <c r="F54" s="3">
-        <v>4929300</v>
+        <v>4748800</v>
       </c>
       <c r="G54" s="3">
-        <v>4957000</v>
+        <v>4812800</v>
       </c>
       <c r="H54" s="3">
-        <v>4924200</v>
+        <v>4839800</v>
       </c>
       <c r="I54" s="3">
-        <v>4707100</v>
+        <v>4807700</v>
       </c>
       <c r="J54" s="3">
+        <v>4595800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4557700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4529800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4345500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4151200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4136800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3587600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3441300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158700</v>
+        <v>147100</v>
       </c>
       <c r="E57" s="3">
-        <v>150500</v>
+        <v>155000</v>
       </c>
       <c r="F57" s="3">
-        <v>121100</v>
+        <v>147000</v>
       </c>
       <c r="G57" s="3">
-        <v>139300</v>
+        <v>118300</v>
       </c>
       <c r="H57" s="3">
-        <v>154500</v>
+        <v>136000</v>
       </c>
       <c r="I57" s="3">
-        <v>121200</v>
+        <v>150800</v>
       </c>
       <c r="J57" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K57" s="3">
         <v>103600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>115100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>105000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>99900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>102900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21500</v>
+        <v>19900</v>
       </c>
       <c r="E58" s="3">
-        <v>27400</v>
+        <v>21000</v>
       </c>
       <c r="F58" s="3">
         <v>26700</v>
       </c>
       <c r="G58" s="3">
-        <v>30200</v>
+        <v>26100</v>
       </c>
       <c r="H58" s="3">
-        <v>35100</v>
+        <v>29500</v>
       </c>
       <c r="I58" s="3">
-        <v>39800</v>
+        <v>34300</v>
       </c>
       <c r="J58" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K58" s="3">
         <v>43700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>44100</v>
       </c>
       <c r="L58" s="3">
         <v>44100</v>
       </c>
       <c r="M58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="N58" s="3">
         <v>30100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142800</v>
+        <v>195200</v>
       </c>
       <c r="E59" s="3">
-        <v>60300</v>
+        <v>139500</v>
       </c>
       <c r="F59" s="3">
-        <v>151900</v>
+        <v>58800</v>
       </c>
       <c r="G59" s="3">
-        <v>114400</v>
+        <v>148300</v>
       </c>
       <c r="H59" s="3">
-        <v>130100</v>
+        <v>111700</v>
       </c>
       <c r="I59" s="3">
-        <v>114900</v>
+        <v>127000</v>
       </c>
       <c r="J59" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K59" s="3">
         <v>91900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>230500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>210800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>323000</v>
+        <v>362200</v>
       </c>
       <c r="E60" s="3">
-        <v>238200</v>
+        <v>315400</v>
       </c>
       <c r="F60" s="3">
-        <v>299700</v>
+        <v>232500</v>
       </c>
       <c r="G60" s="3">
-        <v>283900</v>
+        <v>292600</v>
       </c>
       <c r="H60" s="3">
-        <v>319700</v>
+        <v>277200</v>
       </c>
       <c r="I60" s="3">
-        <v>275900</v>
+        <v>312100</v>
       </c>
       <c r="J60" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K60" s="3">
         <v>239300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>385700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>369700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>384100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>339200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>271200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F61" s="3">
         <v>57700</v>
       </c>
-      <c r="E61" s="3">
-        <v>59100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>65400</v>
-      </c>
       <c r="G61" s="3">
-        <v>70300</v>
+        <v>63900</v>
       </c>
       <c r="H61" s="3">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="I61" s="3">
-        <v>76000</v>
+        <v>67100</v>
       </c>
       <c r="J61" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K61" s="3">
         <v>85600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>98100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>571800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>302500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406700</v>
+        <v>405400</v>
       </c>
       <c r="E62" s="3">
-        <v>457500</v>
+        <v>397100</v>
       </c>
       <c r="F62" s="3">
-        <v>419600</v>
+        <v>446700</v>
       </c>
       <c r="G62" s="3">
-        <v>433100</v>
+        <v>409700</v>
       </c>
       <c r="H62" s="3">
-        <v>441600</v>
+        <v>422800</v>
       </c>
       <c r="I62" s="3">
-        <v>436700</v>
+        <v>431200</v>
       </c>
       <c r="J62" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K62" s="3">
         <v>446200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>436400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>439100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>429000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>323900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>329000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>295700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>930700</v>
+        <v>973900</v>
       </c>
       <c r="E66" s="3">
-        <v>876000</v>
+        <v>908700</v>
       </c>
       <c r="F66" s="3">
-        <v>902200</v>
+        <v>855300</v>
       </c>
       <c r="G66" s="3">
-        <v>937700</v>
+        <v>880800</v>
       </c>
       <c r="H66" s="3">
-        <v>969300</v>
+        <v>915600</v>
       </c>
       <c r="I66" s="3">
-        <v>904600</v>
+        <v>946300</v>
       </c>
       <c r="J66" s="3">
+        <v>883200</v>
+      </c>
+      <c r="K66" s="3">
         <v>876100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1036800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1021500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>973900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1342100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>949700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>888600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>813200</v>
+        <v>843400</v>
       </c>
       <c r="E72" s="3">
-        <v>659200</v>
+        <v>794000</v>
       </c>
       <c r="F72" s="3">
-        <v>750000</v>
+        <v>643600</v>
       </c>
       <c r="G72" s="3">
-        <v>755700</v>
+        <v>732300</v>
       </c>
       <c r="H72" s="3">
-        <v>701600</v>
+        <v>737800</v>
       </c>
       <c r="I72" s="3">
-        <v>569700</v>
+        <v>685000</v>
       </c>
       <c r="J72" s="3">
+        <v>556300</v>
+      </c>
+      <c r="K72" s="3">
         <v>457000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>404000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>328700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-119600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-252700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-335100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4159300</v>
+        <v>4112300</v>
       </c>
       <c r="E76" s="3">
-        <v>3987800</v>
+        <v>4061000</v>
       </c>
       <c r="F76" s="3">
-        <v>4027200</v>
+        <v>3893500</v>
       </c>
       <c r="G76" s="3">
-        <v>4019300</v>
+        <v>3931900</v>
       </c>
       <c r="H76" s="3">
-        <v>3954900</v>
+        <v>3924200</v>
       </c>
       <c r="I76" s="3">
-        <v>3802500</v>
+        <v>3861400</v>
       </c>
       <c r="J76" s="3">
+        <v>3712600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3681600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3493000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3324100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3177200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2794700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2637900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2552700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>218100</v>
+        <v>116100</v>
       </c>
       <c r="E81" s="3">
-        <v>-32400</v>
+        <v>213000</v>
       </c>
       <c r="F81" s="3">
-        <v>52300</v>
+        <v>-31600</v>
       </c>
       <c r="G81" s="3">
-        <v>111600</v>
+        <v>51000</v>
       </c>
       <c r="H81" s="3">
-        <v>189400</v>
+        <v>109000</v>
       </c>
       <c r="I81" s="3">
-        <v>170200</v>
+        <v>184900</v>
       </c>
       <c r="J81" s="3">
+        <v>166200</v>
+      </c>
+      <c r="K81" s="3">
         <v>221200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>217700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>342900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>158600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>92100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>227600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180500</v>
+        <v>131200</v>
       </c>
       <c r="E83" s="3">
-        <v>130300</v>
+        <v>176200</v>
       </c>
       <c r="F83" s="3">
-        <v>113200</v>
+        <v>127200</v>
       </c>
       <c r="G83" s="3">
-        <v>106800</v>
+        <v>110500</v>
       </c>
       <c r="H83" s="3">
-        <v>169500</v>
+        <v>104300</v>
       </c>
       <c r="I83" s="3">
-        <v>154500</v>
+        <v>165500</v>
       </c>
       <c r="J83" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K83" s="3">
         <v>199800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>101100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>96300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>374000</v>
+        <v>275200</v>
       </c>
       <c r="E89" s="3">
-        <v>128800</v>
+        <v>365200</v>
       </c>
       <c r="F89" s="3">
-        <v>172700</v>
+        <v>125700</v>
       </c>
       <c r="G89" s="3">
-        <v>148400</v>
+        <v>168600</v>
       </c>
       <c r="H89" s="3">
-        <v>368200</v>
+        <v>144900</v>
       </c>
       <c r="I89" s="3">
-        <v>442900</v>
+        <v>359500</v>
       </c>
       <c r="J89" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K89" s="3">
         <v>190200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>194200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>392300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>303400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>275400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>209900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-111400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-113400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-76500</v>
       </c>
       <c r="G91" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-166800</v>
+        <v>-177000</v>
       </c>
       <c r="E94" s="3">
-        <v>-76800</v>
+        <v>-162800</v>
       </c>
       <c r="F94" s="3">
-        <v>-186300</v>
+        <v>-75000</v>
       </c>
       <c r="G94" s="3">
-        <v>-107600</v>
+        <v>-181900</v>
       </c>
       <c r="H94" s="3">
-        <v>-116800</v>
+        <v>-105100</v>
       </c>
       <c r="I94" s="3">
-        <v>-105800</v>
+        <v>-114100</v>
       </c>
       <c r="J94" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-173200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-105400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-143500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-59400</v>
+        <v>-58000</v>
       </c>
       <c r="E96" s="3">
-        <v>-59400</v>
+        <v>-58000</v>
       </c>
       <c r="F96" s="3">
-        <v>-58800</v>
+        <v>-58000</v>
       </c>
       <c r="G96" s="3">
-        <v>-58400</v>
+        <v>-57400</v>
       </c>
       <c r="H96" s="3">
-        <v>-58400</v>
+        <v>-57000</v>
       </c>
       <c r="I96" s="3">
-        <v>-58300</v>
+        <v>-57000</v>
       </c>
       <c r="J96" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-116100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-56000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-54300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-82000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-13200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66400</v>
+        <v>-64600</v>
       </c>
       <c r="E100" s="3">
-        <v>-93800</v>
+        <v>-64800</v>
       </c>
       <c r="F100" s="3">
-        <v>-61400</v>
+        <v>-91500</v>
       </c>
       <c r="G100" s="3">
-        <v>-70600</v>
+        <v>-60000</v>
       </c>
       <c r="H100" s="3">
-        <v>-69300</v>
+        <v>-68900</v>
       </c>
       <c r="I100" s="3">
-        <v>-104400</v>
+        <v>-67600</v>
       </c>
       <c r="J100" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-150200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-641000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>320400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-139800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-10700</v>
+        <v>-9500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-7200</v>
+        <v>-3600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5400</v>
+        <v>-7000</v>
       </c>
       <c r="J101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>141700</v>
+        <v>29400</v>
       </c>
       <c r="E102" s="3">
-        <v>-51500</v>
+        <v>138400</v>
       </c>
       <c r="F102" s="3">
-        <v>-85800</v>
+        <v>-50300</v>
       </c>
       <c r="G102" s="3">
-        <v>-33500</v>
+        <v>-83800</v>
       </c>
       <c r="H102" s="3">
-        <v>174900</v>
+        <v>-32700</v>
       </c>
       <c r="I102" s="3">
-        <v>227300</v>
+        <v>170800</v>
       </c>
       <c r="J102" s="3">
+        <v>221900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-134900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-342000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>534900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>85800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>639400</v>
+        <v>636000</v>
       </c>
       <c r="E8" s="3">
-        <v>799900</v>
+        <v>639700</v>
       </c>
       <c r="F8" s="3">
-        <v>530000</v>
+        <v>800300</v>
       </c>
       <c r="G8" s="3">
-        <v>515700</v>
+        <v>530300</v>
       </c>
       <c r="H8" s="3">
-        <v>493600</v>
+        <v>516000</v>
       </c>
       <c r="I8" s="3">
-        <v>710200</v>
+        <v>493800</v>
       </c>
       <c r="J8" s="3">
+        <v>710600</v>
+      </c>
+      <c r="K8" s="3">
         <v>689700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1002900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>482500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>619700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>635500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>563100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>484400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>402400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>350900</v>
+        <v>378900</v>
       </c>
       <c r="E9" s="3">
-        <v>447900</v>
+        <v>351100</v>
       </c>
       <c r="F9" s="3">
-        <v>413800</v>
+        <v>448200</v>
       </c>
       <c r="G9" s="3">
-        <v>356500</v>
+        <v>414100</v>
       </c>
       <c r="H9" s="3">
-        <v>305000</v>
+        <v>356700</v>
       </c>
       <c r="I9" s="3">
-        <v>375800</v>
+        <v>305100</v>
       </c>
       <c r="J9" s="3">
+        <v>376000</v>
+      </c>
+      <c r="K9" s="3">
         <v>372200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>607900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>288700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>281100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>259700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>239300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>237800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>288500</v>
+        <v>257100</v>
       </c>
       <c r="E10" s="3">
-        <v>351900</v>
+        <v>288600</v>
       </c>
       <c r="F10" s="3">
+        <v>352100</v>
+      </c>
+      <c r="G10" s="3">
         <v>116200</v>
       </c>
-      <c r="G10" s="3">
-        <v>159200</v>
-      </c>
       <c r="H10" s="3">
-        <v>188600</v>
+        <v>159300</v>
       </c>
       <c r="I10" s="3">
-        <v>334400</v>
+        <v>188700</v>
       </c>
       <c r="J10" s="3">
+        <v>334600</v>
+      </c>
+      <c r="K10" s="3">
         <v>317500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>395000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>331000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>354400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>303400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>245100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>164600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E14" s="3">
         <v>22200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-212400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-174000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>401800</v>
+        <v>421000</v>
       </c>
       <c r="E17" s="3">
-        <v>486700</v>
+        <v>402000</v>
       </c>
       <c r="F17" s="3">
-        <v>456300</v>
+        <v>486900</v>
       </c>
       <c r="G17" s="3">
-        <v>383600</v>
+        <v>456600</v>
       </c>
       <c r="H17" s="3">
-        <v>334100</v>
+        <v>383800</v>
       </c>
       <c r="I17" s="3">
-        <v>389800</v>
+        <v>334300</v>
       </c>
       <c r="J17" s="3">
+        <v>390000</v>
+      </c>
+      <c r="K17" s="3">
         <v>394700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>646500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>282500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>315800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>255900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>94900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>237600</v>
+        <v>215000</v>
       </c>
       <c r="E18" s="3">
-        <v>313200</v>
+        <v>237700</v>
       </c>
       <c r="F18" s="3">
+        <v>313300</v>
+      </c>
+      <c r="G18" s="3">
         <v>73700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>132100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159500</v>
       </c>
-      <c r="I18" s="3">
-        <v>320500</v>
-      </c>
       <c r="J18" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K18" s="3">
         <v>295000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>356400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>303900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>556900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>269400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>228600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>307400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>373900</v>
+        <v>347100</v>
       </c>
       <c r="E21" s="3">
-        <v>498000</v>
+        <v>374100</v>
       </c>
       <c r="F21" s="3">
-        <v>193900</v>
+        <v>498300</v>
       </c>
       <c r="G21" s="3">
-        <v>257000</v>
+        <v>194000</v>
       </c>
       <c r="H21" s="3">
-        <v>300300</v>
+        <v>257100</v>
       </c>
       <c r="I21" s="3">
-        <v>486300</v>
+        <v>300400</v>
       </c>
       <c r="J21" s="3">
+        <v>486500</v>
+      </c>
+      <c r="K21" s="3">
         <v>453300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>586300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>299100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>414600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>657900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>371500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>299400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>397200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>238800</v>
+        <v>215300</v>
       </c>
       <c r="E23" s="3">
-        <v>318000</v>
+        <v>238900</v>
       </c>
       <c r="F23" s="3">
-        <v>63000</v>
+        <v>318200</v>
       </c>
       <c r="G23" s="3">
-        <v>142800</v>
+        <v>63100</v>
       </c>
       <c r="H23" s="3">
-        <v>192500</v>
+        <v>142900</v>
       </c>
       <c r="I23" s="3">
-        <v>317100</v>
+        <v>192600</v>
       </c>
       <c r="J23" s="3">
+        <v>317200</v>
+      </c>
+      <c r="K23" s="3">
         <v>298200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>374000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>206400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>309900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>552900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>268800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>203700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>304100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E24" s="3">
         <v>101200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>79800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>91700</v>
       </c>
-      <c r="G24" s="3">
-        <v>87900</v>
-      </c>
       <c r="H24" s="3">
+        <v>88000</v>
+      </c>
+      <c r="I24" s="3">
         <v>69900</v>
       </c>
-      <c r="I24" s="3">
-        <v>110300</v>
-      </c>
       <c r="J24" s="3">
+        <v>110400</v>
+      </c>
+      <c r="K24" s="3">
         <v>116100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>135000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>84500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>191500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E26" s="3">
         <v>137600</v>
       </c>
-      <c r="E26" s="3">
-        <v>238200</v>
-      </c>
       <c r="F26" s="3">
+        <v>238400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-28700</v>
       </c>
-      <c r="G26" s="3">
-        <v>54900</v>
-      </c>
       <c r="H26" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I26" s="3">
         <v>122600</v>
       </c>
-      <c r="I26" s="3">
-        <v>206700</v>
-      </c>
       <c r="J26" s="3">
+        <v>206800</v>
+      </c>
+      <c r="K26" s="3">
         <v>182100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>238900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>361400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>175800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>105700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>229200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E27" s="3">
         <v>116100</v>
       </c>
-      <c r="E27" s="3">
-        <v>213000</v>
-      </c>
       <c r="F27" s="3">
+        <v>213100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-31600</v>
       </c>
-      <c r="G27" s="3">
-        <v>51000</v>
-      </c>
       <c r="H27" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I27" s="3">
         <v>109000</v>
       </c>
-      <c r="I27" s="3">
-        <v>184900</v>
-      </c>
       <c r="J27" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K27" s="3">
         <v>166200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>221200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>121900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>217700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>342900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>158600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>92100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>222800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,14 +1782,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1740,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>4800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E33" s="3">
         <v>116100</v>
       </c>
-      <c r="E33" s="3">
-        <v>213000</v>
-      </c>
       <c r="F33" s="3">
+        <v>213100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-31600</v>
       </c>
-      <c r="G33" s="3">
-        <v>51000</v>
-      </c>
       <c r="H33" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I33" s="3">
         <v>109000</v>
       </c>
-      <c r="I33" s="3">
-        <v>184900</v>
-      </c>
       <c r="J33" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K33" s="3">
         <v>166200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>221200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>121900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>217700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>342900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>158600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>92100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>227600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E35" s="3">
         <v>116100</v>
       </c>
-      <c r="E35" s="3">
-        <v>213000</v>
-      </c>
       <c r="F35" s="3">
+        <v>213100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-31600</v>
       </c>
-      <c r="G35" s="3">
-        <v>51000</v>
-      </c>
       <c r="H35" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I35" s="3">
         <v>109000</v>
       </c>
-      <c r="I35" s="3">
-        <v>184900</v>
-      </c>
       <c r="J35" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K35" s="3">
         <v>166200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>221200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>121900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>217700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>342900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>158600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>92100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>227600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>909500</v>
+        <v>683700</v>
       </c>
       <c r="E41" s="3">
-        <v>880100</v>
+        <v>910000</v>
       </c>
       <c r="F41" s="3">
-        <v>741800</v>
+        <v>880600</v>
       </c>
       <c r="G41" s="3">
-        <v>792000</v>
+        <v>742200</v>
       </c>
       <c r="H41" s="3">
-        <v>875800</v>
+        <v>792400</v>
       </c>
       <c r="I41" s="3">
-        <v>908500</v>
+        <v>876300</v>
       </c>
       <c r="J41" s="3">
+        <v>909000</v>
+      </c>
+      <c r="K41" s="3">
         <v>737800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>528400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>682600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>619900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>476700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>799800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>264900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>180300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,308 +2330,329 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E43" s="3">
         <v>33100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39600</v>
       </c>
-      <c r="F43" s="3">
-        <v>33300</v>
-      </c>
       <c r="G43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H43" s="3">
         <v>77300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108100</v>
       </c>
-      <c r="I43" s="3">
-        <v>86100</v>
-      </c>
       <c r="J43" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K43" s="3">
         <v>43800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>472800</v>
+        <v>458000</v>
       </c>
       <c r="E44" s="3">
-        <v>448200</v>
+        <v>473000</v>
       </c>
       <c r="F44" s="3">
-        <v>396600</v>
+        <v>448500</v>
       </c>
       <c r="G44" s="3">
-        <v>405300</v>
+        <v>396800</v>
       </c>
       <c r="H44" s="3">
-        <v>376600</v>
+        <v>405500</v>
       </c>
       <c r="I44" s="3">
-        <v>367700</v>
+        <v>376800</v>
       </c>
       <c r="J44" s="3">
+        <v>367900</v>
+      </c>
+      <c r="K44" s="3">
         <v>364200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>372900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>340200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>307700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>315900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>312200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>303500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>279500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E45" s="3">
         <v>32300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40000</v>
       </c>
-      <c r="G45" s="3">
-        <v>82500</v>
-      </c>
       <c r="H45" s="3">
-        <v>71300</v>
+        <v>82600</v>
       </c>
       <c r="I45" s="3">
+        <v>71400</v>
+      </c>
+      <c r="J45" s="3">
         <v>49900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>171100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1447700</v>
+        <v>1201000</v>
       </c>
       <c r="E46" s="3">
-        <v>1397500</v>
+        <v>1448400</v>
       </c>
       <c r="F46" s="3">
-        <v>1211700</v>
+        <v>1398200</v>
       </c>
       <c r="G46" s="3">
-        <v>1357100</v>
+        <v>1212300</v>
       </c>
       <c r="H46" s="3">
-        <v>1431900</v>
+        <v>1357800</v>
       </c>
       <c r="I46" s="3">
-        <v>1412300</v>
+        <v>1432600</v>
       </c>
       <c r="J46" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1317000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1026900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1122200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>985700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>864400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1189900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>637700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>550900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>436500</v>
+        <v>480000</v>
       </c>
       <c r="E47" s="3">
-        <v>375700</v>
+        <v>436700</v>
       </c>
       <c r="F47" s="3">
-        <v>324100</v>
+        <v>375900</v>
       </c>
       <c r="G47" s="3">
-        <v>296900</v>
+        <v>324300</v>
       </c>
       <c r="H47" s="3">
-        <v>286900</v>
+        <v>297100</v>
       </c>
       <c r="I47" s="3">
-        <v>269400</v>
+        <v>287000</v>
       </c>
       <c r="J47" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K47" s="3">
         <v>193400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>169700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>156300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>135400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>121600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>249300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>208700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3072400</v>
+        <v>4817900</v>
       </c>
       <c r="E48" s="3">
-        <v>3070900</v>
+        <v>3074000</v>
       </c>
       <c r="F48" s="3">
-        <v>3094300</v>
+        <v>3072500</v>
       </c>
       <c r="G48" s="3">
-        <v>3039500</v>
+        <v>3095900</v>
       </c>
       <c r="H48" s="3">
-        <v>3003800</v>
+        <v>3041100</v>
       </c>
       <c r="I48" s="3">
-        <v>3013000</v>
+        <v>3005300</v>
       </c>
       <c r="J48" s="3">
+        <v>3014500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2978300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3216200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3131900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3085000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3052800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2765700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2647100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2625100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>129600</v>
+        <v>161200</v>
       </c>
       <c r="E52" s="3">
+        <v>129700</v>
+      </c>
+      <c r="F52" s="3">
         <v>125600</v>
       </c>
-      <c r="F52" s="3">
-        <v>118600</v>
-      </c>
       <c r="G52" s="3">
-        <v>119200</v>
+        <v>118700</v>
       </c>
       <c r="H52" s="3">
+        <v>119300</v>
+      </c>
+      <c r="I52" s="3">
         <v>117300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>113200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>118500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>56600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5086200</v>
+        <v>6660100</v>
       </c>
       <c r="E54" s="3">
-        <v>4969700</v>
+        <v>5088800</v>
       </c>
       <c r="F54" s="3">
-        <v>4748800</v>
+        <v>4972200</v>
       </c>
       <c r="G54" s="3">
-        <v>4812800</v>
+        <v>4751200</v>
       </c>
       <c r="H54" s="3">
-        <v>4839800</v>
+        <v>4815300</v>
       </c>
       <c r="I54" s="3">
-        <v>4807700</v>
+        <v>4842300</v>
       </c>
       <c r="J54" s="3">
+        <v>4810200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4595800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4557700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4529800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4345500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4151200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4136800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3587600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3441300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E57" s="3">
         <v>147100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>155000</v>
       </c>
-      <c r="F57" s="3">
-        <v>147000</v>
-      </c>
       <c r="G57" s="3">
+        <v>147100</v>
+      </c>
+      <c r="H57" s="3">
         <v>118300</v>
       </c>
-      <c r="H57" s="3">
-        <v>136000</v>
-      </c>
       <c r="I57" s="3">
-        <v>150800</v>
+        <v>136100</v>
       </c>
       <c r="J57" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K57" s="3">
         <v>118300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>115100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>99900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>102900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>106900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E58" s="3">
         <v>19900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>44100</v>
       </c>
       <c r="M58" s="3">
         <v>44100</v>
       </c>
       <c r="N58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="O58" s="3">
         <v>30100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>195200</v>
+        <v>201100</v>
       </c>
       <c r="E59" s="3">
+        <v>195300</v>
+      </c>
+      <c r="F59" s="3">
         <v>139500</v>
       </c>
-      <c r="F59" s="3">
-        <v>58800</v>
-      </c>
       <c r="G59" s="3">
-        <v>148300</v>
+        <v>58900</v>
       </c>
       <c r="H59" s="3">
+        <v>148400</v>
+      </c>
+      <c r="I59" s="3">
         <v>111700</v>
       </c>
-      <c r="I59" s="3">
-        <v>127000</v>
-      </c>
       <c r="J59" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K59" s="3">
         <v>112200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>230500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>210600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>249000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>210800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>140200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>362200</v>
+        <v>431100</v>
       </c>
       <c r="E60" s="3">
-        <v>315400</v>
+        <v>362400</v>
       </c>
       <c r="F60" s="3">
-        <v>232500</v>
+        <v>315500</v>
       </c>
       <c r="G60" s="3">
-        <v>292600</v>
+        <v>232700</v>
       </c>
       <c r="H60" s="3">
-        <v>277200</v>
+        <v>292800</v>
       </c>
       <c r="I60" s="3">
-        <v>312100</v>
+        <v>277400</v>
       </c>
       <c r="J60" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K60" s="3">
         <v>269400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>239300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>385700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>369700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>384100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>339200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>271200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46600</v>
+        <v>52200</v>
       </c>
       <c r="E61" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F61" s="3">
         <v>56300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>68600</v>
       </c>
-      <c r="I61" s="3">
-        <v>67100</v>
-      </c>
       <c r="J61" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K61" s="3">
         <v>74200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>98100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>571800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>302500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>405400</v>
+        <v>586200</v>
       </c>
       <c r="E62" s="3">
-        <v>397100</v>
+        <v>405600</v>
       </c>
       <c r="F62" s="3">
-        <v>446700</v>
+        <v>397300</v>
       </c>
       <c r="G62" s="3">
-        <v>409700</v>
+        <v>446900</v>
       </c>
       <c r="H62" s="3">
-        <v>422800</v>
+        <v>409900</v>
       </c>
       <c r="I62" s="3">
-        <v>431200</v>
+        <v>423100</v>
       </c>
       <c r="J62" s="3">
+        <v>431400</v>
+      </c>
+      <c r="K62" s="3">
         <v>426400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>446200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>436400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>439100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>429000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>323900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>329000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>295700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1227600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>974400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>909200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>855700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>881300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>916000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>946800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>883200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>876100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1036800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="O66" s="3">
         <v>973900</v>
       </c>
-      <c r="E66" s="3">
-        <v>908700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>855300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>880800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>915600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>946300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>883200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>876100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1036800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1021500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>973900</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1342100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>949700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>888600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>843400</v>
+        <v>883700</v>
       </c>
       <c r="E72" s="3">
-        <v>794000</v>
+        <v>843900</v>
       </c>
       <c r="F72" s="3">
-        <v>643600</v>
+        <v>794400</v>
       </c>
       <c r="G72" s="3">
-        <v>732300</v>
+        <v>643900</v>
       </c>
       <c r="H72" s="3">
-        <v>737800</v>
+        <v>732700</v>
       </c>
       <c r="I72" s="3">
-        <v>685000</v>
+        <v>738200</v>
       </c>
       <c r="J72" s="3">
+        <v>685300</v>
+      </c>
+      <c r="K72" s="3">
         <v>556300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>457000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>404000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>328700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>166100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-119600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-252700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-335100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4112300</v>
+        <v>5432500</v>
       </c>
       <c r="E76" s="3">
-        <v>4061000</v>
+        <v>4114400</v>
       </c>
       <c r="F76" s="3">
-        <v>3893500</v>
+        <v>4063100</v>
       </c>
       <c r="G76" s="3">
-        <v>3931900</v>
+        <v>3895500</v>
       </c>
       <c r="H76" s="3">
-        <v>3924200</v>
+        <v>3934000</v>
       </c>
       <c r="I76" s="3">
-        <v>3861400</v>
+        <v>3926200</v>
       </c>
       <c r="J76" s="3">
+        <v>3863400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3712600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3681600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3493000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3324100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3177200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2794700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2637900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2552700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E81" s="3">
         <v>116100</v>
       </c>
-      <c r="E81" s="3">
-        <v>213000</v>
-      </c>
       <c r="F81" s="3">
+        <v>213100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-31600</v>
       </c>
-      <c r="G81" s="3">
-        <v>51000</v>
-      </c>
       <c r="H81" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I81" s="3">
         <v>109000</v>
       </c>
-      <c r="I81" s="3">
-        <v>184900</v>
-      </c>
       <c r="J81" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K81" s="3">
         <v>166200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>221200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>121900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>217700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>342900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>158600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>92100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>227600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E83" s="3">
         <v>131200</v>
       </c>
-      <c r="E83" s="3">
-        <v>176200</v>
-      </c>
       <c r="F83" s="3">
+        <v>176300</v>
+      </c>
+      <c r="G83" s="3">
         <v>127200</v>
       </c>
-      <c r="G83" s="3">
-        <v>110500</v>
-      </c>
       <c r="H83" s="3">
-        <v>104300</v>
+        <v>110600</v>
       </c>
       <c r="I83" s="3">
-        <v>165500</v>
+        <v>104400</v>
       </c>
       <c r="J83" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K83" s="3">
         <v>150900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>199800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>88900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>101100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>275200</v>
+        <v>263400</v>
       </c>
       <c r="E89" s="3">
-        <v>365200</v>
+        <v>275300</v>
       </c>
       <c r="F89" s="3">
-        <v>125700</v>
+        <v>365400</v>
       </c>
       <c r="G89" s="3">
-        <v>168600</v>
+        <v>125800</v>
       </c>
       <c r="H89" s="3">
+        <v>168700</v>
+      </c>
+      <c r="I89" s="3">
         <v>144900</v>
       </c>
-      <c r="I89" s="3">
-        <v>359500</v>
-      </c>
       <c r="J89" s="3">
+        <v>359700</v>
+      </c>
+      <c r="K89" s="3">
         <v>432400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>190200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>194200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>252800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>392300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>303400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>275400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>209900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-205300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-111400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-132500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-112500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177000</v>
+        <v>-259200</v>
       </c>
       <c r="E94" s="3">
-        <v>-162800</v>
+        <v>-177100</v>
       </c>
       <c r="F94" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-75000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-181900</v>
-      </c>
       <c r="H94" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-105100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-114100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-103300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-173200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-105400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-143500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-58000</v>
+        <v>-69900</v>
       </c>
       <c r="E96" s="3">
         <v>-58000</v>
@@ -4630,10 +4864,10 @@
         <v>-58000</v>
       </c>
       <c r="G96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-57400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-57000</v>
       </c>
       <c r="I96" s="3">
         <v>-57000</v>
@@ -4642,31 +4876,34 @@
         <v>-57000</v>
       </c>
       <c r="K96" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-116100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-56000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-54300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-82000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-226300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-64800</v>
-      </c>
       <c r="F100" s="3">
-        <v>-91500</v>
+        <v>-64900</v>
       </c>
       <c r="G100" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-60000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-67600</v>
-      </c>
       <c r="J100" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-102000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-641000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>320400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-139800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-226300</v>
+      </c>
+      <c r="E102" s="3">
         <v>29400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>138400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32700</v>
       </c>
-      <c r="I102" s="3">
-        <v>170800</v>
-      </c>
       <c r="J102" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K102" s="3">
         <v>221900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-134900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>147600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-342000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>534900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>85800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>636000</v>
+        <v>657400</v>
       </c>
       <c r="E8" s="3">
-        <v>639700</v>
+        <v>647700</v>
       </c>
       <c r="F8" s="3">
-        <v>800300</v>
+        <v>651400</v>
       </c>
       <c r="G8" s="3">
-        <v>530300</v>
+        <v>815000</v>
       </c>
       <c r="H8" s="3">
-        <v>516000</v>
+        <v>540000</v>
       </c>
       <c r="I8" s="3">
-        <v>493800</v>
+        <v>525400</v>
       </c>
       <c r="J8" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K8" s="3">
         <v>710600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>689700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1002900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>482500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>619700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>635500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>563100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>484400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>402400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>398600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>378900</v>
+        <v>422800</v>
       </c>
       <c r="E9" s="3">
-        <v>351100</v>
+        <v>385900</v>
       </c>
       <c r="F9" s="3">
-        <v>448200</v>
+        <v>357500</v>
       </c>
       <c r="G9" s="3">
-        <v>414100</v>
+        <v>456400</v>
       </c>
       <c r="H9" s="3">
-        <v>356700</v>
+        <v>421700</v>
       </c>
       <c r="I9" s="3">
-        <v>305100</v>
+        <v>363200</v>
       </c>
       <c r="J9" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K9" s="3">
         <v>376000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>372200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>607900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>272900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>288700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>281100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>259700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>239300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>237800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>229000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>257100</v>
+        <v>234500</v>
       </c>
       <c r="E10" s="3">
-        <v>288600</v>
+        <v>261800</v>
       </c>
       <c r="F10" s="3">
-        <v>352100</v>
+        <v>293900</v>
       </c>
       <c r="G10" s="3">
-        <v>116200</v>
+        <v>358600</v>
       </c>
       <c r="H10" s="3">
-        <v>159300</v>
+        <v>118400</v>
       </c>
       <c r="I10" s="3">
-        <v>188700</v>
+        <v>162200</v>
       </c>
       <c r="J10" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K10" s="3">
         <v>334600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>317500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>395000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>209600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>331000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>354400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>303400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>245100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>164600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>161300</v>
       </c>
       <c r="E14" s="3">
-        <v>22200</v>
+        <v>6700</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>22600</v>
       </c>
       <c r="G14" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>5400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-212400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-174000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>421000</v>
+        <v>619500</v>
       </c>
       <c r="E17" s="3">
-        <v>402000</v>
+        <v>428800</v>
       </c>
       <c r="F17" s="3">
-        <v>486900</v>
+        <v>409400</v>
       </c>
       <c r="G17" s="3">
-        <v>456600</v>
+        <v>495900</v>
       </c>
       <c r="H17" s="3">
-        <v>383800</v>
+        <v>465000</v>
       </c>
       <c r="I17" s="3">
-        <v>334300</v>
+        <v>390900</v>
       </c>
       <c r="J17" s="3">
+        <v>340400</v>
+      </c>
+      <c r="K17" s="3">
         <v>390000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>394700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>646500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>282500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>315800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>255900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>94900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>250300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>215000</v>
+        <v>37900</v>
       </c>
       <c r="E18" s="3">
-        <v>237700</v>
+        <v>219000</v>
       </c>
       <c r="F18" s="3">
-        <v>313300</v>
+        <v>242000</v>
       </c>
       <c r="G18" s="3">
-        <v>73700</v>
+        <v>319100</v>
       </c>
       <c r="H18" s="3">
-        <v>132100</v>
+        <v>75100</v>
       </c>
       <c r="I18" s="3">
-        <v>159500</v>
+        <v>134600</v>
       </c>
       <c r="J18" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K18" s="3">
         <v>320600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>295000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>356400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>303900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>556900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>269400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>228600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>307400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>148300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
-        <v>5200</v>
-      </c>
       <c r="F20" s="3">
-        <v>8700</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7000</v>
+        <v>8800</v>
       </c>
       <c r="H20" s="3">
-        <v>14400</v>
+        <v>-7100</v>
       </c>
       <c r="I20" s="3">
-        <v>36500</v>
+        <v>14700</v>
       </c>
       <c r="J20" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>347100</v>
+        <v>199900</v>
       </c>
       <c r="E21" s="3">
-        <v>374100</v>
+        <v>353500</v>
       </c>
       <c r="F21" s="3">
-        <v>498300</v>
+        <v>380900</v>
       </c>
       <c r="G21" s="3">
-        <v>194000</v>
+        <v>507400</v>
       </c>
       <c r="H21" s="3">
-        <v>257100</v>
+        <v>197500</v>
       </c>
       <c r="I21" s="3">
-        <v>300400</v>
+        <v>261900</v>
       </c>
       <c r="J21" s="3">
+        <v>305900</v>
+      </c>
+      <c r="K21" s="3">
         <v>486500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>453300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>586300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>299100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>414600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>657900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>371500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>299400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>397200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
         <v>4000</v>
       </c>
       <c r="F22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>215300</v>
+        <v>55800</v>
       </c>
       <c r="E23" s="3">
-        <v>238900</v>
+        <v>219300</v>
       </c>
       <c r="F23" s="3">
-        <v>318200</v>
+        <v>243300</v>
       </c>
       <c r="G23" s="3">
-        <v>63100</v>
+        <v>324000</v>
       </c>
       <c r="H23" s="3">
-        <v>142900</v>
+        <v>64200</v>
       </c>
       <c r="I23" s="3">
-        <v>192600</v>
+        <v>145500</v>
       </c>
       <c r="J23" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K23" s="3">
         <v>317200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>298200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>374000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>309900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>552900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>268800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>203700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>304100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91300</v>
+        <v>103600</v>
       </c>
       <c r="E24" s="3">
-        <v>101200</v>
+        <v>92900</v>
       </c>
       <c r="F24" s="3">
-        <v>79800</v>
+        <v>103100</v>
       </c>
       <c r="G24" s="3">
-        <v>91700</v>
+        <v>81300</v>
       </c>
       <c r="H24" s="3">
-        <v>88000</v>
+        <v>93400</v>
       </c>
       <c r="I24" s="3">
-        <v>69900</v>
+        <v>89600</v>
       </c>
       <c r="J24" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K24" s="3">
         <v>110400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>135000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>84500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>191500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124100</v>
+        <v>-47800</v>
       </c>
       <c r="E26" s="3">
-        <v>137600</v>
+        <v>126300</v>
       </c>
       <c r="F26" s="3">
-        <v>238400</v>
+        <v>140200</v>
       </c>
       <c r="G26" s="3">
-        <v>-28700</v>
+        <v>242700</v>
       </c>
       <c r="H26" s="3">
-        <v>55000</v>
+        <v>-29200</v>
       </c>
       <c r="I26" s="3">
-        <v>122600</v>
+        <v>56000</v>
       </c>
       <c r="J26" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K26" s="3">
         <v>206800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>182100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>238900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>225400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>361400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>175800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>105700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>229200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>108600</v>
+        <v>-59200</v>
       </c>
       <c r="E27" s="3">
-        <v>116100</v>
+        <v>110600</v>
       </c>
       <c r="F27" s="3">
-        <v>213100</v>
+        <v>118300</v>
       </c>
       <c r="G27" s="3">
-        <v>-31600</v>
+        <v>217000</v>
       </c>
       <c r="H27" s="3">
-        <v>51100</v>
+        <v>-32200</v>
       </c>
       <c r="I27" s="3">
-        <v>109000</v>
+        <v>52000</v>
       </c>
       <c r="J27" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K27" s="3">
         <v>185000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>166200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>221200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>121900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>217700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>342900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>158600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>92100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>222800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,14 +1846,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>4800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-8700</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
-        <v>7000</v>
+        <v>-8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-14400</v>
+        <v>7100</v>
       </c>
       <c r="I32" s="3">
-        <v>-36500</v>
+        <v>-14700</v>
       </c>
       <c r="J32" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>108600</v>
+        <v>-59200</v>
       </c>
       <c r="E33" s="3">
-        <v>116100</v>
+        <v>110600</v>
       </c>
       <c r="F33" s="3">
-        <v>213100</v>
+        <v>118300</v>
       </c>
       <c r="G33" s="3">
-        <v>-31600</v>
+        <v>217000</v>
       </c>
       <c r="H33" s="3">
-        <v>51100</v>
+        <v>-32200</v>
       </c>
       <c r="I33" s="3">
-        <v>109000</v>
+        <v>52000</v>
       </c>
       <c r="J33" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K33" s="3">
         <v>185000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>221200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>121900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>217700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>342900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>158600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>92100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>227600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>108600</v>
+        <v>-59200</v>
       </c>
       <c r="E35" s="3">
-        <v>116100</v>
+        <v>110600</v>
       </c>
       <c r="F35" s="3">
-        <v>213100</v>
+        <v>118300</v>
       </c>
       <c r="G35" s="3">
-        <v>-31600</v>
+        <v>217000</v>
       </c>
       <c r="H35" s="3">
-        <v>51100</v>
+        <v>-32200</v>
       </c>
       <c r="I35" s="3">
-        <v>109000</v>
+        <v>52000</v>
       </c>
       <c r="J35" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K35" s="3">
         <v>185000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>221200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>121900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>217700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>342900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>158600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>92100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>227600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>683700</v>
+        <v>425800</v>
       </c>
       <c r="E41" s="3">
-        <v>910000</v>
+        <v>696300</v>
       </c>
       <c r="F41" s="3">
-        <v>880600</v>
+        <v>926700</v>
       </c>
       <c r="G41" s="3">
-        <v>742200</v>
+        <v>896800</v>
       </c>
       <c r="H41" s="3">
-        <v>792400</v>
+        <v>755800</v>
       </c>
       <c r="I41" s="3">
-        <v>876300</v>
+        <v>807000</v>
       </c>
       <c r="J41" s="3">
+        <v>892400</v>
+      </c>
+      <c r="K41" s="3">
         <v>909000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>737800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>528400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>682600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>619900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>476700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>799800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>264900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>180300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>187800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,326 +2423,347 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27800</v>
+        <v>42000</v>
       </c>
       <c r="E43" s="3">
-        <v>33100</v>
+        <v>28400</v>
       </c>
       <c r="F43" s="3">
-        <v>39600</v>
+        <v>33700</v>
       </c>
       <c r="G43" s="3">
-        <v>33400</v>
+        <v>40300</v>
       </c>
       <c r="H43" s="3">
-        <v>77300</v>
+        <v>34000</v>
       </c>
       <c r="I43" s="3">
-        <v>108100</v>
+        <v>78700</v>
       </c>
       <c r="J43" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K43" s="3">
         <v>86200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>62800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>458000</v>
+        <v>472700</v>
       </c>
       <c r="E44" s="3">
-        <v>473000</v>
+        <v>466400</v>
       </c>
       <c r="F44" s="3">
-        <v>448500</v>
+        <v>481700</v>
       </c>
       <c r="G44" s="3">
-        <v>396800</v>
+        <v>456700</v>
       </c>
       <c r="H44" s="3">
-        <v>405500</v>
+        <v>404100</v>
       </c>
       <c r="I44" s="3">
-        <v>376800</v>
+        <v>412900</v>
       </c>
       <c r="J44" s="3">
+        <v>383700</v>
+      </c>
+      <c r="K44" s="3">
         <v>367900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>364200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>372900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>340200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>307700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>315900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>312200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>303500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>279500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31400</v>
+        <v>32500</v>
       </c>
       <c r="E45" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="F45" s="3">
-        <v>29500</v>
+        <v>32900</v>
       </c>
       <c r="G45" s="3">
-        <v>40000</v>
+        <v>30100</v>
       </c>
       <c r="H45" s="3">
-        <v>82600</v>
+        <v>40700</v>
       </c>
       <c r="I45" s="3">
-        <v>71400</v>
+        <v>84100</v>
       </c>
       <c r="J45" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K45" s="3">
         <v>49900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>233100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1201000</v>
+        <v>972900</v>
       </c>
       <c r="E46" s="3">
-        <v>1448400</v>
+        <v>1223100</v>
       </c>
       <c r="F46" s="3">
-        <v>1398200</v>
+        <v>1475000</v>
       </c>
       <c r="G46" s="3">
-        <v>1212300</v>
+        <v>1423900</v>
       </c>
       <c r="H46" s="3">
-        <v>1357800</v>
+        <v>1234600</v>
       </c>
       <c r="I46" s="3">
-        <v>1432600</v>
+        <v>1382800</v>
       </c>
       <c r="J46" s="3">
+        <v>1458900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1413000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1317000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1026900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1122200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>985700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>864400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1189900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>637700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>550900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>719000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>480000</v>
+        <v>529400</v>
       </c>
       <c r="E47" s="3">
-        <v>436700</v>
+        <v>488900</v>
       </c>
       <c r="F47" s="3">
-        <v>375900</v>
+        <v>444700</v>
       </c>
       <c r="G47" s="3">
-        <v>324300</v>
+        <v>382800</v>
       </c>
       <c r="H47" s="3">
-        <v>297100</v>
+        <v>330300</v>
       </c>
       <c r="I47" s="3">
-        <v>287000</v>
+        <v>302500</v>
       </c>
       <c r="J47" s="3">
+        <v>292300</v>
+      </c>
+      <c r="K47" s="3">
         <v>269500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>193400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>198400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>169700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>156300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>135400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>121600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>249300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>208700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4817900</v>
+        <v>4943400</v>
       </c>
       <c r="E48" s="3">
-        <v>3074000</v>
+        <v>4906400</v>
       </c>
       <c r="F48" s="3">
-        <v>3072500</v>
+        <v>3130400</v>
       </c>
       <c r="G48" s="3">
-        <v>3095900</v>
+        <v>3128900</v>
       </c>
       <c r="H48" s="3">
-        <v>3041100</v>
+        <v>3152700</v>
       </c>
       <c r="I48" s="3">
-        <v>3005300</v>
+        <v>3096900</v>
       </c>
       <c r="J48" s="3">
+        <v>3060500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3014500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2978300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3216200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3131900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3085000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3052800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2765700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2647100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2625100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2479500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>161200</v>
+        <v>227800</v>
       </c>
       <c r="E52" s="3">
-        <v>129700</v>
+        <v>164200</v>
       </c>
       <c r="F52" s="3">
-        <v>125600</v>
+        <v>132100</v>
       </c>
       <c r="G52" s="3">
-        <v>118700</v>
+        <v>127900</v>
       </c>
       <c r="H52" s="3">
-        <v>119300</v>
+        <v>120900</v>
       </c>
       <c r="I52" s="3">
-        <v>117300</v>
+        <v>121500</v>
       </c>
       <c r="J52" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K52" s="3">
         <v>113200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>118500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>98500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>56600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6660100</v>
+        <v>6673400</v>
       </c>
       <c r="E54" s="3">
-        <v>5088800</v>
+        <v>6782400</v>
       </c>
       <c r="F54" s="3">
-        <v>4972200</v>
+        <v>5182300</v>
       </c>
       <c r="G54" s="3">
-        <v>4751200</v>
+        <v>5063500</v>
       </c>
       <c r="H54" s="3">
-        <v>4815300</v>
+        <v>4838500</v>
       </c>
       <c r="I54" s="3">
-        <v>4842300</v>
+        <v>4903700</v>
       </c>
       <c r="J54" s="3">
+        <v>4931200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4810200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4595800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4557700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4529800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4345500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4151200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4136800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3587600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3441300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3387900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>207100</v>
+        <v>243400</v>
       </c>
       <c r="E57" s="3">
-        <v>147100</v>
+        <v>210900</v>
       </c>
       <c r="F57" s="3">
-        <v>155000</v>
+        <v>149800</v>
       </c>
       <c r="G57" s="3">
-        <v>147100</v>
+        <v>157900</v>
       </c>
       <c r="H57" s="3">
+        <v>149800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>120500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>150900</v>
+      </c>
+      <c r="L57" s="3">
         <v>118300</v>
       </c>
-      <c r="I57" s="3">
-        <v>136100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>150900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>118300</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>103600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>115100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>105000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>99900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>102900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>106900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22900</v>
+        <v>20800</v>
       </c>
       <c r="E58" s="3">
-        <v>19900</v>
+        <v>23300</v>
       </c>
       <c r="F58" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="G58" s="3">
-        <v>26700</v>
+        <v>21300</v>
       </c>
       <c r="H58" s="3">
-        <v>26100</v>
+        <v>27200</v>
       </c>
       <c r="I58" s="3">
-        <v>29500</v>
+        <v>26600</v>
       </c>
       <c r="J58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K58" s="3">
         <v>34300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>44100</v>
       </c>
       <c r="N58" s="3">
         <v>44100</v>
       </c>
       <c r="O58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="P58" s="3">
         <v>30100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201100</v>
+        <v>182400</v>
       </c>
       <c r="E59" s="3">
-        <v>195300</v>
+        <v>204800</v>
       </c>
       <c r="F59" s="3">
-        <v>139500</v>
+        <v>198900</v>
       </c>
       <c r="G59" s="3">
-        <v>58900</v>
+        <v>142100</v>
       </c>
       <c r="H59" s="3">
-        <v>148400</v>
+        <v>60000</v>
       </c>
       <c r="I59" s="3">
-        <v>111700</v>
+        <v>151100</v>
       </c>
       <c r="J59" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K59" s="3">
         <v>127100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>230500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>210600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>249000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>210800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>140200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>190400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>431100</v>
+        <v>446600</v>
       </c>
       <c r="E60" s="3">
-        <v>362400</v>
+        <v>439100</v>
       </c>
       <c r="F60" s="3">
-        <v>315500</v>
+        <v>369000</v>
       </c>
       <c r="G60" s="3">
-        <v>232700</v>
+        <v>321300</v>
       </c>
       <c r="H60" s="3">
-        <v>292800</v>
+        <v>236900</v>
       </c>
       <c r="I60" s="3">
-        <v>277400</v>
+        <v>298100</v>
       </c>
       <c r="J60" s="3">
+        <v>282400</v>
+      </c>
+      <c r="K60" s="3">
         <v>312300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>269400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>239300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>385700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>369700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>384100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>339200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>271200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52200</v>
+        <v>47200</v>
       </c>
       <c r="E61" s="3">
-        <v>46700</v>
+        <v>53100</v>
       </c>
       <c r="F61" s="3">
-        <v>56300</v>
+        <v>47500</v>
       </c>
       <c r="G61" s="3">
-        <v>57700</v>
+        <v>57400</v>
       </c>
       <c r="H61" s="3">
-        <v>63900</v>
+        <v>58800</v>
       </c>
       <c r="I61" s="3">
-        <v>68600</v>
+        <v>65100</v>
       </c>
       <c r="J61" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K61" s="3">
         <v>67200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>74200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>85600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>98100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>571800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>258600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>302500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>586200</v>
+        <v>587000</v>
       </c>
       <c r="E62" s="3">
-        <v>405600</v>
+        <v>597000</v>
       </c>
       <c r="F62" s="3">
-        <v>397300</v>
+        <v>413100</v>
       </c>
       <c r="G62" s="3">
-        <v>446900</v>
+        <v>404600</v>
       </c>
       <c r="H62" s="3">
-        <v>409900</v>
+        <v>455100</v>
       </c>
       <c r="I62" s="3">
-        <v>423100</v>
+        <v>417400</v>
       </c>
       <c r="J62" s="3">
+        <v>430800</v>
+      </c>
+      <c r="K62" s="3">
         <v>431400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>426400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>446200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>436400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>439100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>429000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>323900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>329000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>295700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>258500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1227600</v>
+        <v>1231100</v>
       </c>
       <c r="E66" s="3">
-        <v>974400</v>
+        <v>1250200</v>
       </c>
       <c r="F66" s="3">
-        <v>909200</v>
+        <v>992300</v>
       </c>
       <c r="G66" s="3">
-        <v>855700</v>
+        <v>925900</v>
       </c>
       <c r="H66" s="3">
-        <v>881300</v>
+        <v>871400</v>
       </c>
       <c r="I66" s="3">
-        <v>916000</v>
+        <v>897500</v>
       </c>
       <c r="J66" s="3">
+        <v>932900</v>
+      </c>
+      <c r="K66" s="3">
         <v>946800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>883200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>876100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1036800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1021500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>973900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1342100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>949700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>888600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1068400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>883700</v>
+        <v>770600</v>
       </c>
       <c r="E72" s="3">
-        <v>843900</v>
+        <v>899900</v>
       </c>
       <c r="F72" s="3">
-        <v>794400</v>
+        <v>859300</v>
       </c>
       <c r="G72" s="3">
-        <v>643900</v>
+        <v>809000</v>
       </c>
       <c r="H72" s="3">
-        <v>732700</v>
+        <v>655700</v>
       </c>
       <c r="I72" s="3">
-        <v>738200</v>
+        <v>746100</v>
       </c>
       <c r="J72" s="3">
+        <v>751700</v>
+      </c>
+      <c r="K72" s="3">
         <v>685300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>556300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>457000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>404000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>328700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>166100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-119600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-252700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-335100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-550600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5432500</v>
+        <v>5442300</v>
       </c>
       <c r="E76" s="3">
-        <v>4114400</v>
+        <v>5532300</v>
       </c>
       <c r="F76" s="3">
-        <v>4063100</v>
+        <v>4190000</v>
       </c>
       <c r="G76" s="3">
-        <v>3895500</v>
+        <v>4137700</v>
       </c>
       <c r="H76" s="3">
-        <v>3934000</v>
+        <v>3967000</v>
       </c>
       <c r="I76" s="3">
-        <v>3926200</v>
+        <v>4006200</v>
       </c>
       <c r="J76" s="3">
+        <v>3998300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3863400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3712600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3681600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3493000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3324100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3177200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2794700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2637900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2552700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2319500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>108600</v>
+        <v>-59200</v>
       </c>
       <c r="E81" s="3">
-        <v>116100</v>
+        <v>110600</v>
       </c>
       <c r="F81" s="3">
-        <v>213100</v>
+        <v>118300</v>
       </c>
       <c r="G81" s="3">
-        <v>-31600</v>
+        <v>217000</v>
       </c>
       <c r="H81" s="3">
-        <v>51100</v>
+        <v>-32200</v>
       </c>
       <c r="I81" s="3">
-        <v>109000</v>
+        <v>52000</v>
       </c>
       <c r="J81" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K81" s="3">
         <v>185000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>221200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>121900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>217700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>342900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>158600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>92100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>227600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127900</v>
+        <v>139700</v>
       </c>
       <c r="E83" s="3">
-        <v>131200</v>
+        <v>130200</v>
       </c>
       <c r="F83" s="3">
-        <v>176300</v>
+        <v>133600</v>
       </c>
       <c r="G83" s="3">
-        <v>127200</v>
+        <v>179500</v>
       </c>
       <c r="H83" s="3">
-        <v>110600</v>
+        <v>129600</v>
       </c>
       <c r="I83" s="3">
-        <v>104400</v>
+        <v>112600</v>
       </c>
       <c r="J83" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K83" s="3">
         <v>165600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>150900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>199800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>88900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>263400</v>
+        <v>151600</v>
       </c>
       <c r="E89" s="3">
-        <v>275300</v>
+        <v>268200</v>
       </c>
       <c r="F89" s="3">
-        <v>365400</v>
+        <v>280400</v>
       </c>
       <c r="G89" s="3">
-        <v>125800</v>
+        <v>372100</v>
       </c>
       <c r="H89" s="3">
-        <v>168700</v>
+        <v>128100</v>
       </c>
       <c r="I89" s="3">
-        <v>144900</v>
+        <v>171800</v>
       </c>
       <c r="J89" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K89" s="3">
         <v>359700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>432400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>190200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>194200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>252800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>392300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>303400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>275400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>209900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-205300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-111400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-132500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-112500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-259200</v>
+        <v>-323200</v>
       </c>
       <c r="E94" s="3">
-        <v>-177100</v>
+        <v>-263900</v>
       </c>
       <c r="F94" s="3">
-        <v>-162900</v>
+        <v>-180300</v>
       </c>
       <c r="G94" s="3">
-        <v>-75000</v>
+        <v>-165900</v>
       </c>
       <c r="H94" s="3">
-        <v>-182000</v>
+        <v>-76400</v>
       </c>
       <c r="I94" s="3">
-        <v>-105100</v>
+        <v>-185400</v>
       </c>
       <c r="J94" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-114100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-173200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-105400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-143500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-74100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-93800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-69900</v>
+        <v>-62400</v>
       </c>
       <c r="E96" s="3">
-        <v>-58000</v>
+        <v>-71200</v>
       </c>
       <c r="F96" s="3">
-        <v>-58000</v>
+        <v>-59100</v>
       </c>
       <c r="G96" s="3">
-        <v>-58000</v>
+        <v>-59100</v>
       </c>
       <c r="H96" s="3">
-        <v>-57400</v>
+        <v>-59100</v>
       </c>
       <c r="I96" s="3">
-        <v>-57000</v>
+        <v>-58500</v>
       </c>
       <c r="J96" s="3">
-        <v>-57000</v>
+        <v>-58100</v>
       </c>
       <c r="K96" s="3">
         <v>-57000</v>
       </c>
       <c r="L96" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-116100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-56000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-54300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-82000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-13200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-226300</v>
+        <v>-81500</v>
       </c>
       <c r="E100" s="3">
-        <v>-64600</v>
+        <v>-230500</v>
       </c>
       <c r="F100" s="3">
-        <v>-64900</v>
+        <v>-65800</v>
       </c>
       <c r="G100" s="3">
-        <v>-91600</v>
+        <v>-66100</v>
       </c>
       <c r="H100" s="3">
-        <v>-60000</v>
+        <v>-93300</v>
       </c>
       <c r="I100" s="3">
-        <v>-68900</v>
+        <v>-61100</v>
       </c>
       <c r="J100" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-67700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-150200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-641000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>320400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-139800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4100</v>
+        <v>-17400</v>
       </c>
       <c r="E101" s="3">
         <v>-4200</v>
       </c>
       <c r="F101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-10500</v>
+        <v>-9600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>-10700</v>
       </c>
       <c r="J101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-226300</v>
+        <v>-270500</v>
       </c>
       <c r="E102" s="3">
-        <v>29400</v>
+        <v>-230400</v>
       </c>
       <c r="F102" s="3">
-        <v>138400</v>
+        <v>30000</v>
       </c>
       <c r="G102" s="3">
-        <v>-50300</v>
+        <v>141000</v>
       </c>
       <c r="H102" s="3">
-        <v>-83800</v>
+        <v>-51200</v>
       </c>
       <c r="I102" s="3">
-        <v>-32700</v>
+        <v>-85400</v>
       </c>
       <c r="J102" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K102" s="3">
         <v>170900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>221900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-134900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>147600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-342000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>534900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>85800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42200</v>
       </c>
     </row>
